--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -3672,16 +3672,16 @@
         <v>50</v>
       </c>
       <c r="B32" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="D32" s="2">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="F32" s="2">
         <v>5526</v>
@@ -3951,13 +3951,13 @@
         <v>121</v>
       </c>
       <c r="C35" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F35" s="11">
         <v>24722</v>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>5328</v>
+        <v>5482</v>
       </c>
       <c r="G2" s="1">
-        <v>4017</v>
+        <v>4236</v>
       </c>
       <c r="H2" s="1">
         <v>3762</v>
@@ -945,21 +945,21 @@
         <v>92258304</v>
       </c>
       <c r="M2" s="1">
-        <v>2455</v>
+        <v>2542</v>
       </c>
       <c r="N2" s="1">
-        <v>1995</v>
+        <v>2068</v>
       </c>
       <c r="O2" s="1">
         <v>378</v>
       </c>
       <c r="P2" s="8">
         <f>M2/F2</f>
-        <v>0.46077327327327328</v>
+        <v>0.46369937978839837</v>
       </c>
       <c r="Q2" s="8">
         <f>N2/G2</f>
-        <v>0.49663928304705002</v>
+        <v>0.48819641170915956</v>
       </c>
       <c r="R2" s="8">
         <f>O2/H2</f>
@@ -978,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>4506</v>
+        <v>4682</v>
       </c>
       <c r="X2" s="1">
-        <v>2442</v>
+        <v>2513</v>
       </c>
       <c r="Y2" s="1">
         <v>1147</v>
       </c>
       <c r="Z2" s="8">
         <f>W2/F2</f>
-        <v>0.84572072072072069</v>
+        <v>0.85406785844582267</v>
       </c>
       <c r="AA2" s="9">
         <f>X2/G2</f>
-        <v>0.607916355489171</v>
+        <v>0.59324834749763933</v>
       </c>
       <c r="AB2" s="9">
         <f>Y2/H2</f>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>6713</v>
+        <v>6983</v>
       </c>
       <c r="G3" s="2">
-        <v>4068</v>
+        <v>4255</v>
       </c>
       <c r="H3" s="2">
         <v>3791</v>
@@ -1037,21 +1037,21 @@
         <v>92258304</v>
       </c>
       <c r="M3" s="2">
-        <v>2454</v>
+        <v>2548</v>
       </c>
       <c r="N3" s="2">
-        <v>2004</v>
+        <v>2083</v>
       </c>
       <c r="O3" s="1">
         <v>376</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" ref="P3:P35" si="0">M3/F3</f>
-        <v>0.36555936243110382</v>
+        <v>0.36488615208363168</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q35" si="1">N3/G3</f>
-        <v>0.49262536873156343</v>
+        <v>0.48954171562867216</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" ref="R3:R35" si="2">O3/H3</f>
@@ -1070,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>5494</v>
+        <v>5713</v>
       </c>
       <c r="X3" s="2">
-        <v>2431</v>
+        <v>2494</v>
       </c>
       <c r="Y3" s="1">
         <v>1144</v>
       </c>
       <c r="Z3" s="8">
         <f t="shared" ref="Z3:Z35" si="3">W3/F3</f>
-        <v>0.81841203634738569</v>
+        <v>0.81812974366318203</v>
       </c>
       <c r="AA3" s="9">
         <f t="shared" ref="AA3:AA35" si="4">X3/G3</f>
-        <v>0.59759095378564409</v>
+        <v>0.58613396004700358</v>
       </c>
       <c r="AB3" s="9">
         <f t="shared" ref="AB3:AB35" si="5">Y3/H3</f>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>3127</v>
+        <v>3288</v>
       </c>
       <c r="G4" s="2">
-        <v>2427</v>
+        <v>2502</v>
       </c>
       <c r="H4" s="2">
         <v>1820</v>
@@ -1129,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>3173</v>
+        <v>3281</v>
       </c>
       <c r="N4" s="2">
-        <v>2697</v>
+        <v>2826</v>
       </c>
       <c r="O4" s="1">
         <v>376</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="0"/>
-        <v>1.0147105852254557</v>
+        <v>0.99787104622871048</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="1"/>
-        <v>1.1112484548825712</v>
+        <v>1.1294964028776979</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="2"/>
@@ -1162,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>5197</v>
+        <v>5411</v>
       </c>
       <c r="X4" s="2">
-        <v>3037</v>
+        <v>3158</v>
       </c>
       <c r="Y4" s="1">
         <v>1775</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" si="3"/>
-        <v>1.6619763351455068</v>
+        <v>1.6456812652068127</v>
       </c>
       <c r="AA4" s="9">
         <f t="shared" si="4"/>
-        <v>1.2513391017717346</v>
+        <v>1.2621902478017586</v>
       </c>
       <c r="AB4" s="9">
         <f t="shared" si="5"/>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>3862</v>
+        <v>3969</v>
       </c>
       <c r="G5" s="2">
-        <v>2902</v>
+        <v>3205</v>
       </c>
       <c r="H5" s="2">
         <v>2104</v>
@@ -1221,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>3534</v>
+        <v>3651</v>
       </c>
       <c r="N5" s="2">
-        <v>3028</v>
+        <v>3167</v>
       </c>
       <c r="O5" s="1">
         <v>377</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="0"/>
-        <v>0.91506991196271359</v>
+        <v>0.91987906273620557</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="1"/>
-        <v>1.0434183321847001</v>
+        <v>0.98814352574102959</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="2"/>
@@ -1254,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="W5" s="2">
-        <v>7310</v>
+        <v>7604</v>
       </c>
       <c r="X5" s="2">
-        <v>3528</v>
+        <v>3658</v>
       </c>
       <c r="Y5" s="1">
         <v>2056</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" si="3"/>
-        <v>1.8928016571724495</v>
+        <v>1.9158478206097254</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="4"/>
-        <v>1.2157133011716057</v>
+        <v>1.1413416536661467</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="5"/>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1151</v>
+        <v>1207</v>
       </c>
       <c r="G6" s="2">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="H6" s="2">
         <v>589</v>
@@ -1313,21 +1313,21 @@
         <v>11280</v>
       </c>
       <c r="M6" s="2">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="N6" s="2">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="O6" s="1">
         <v>262</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="0"/>
-        <v>0.62554300608166813</v>
+        <v>0.61391880695940348</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="1"/>
-        <v>0.75229357798165142</v>
+        <v>0.77307692307692311</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="2"/>
@@ -1346,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>1447</v>
+        <v>1514</v>
       </c>
       <c r="X6" s="2">
-        <v>647</v>
+        <v>664</v>
       </c>
       <c r="Y6" s="1">
         <v>372</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" si="3"/>
-        <v>1.2571676802780192</v>
+        <v>1.2543496271748136</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" si="4"/>
-        <v>0.84796854521625165</v>
+        <v>0.85128205128205126</v>
       </c>
       <c r="AB6" s="9">
         <f t="shared" si="5"/>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>20775</v>
+        <v>21572</v>
       </c>
       <c r="G7" s="2">
-        <v>18203</v>
+        <v>18963</v>
       </c>
       <c r="H7" s="2">
         <v>14420</v>
@@ -1405,21 +1405,21 @@
         <v>429655</v>
       </c>
       <c r="M7" s="2">
-        <v>11284</v>
+        <v>11494</v>
       </c>
       <c r="N7" s="2">
-        <v>9027</v>
+        <v>9266</v>
       </c>
       <c r="O7" s="1">
         <v>1964</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>0.54315282791817088</v>
+        <v>0.53282032264045986</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="1"/>
-        <v>0.49590726803274188</v>
+        <v>0.48863576438327266</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="2"/>
@@ -1438,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>25794</v>
+        <v>26750</v>
       </c>
       <c r="X7" s="2">
-        <v>12398</v>
+        <v>12815</v>
       </c>
       <c r="Y7" s="1">
         <v>5347</v>
       </c>
       <c r="Z7" s="8">
         <f t="shared" si="3"/>
-        <v>1.2415884476534296</v>
+        <v>1.2400333765992955</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="4"/>
-        <v>0.68109652255122777</v>
+        <v>0.67578969572325054</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="5"/>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>4689</v>
+        <v>4819</v>
       </c>
       <c r="G8" s="2">
-        <v>4338</v>
+        <v>4475</v>
       </c>
       <c r="H8" s="2">
         <v>3788</v>
@@ -1497,21 +1497,21 @@
         <v>9848</v>
       </c>
       <c r="M8" s="2">
-        <v>2105</v>
+        <v>2221</v>
       </c>
       <c r="N8" s="2">
-        <v>2178</v>
+        <v>2445</v>
       </c>
       <c r="O8" s="1">
         <v>1192</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="0"/>
-        <v>0.44892301130304968</v>
+        <v>0.46088400083004771</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="1"/>
-        <v>0.50207468879668049</v>
+        <v>0.54636871508379892</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="2"/>
@@ -1530,21 +1530,21 @@
         <v>6772</v>
       </c>
       <c r="W8" s="2">
-        <v>2733</v>
+        <v>2739</v>
       </c>
       <c r="X8" s="2">
-        <v>2222</v>
+        <v>2292</v>
       </c>
       <c r="Y8" s="1">
         <v>1483</v>
       </c>
       <c r="Z8" s="8">
         <f t="shared" si="3"/>
-        <v>0.58285348688419703</v>
+        <v>0.56837518157294042</v>
       </c>
       <c r="AA8" s="9">
         <f t="shared" si="4"/>
-        <v>0.512217611802674</v>
+        <v>0.51217877094972064</v>
       </c>
       <c r="AB8" s="9">
         <f t="shared" si="5"/>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>4481</v>
+        <v>4568</v>
       </c>
       <c r="G9" s="2">
-        <v>4688</v>
+        <v>4736</v>
       </c>
       <c r="H9" s="2">
         <v>4074</v>
@@ -1589,21 +1589,21 @@
         <v>9218</v>
       </c>
       <c r="M9" s="2">
-        <v>8026</v>
+        <v>8382</v>
       </c>
       <c r="N9" s="2">
-        <v>4416</v>
+        <v>4568</v>
       </c>
       <c r="O9" s="1">
         <v>3160</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="0"/>
-        <v>1.7911180540058023</v>
+        <v>1.834938704028021</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="1"/>
-        <v>0.94197952218430037</v>
+        <v>0.96452702702702697</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="2"/>
@@ -1622,21 +1622,21 @@
         <v>6144</v>
       </c>
       <c r="W9" s="2">
-        <v>7239</v>
+        <v>7435</v>
       </c>
       <c r="X9" s="2">
-        <v>4336</v>
+        <v>4528</v>
       </c>
       <c r="Y9" s="1">
         <v>3398</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" si="3"/>
-        <v>1.615487614371792</v>
+        <v>1.6276269702276707</v>
       </c>
       <c r="AA9" s="9">
         <f t="shared" si="4"/>
-        <v>0.92491467576791808</v>
+        <v>0.95608108108108103</v>
       </c>
       <c r="AB9" s="9">
         <f t="shared" si="5"/>
@@ -1660,10 +1660,10 @@
         <v>310</v>
       </c>
       <c r="F10" s="2">
-        <v>5501</v>
+        <v>5794</v>
       </c>
       <c r="G10" s="2">
-        <v>5254</v>
+        <v>5489</v>
       </c>
       <c r="H10" s="2">
         <v>4708</v>
@@ -1681,21 +1681,21 @@
         <v>9846</v>
       </c>
       <c r="M10" s="2">
-        <v>4766</v>
+        <v>4959</v>
       </c>
       <c r="N10" s="2">
-        <v>2528</v>
+        <v>2693</v>
       </c>
       <c r="O10" s="1">
         <v>1467</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="0"/>
-        <v>0.86638792946736953</v>
+        <v>0.85588539868829827</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="1"/>
-        <v>0.48115721355157975</v>
+        <v>0.49061759883403172</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
@@ -1714,21 +1714,21 @@
         <v>6772</v>
       </c>
       <c r="W10" s="2">
-        <v>4404</v>
+        <v>4566</v>
       </c>
       <c r="X10" s="2">
-        <v>2627</v>
+        <v>2499</v>
       </c>
       <c r="Y10" s="1">
         <v>1680</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" si="3"/>
-        <v>0.80058171241592435</v>
+        <v>0.78805661028650331</v>
       </c>
       <c r="AA10" s="9">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.45527418473310255</v>
       </c>
       <c r="AB10" s="9">
         <f t="shared" si="5"/>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>3380</v>
+        <v>3623</v>
       </c>
       <c r="G11" s="2">
-        <v>3324</v>
+        <v>3306</v>
       </c>
       <c r="H11" s="2">
         <v>2914</v>
@@ -1773,21 +1773,21 @@
         <v>4</v>
       </c>
       <c r="M11" s="2">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="N11" s="2">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="O11" s="1">
         <v>157</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>0.21745562130177515</v>
+        <v>0.21004692243996687</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="1"/>
-        <v>0.16636582430806257</v>
+        <v>0.1736237144585602</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="2"/>
@@ -1806,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>1029</v>
+        <v>1070</v>
       </c>
       <c r="X11" s="2">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="Y11" s="1">
         <v>348</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" si="3"/>
-        <v>0.30443786982248522</v>
+        <v>0.2953353574385868</v>
       </c>
       <c r="AA11" s="9">
         <f t="shared" si="4"/>
-        <v>0.18561973525872444</v>
+        <v>0.19328493647912887</v>
       </c>
       <c r="AB11" s="9">
         <f t="shared" si="5"/>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>3467</v>
+        <v>3618</v>
       </c>
       <c r="G12" s="2">
-        <v>3169</v>
+        <v>3295</v>
       </c>
       <c r="H12" s="2">
         <v>2896</v>
@@ -1865,21 +1865,21 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="N12" s="2">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="O12" s="1">
         <v>168</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="0"/>
-        <v>0.21372944909143352</v>
+        <v>0.21365395245992261</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="1"/>
-        <v>0.18649416219627643</v>
+        <v>0.18755690440060699</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="2"/>
@@ -1898,21 +1898,21 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>1048</v>
+        <v>1092</v>
       </c>
       <c r="X12" s="2">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="Y12" s="1">
         <v>360</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" si="3"/>
-        <v>0.30227862705509084</v>
+        <v>0.30182421227197348</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="4"/>
-        <v>0.21047649100662669</v>
+        <v>0.20606980273141123</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="5"/>
@@ -1936,10 +1936,10 @@
         <v>868</v>
       </c>
       <c r="F13" s="2">
-        <v>6377</v>
+        <v>6638</v>
       </c>
       <c r="G13" s="2">
-        <v>5779</v>
+        <v>5972</v>
       </c>
       <c r="H13" s="2">
         <v>5210</v>
@@ -1957,21 +1957,21 @@
         <v>5</v>
       </c>
       <c r="M13" s="2">
-        <v>1746</v>
+        <v>1801</v>
       </c>
       <c r="N13" s="2">
-        <v>1262</v>
+        <v>1318</v>
       </c>
       <c r="O13" s="1">
         <v>576</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="0"/>
-        <v>0.27379645601379959</v>
+        <v>0.27131666164507384</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="1"/>
-        <v>0.21837688181346254</v>
+        <v>0.22069658405894174</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="2"/>
@@ -1990,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>2019</v>
+        <v>2102</v>
       </c>
       <c r="X13" s="2">
-        <v>1439</v>
+        <v>1499</v>
       </c>
       <c r="Y13" s="1">
         <v>885</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" si="3"/>
-        <v>0.31660655480633526</v>
+        <v>0.31666164507381739</v>
       </c>
       <c r="AA13" s="9">
         <f t="shared" si="4"/>
-        <v>0.24900501816923343</v>
+        <v>0.25100468854655056</v>
       </c>
       <c r="AB13" s="9">
         <f t="shared" si="5"/>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>5375</v>
+        <v>5574</v>
       </c>
       <c r="G14" s="2">
-        <v>3106</v>
+        <v>3240</v>
       </c>
       <c r="H14" s="2">
         <v>2915</v>
@@ -2049,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1716</v>
+        <v>1777</v>
       </c>
       <c r="N14" s="2">
-        <v>1154</v>
+        <v>1197</v>
       </c>
       <c r="O14" s="1">
         <v>923</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="0"/>
-        <v>0.3192558139534884</v>
+        <v>0.31880157875852172</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="1"/>
-        <v>0.37153895685769478</v>
+        <v>0.36944444444444446</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="2"/>
@@ -2082,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>1957</v>
+        <v>2029</v>
       </c>
       <c r="X14" s="2">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="Y14" s="1">
         <v>564</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" si="3"/>
-        <v>0.36409302325581394</v>
+        <v>0.36401148188015786</v>
       </c>
       <c r="AA14" s="9">
         <f t="shared" si="4"/>
-        <v>0.29265936896329686</v>
+        <v>0.27716049382716051</v>
       </c>
       <c r="AB14" s="9">
         <f t="shared" si="5"/>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1424</v>
+        <v>1494</v>
       </c>
       <c r="G15" s="2">
-        <v>1428</v>
+        <v>1502</v>
       </c>
       <c r="H15" s="2">
         <v>1272</v>
@@ -2141,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="N15" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="O15" s="1">
         <v>90</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="0"/>
-        <v>0.2893258426966292</v>
+        <v>0.28380187416331992</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="1"/>
-        <v>0.24859943977591037</v>
+        <v>0.24500665778961384</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="2"/>
@@ -2174,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="X15" s="2">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="Y15" s="1">
         <v>248</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" si="3"/>
-        <v>0.4782303370786517</v>
+        <v>0.4718875502008032</v>
       </c>
       <c r="AA15" s="9">
         <f t="shared" si="4"/>
-        <v>0.26820728291316526</v>
+        <v>0.26498002663115844</v>
       </c>
       <c r="AB15" s="9">
         <f t="shared" si="5"/>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>13103</v>
+        <v>13662</v>
       </c>
       <c r="G16" s="2">
-        <v>13126</v>
+        <v>13678</v>
       </c>
       <c r="H16" s="2">
         <v>12476</v>
@@ -2233,21 +2233,21 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>4684</v>
+        <v>4876</v>
       </c>
       <c r="N16" s="2">
-        <v>3089</v>
+        <v>3208</v>
       </c>
       <c r="O16" s="1">
         <v>2242</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="0"/>
-        <v>0.35747538731588185</v>
+        <v>0.35690235690235689</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="1"/>
-        <v>0.23533445070851744</v>
+        <v>0.23453721304284253</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="2"/>
@@ -2266,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>6201</v>
+        <v>6438</v>
       </c>
       <c r="X16" s="2">
-        <v>4531</v>
+        <v>4731</v>
       </c>
       <c r="Y16" s="1">
         <v>3190</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" si="3"/>
-        <v>0.4732504006716019</v>
+        <v>0.4712340799297321</v>
       </c>
       <c r="AA16" s="9">
         <f t="shared" si="4"/>
-        <v>0.34519274721925947</v>
+        <v>0.34588390115513962</v>
       </c>
       <c r="AB16" s="9">
         <f t="shared" si="5"/>
@@ -2304,10 +2304,10 @@
         <v>465</v>
       </c>
       <c r="F17" s="2">
-        <v>7477</v>
+        <v>7782</v>
       </c>
       <c r="G17" s="2">
-        <v>7225</v>
+        <v>7516</v>
       </c>
       <c r="H17" s="2">
         <v>6296</v>
@@ -2325,21 +2325,21 @@
         <v>148569</v>
       </c>
       <c r="M17" s="2">
-        <v>4037</v>
+        <v>4212</v>
       </c>
       <c r="N17" s="2">
-        <v>4134</v>
+        <v>4420</v>
       </c>
       <c r="O17" s="1">
         <v>3072</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="0"/>
-        <v>0.53992242878159691</v>
+        <v>0.54124903623747112</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="1"/>
-        <v>0.57217993079584772</v>
+        <v>0.58807876530069181</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="2"/>
@@ -2358,21 +2358,21 @@
         <v>121458</v>
       </c>
       <c r="W17" s="2">
-        <v>4475</v>
+        <v>4690</v>
       </c>
       <c r="X17" s="2">
-        <v>4787</v>
+        <v>5442</v>
       </c>
       <c r="Y17" s="1">
         <v>3663</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" si="3"/>
-        <v>0.5985020730239401</v>
+        <v>0.60267283474685174</v>
       </c>
       <c r="AA17" s="9">
         <f t="shared" si="4"/>
-        <v>0.66256055363321797</v>
+        <v>0.72405534858967535</v>
       </c>
       <c r="AB17" s="9">
         <f t="shared" si="5"/>
@@ -2396,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>3777</v>
+        <v>3938</v>
       </c>
       <c r="G18" s="2">
-        <v>3633</v>
+        <v>3786</v>
       </c>
       <c r="H18" s="2">
         <v>3257</v>
@@ -2417,21 +2417,21 @@
         <v>4</v>
       </c>
       <c r="M18" s="2">
-        <v>1322</v>
+        <v>1361</v>
       </c>
       <c r="N18" s="2">
-        <v>1031</v>
+        <v>1074</v>
       </c>
       <c r="O18" s="1">
         <v>341</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="0"/>
-        <v>0.35001323801959228</v>
+        <v>0.34560690705942104</v>
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="1"/>
-        <v>0.28378750344068265</v>
+        <v>0.28367670364500791</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="2"/>
@@ -2450,21 +2450,21 @@
         <v>8</v>
       </c>
       <c r="W18" s="2">
-        <v>7488</v>
+        <v>7781</v>
       </c>
       <c r="X18" s="2">
-        <v>1252</v>
+        <v>1296</v>
       </c>
       <c r="Y18" s="1">
         <v>716</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" si="3"/>
-        <v>1.9825258141382049</v>
+        <v>1.9758760792280345</v>
       </c>
       <c r="AA18" s="9">
         <f t="shared" si="4"/>
-        <v>0.34461877236443711</v>
+        <v>0.34231378763866877</v>
       </c>
       <c r="AB18" s="9">
         <f t="shared" si="5"/>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>4573</v>
+        <v>4714</v>
       </c>
       <c r="G19" s="2">
-        <v>4098</v>
+        <v>4247</v>
       </c>
       <c r="H19" s="2">
         <v>2919</v>
@@ -2509,21 +2509,21 @@
         <v>4062</v>
       </c>
       <c r="M19" s="2">
-        <v>1621</v>
+        <v>1684</v>
       </c>
       <c r="N19" s="2">
-        <v>1746</v>
+        <v>1798</v>
       </c>
       <c r="O19" s="1">
         <v>855</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="0"/>
-        <v>0.35447190028427727</v>
+        <v>0.35723377174374205</v>
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="1"/>
-        <v>0.42606149341142019</v>
+        <v>0.42335766423357662</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="2"/>
@@ -2542,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="W19" s="2">
-        <v>2173</v>
+        <v>2257</v>
       </c>
       <c r="X19" s="2">
-        <v>1593</v>
+        <v>1654</v>
       </c>
       <c r="Y19" s="1">
         <v>1061</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" si="3"/>
-        <v>0.4751804067351848</v>
+        <v>0.47878659312685617</v>
       </c>
       <c r="AA19" s="9">
         <f t="shared" si="4"/>
-        <v>0.38872620790629575</v>
+        <v>0.38945137744290087</v>
       </c>
       <c r="AB19" s="9">
         <f t="shared" si="5"/>
@@ -2580,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>4734</v>
+        <v>4911</v>
       </c>
       <c r="G20" s="2">
-        <v>4270</v>
+        <v>4445</v>
       </c>
       <c r="H20" s="2">
         <v>3035</v>
@@ -2601,21 +2601,21 @@
         <v>6154</v>
       </c>
       <c r="M20" s="2">
-        <v>1590</v>
+        <v>1650</v>
       </c>
       <c r="N20" s="2">
-        <v>1527</v>
+        <v>1592</v>
       </c>
       <c r="O20" s="1">
         <v>827</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="0"/>
-        <v>0.33586818757921422</v>
+        <v>0.3359804520464264</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="1"/>
-        <v>0.35761124121779858</v>
+        <v>0.35815523059617549</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="2"/>
@@ -2634,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="W20" s="2">
-        <v>2167</v>
+        <v>2254</v>
       </c>
       <c r="X20" s="2">
-        <v>1577</v>
+        <v>1635</v>
       </c>
       <c r="Y20" s="1">
         <v>1043</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" si="3"/>
-        <v>0.45775242923531895</v>
+        <v>0.45896965994705763</v>
       </c>
       <c r="AA20" s="9">
         <f t="shared" si="4"/>
-        <v>0.36932084309133489</v>
+        <v>0.36782902137232848</v>
       </c>
       <c r="AB20" s="9">
         <f t="shared" si="5"/>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>5900</v>
+        <v>6135</v>
       </c>
       <c r="G21" s="2">
-        <v>5178</v>
+        <v>5326</v>
       </c>
       <c r="H21" s="2">
         <v>3712</v>
@@ -2693,21 +2693,21 @@
         <v>3525</v>
       </c>
       <c r="M21" s="2">
-        <v>2183</v>
+        <v>2263</v>
       </c>
       <c r="N21" s="2">
-        <v>1502</v>
+        <v>1557</v>
       </c>
       <c r="O21" s="1">
         <v>744</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="0"/>
-        <v>0.37</v>
+        <v>0.36886715566422168</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="1"/>
-        <v>0.29007338740826571</v>
+        <v>0.29233946676680433</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="2"/>
@@ -2726,21 +2726,21 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>2758</v>
+        <v>2859</v>
       </c>
       <c r="X21" s="2">
-        <v>2088</v>
+        <v>2155</v>
       </c>
       <c r="Y21" s="1">
         <v>1162</v>
       </c>
       <c r="Z21" s="8">
         <f t="shared" si="3"/>
-        <v>0.46745762711864408</v>
+        <v>0.46601466992665036</v>
       </c>
       <c r="AA21" s="9">
         <f t="shared" si="4"/>
-        <v>0.40324449594438005</v>
+        <v>0.40461885092001504</v>
       </c>
       <c r="AB21" s="9">
         <f t="shared" si="5"/>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>1531</v>
+        <v>1630</v>
       </c>
       <c r="G22" s="2">
-        <v>1468</v>
+        <v>1550</v>
       </c>
       <c r="H22">
         <v>1172</v>
@@ -2785,21 +2785,21 @@
         <v>4057</v>
       </c>
       <c r="M22" s="2">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="N22" s="2">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="O22" s="1">
         <v>301</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="0"/>
-        <v>0.45983017635532331</v>
+        <v>0.44417177914110428</v>
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="1"/>
-        <v>0.46253405994550406</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="2"/>
@@ -2818,21 +2818,21 @@
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <v>1025</v>
+        <v>981</v>
       </c>
       <c r="X22" s="2">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="Y22" s="1">
         <v>536</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" si="3"/>
-        <v>0.66949706074461135</v>
+        <v>0.60184049079754598</v>
       </c>
       <c r="AA22" s="9">
         <f t="shared" si="4"/>
-        <v>0.57016348773841963</v>
+        <v>0.52064516129032257</v>
       </c>
       <c r="AB22" s="9">
         <f t="shared" si="5"/>
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>3747</v>
+        <v>3905</v>
       </c>
       <c r="G23" s="2">
-        <v>3759</v>
+        <v>3905</v>
       </c>
       <c r="H23" s="2">
         <v>2753</v>
@@ -2877,21 +2877,21 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>692</v>
+        <v>723</v>
       </c>
       <c r="N23" s="2">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="O23" s="1">
         <v>340</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="0"/>
-        <v>0.18468107819589005</v>
+        <v>0.1851472471190781</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="1"/>
-        <v>0.18435754189944134</v>
+        <v>0.18489116517285531</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="2"/>
@@ -2910,21 +2910,21 @@
         <v>0</v>
       </c>
       <c r="W23" s="2">
-        <v>966</v>
+        <v>1006</v>
       </c>
       <c r="X23" s="2">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="Y23" s="1">
         <v>536</v>
       </c>
       <c r="Z23" s="8">
         <f t="shared" si="3"/>
-        <v>0.2578062449959968</v>
+        <v>0.25761843790012806</v>
       </c>
       <c r="AA23" s="9">
         <f t="shared" si="4"/>
-        <v>0.20617185421654696</v>
+        <v>0.2058898847631242</v>
       </c>
       <c r="AB23" s="9">
         <f t="shared" si="5"/>
@@ -2948,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>3848</v>
+        <v>3959</v>
       </c>
       <c r="G24" s="2">
-        <v>3527</v>
+        <v>3697</v>
       </c>
       <c r="H24" s="2">
         <v>2654</v>
@@ -2969,21 +2969,21 @@
         <v>3525</v>
       </c>
       <c r="M24" s="2">
-        <v>1937</v>
+        <v>2012</v>
       </c>
       <c r="N24" s="2">
-        <v>1605</v>
+        <v>1667</v>
       </c>
       <c r="O24" s="1">
         <v>865</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="0"/>
-        <v>0.5033783783783784</v>
+        <v>0.50820914372316239</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="1"/>
-        <v>0.45506095832151972</v>
+        <v>0.45090614011360564</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="2"/>
@@ -3002,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>2702</v>
+        <v>2799</v>
       </c>
       <c r="X24" s="2">
-        <v>1842</v>
+        <v>1920</v>
       </c>
       <c r="Y24" s="1">
         <v>1281</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" si="3"/>
-        <v>0.70218295218295224</v>
+        <v>0.70699671634251071</v>
       </c>
       <c r="AA24" s="9">
         <f t="shared" si="4"/>
-        <v>0.52225687553161326</v>
+        <v>0.51934000540979175</v>
       </c>
       <c r="AB24" s="9">
         <f t="shared" si="5"/>
@@ -3040,10 +3040,10 @@
         <v>4083</v>
       </c>
       <c r="F25" s="2">
-        <v>6815</v>
+        <v>7100</v>
       </c>
       <c r="G25" s="2">
-        <v>5864</v>
+        <v>6096</v>
       </c>
       <c r="H25" s="2">
         <v>4136</v>
@@ -3061,21 +3061,21 @@
         <v>1176</v>
       </c>
       <c r="M25" s="2">
-        <v>5097</v>
+        <v>5337</v>
       </c>
       <c r="N25" s="2">
-        <v>2161</v>
+        <v>2250</v>
       </c>
       <c r="O25" s="1">
         <v>1358</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="0"/>
-        <v>0.74790902421129857</v>
+        <v>0.75169014084507046</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="1"/>
-        <v>0.36851978171896316</v>
+        <v>0.36909448818897639</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="2"/>
@@ -3094,21 +3094,21 @@
         <v>0</v>
       </c>
       <c r="W25" s="2">
-        <v>5357</v>
+        <v>5568</v>
       </c>
       <c r="X25" s="2">
-        <v>2968</v>
+        <v>3074</v>
       </c>
       <c r="Y25" s="1">
         <v>1832</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" si="3"/>
-        <v>0.78606016140865742</v>
+        <v>0.78422535211267608</v>
       </c>
       <c r="AA25" s="9">
         <f t="shared" si="4"/>
-        <v>0.50613915416098232</v>
+        <v>0.50426509186351709</v>
       </c>
       <c r="AB25" s="9">
         <f t="shared" si="5"/>
@@ -3132,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>6250</v>
+        <v>6468</v>
       </c>
       <c r="G26" s="2">
-        <v>5784</v>
+        <v>6001</v>
       </c>
       <c r="H26" s="2">
         <v>5251</v>
@@ -3153,21 +3153,21 @@
         <v>13892</v>
       </c>
       <c r="M26" s="2">
-        <v>10260</v>
+        <v>10687</v>
       </c>
       <c r="N26" s="2">
-        <v>2863</v>
+        <v>3214</v>
       </c>
       <c r="O26" s="1">
         <v>1824</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="0"/>
-        <v>1.6415999999999999</v>
+        <v>1.6522881880024738</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="1"/>
-        <v>0.49498616874135548</v>
+        <v>0.53557740376603902</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="2"/>
@@ -3186,21 +3186,21 @@
         <v>6771</v>
       </c>
       <c r="W26" s="2">
-        <v>10385</v>
+        <v>10780</v>
       </c>
       <c r="X26" s="2">
-        <v>2868</v>
+        <v>2993</v>
       </c>
       <c r="Y26" s="1">
         <v>2112</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" si="3"/>
-        <v>1.6616</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="AA26" s="9">
         <f t="shared" si="4"/>
-        <v>0.49585062240663902</v>
+        <v>0.49875020829861688</v>
       </c>
       <c r="AB26" s="9">
         <f t="shared" si="5"/>
@@ -3224,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>7137</v>
+        <v>7424</v>
       </c>
       <c r="G27" s="2">
-        <v>6704</v>
+        <v>6737</v>
       </c>
       <c r="H27" s="2">
         <v>5789</v>
@@ -3245,21 +3245,21 @@
         <v>19670</v>
       </c>
       <c r="M27" s="2">
-        <v>10219</v>
+        <v>10637</v>
       </c>
       <c r="N27" s="2">
-        <v>2825</v>
+        <v>3227</v>
       </c>
       <c r="O27" s="1">
         <v>1852</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="0"/>
-        <v>1.4318341039652516</v>
+        <v>1.4327855603448276</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="1"/>
-        <v>0.42139021479713606</v>
+        <v>0.47899658601751521</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="2"/>
@@ -3278,21 +3278,21 @@
         <v>13542</v>
       </c>
       <c r="W27" s="2">
-        <v>10410</v>
+        <v>10778</v>
       </c>
       <c r="X27" s="2">
-        <v>2835</v>
+        <v>3015</v>
       </c>
       <c r="Y27" s="1">
         <v>2003</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" si="3"/>
-        <v>1.4585960487599832</v>
+        <v>1.4517780172413792</v>
       </c>
       <c r="AA27" s="9">
         <f t="shared" si="4"/>
-        <v>0.42288186157517899</v>
+        <v>0.44752857354905745</v>
       </c>
       <c r="AB27" s="9">
         <f t="shared" si="5"/>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>2833</v>
+        <v>3002</v>
       </c>
       <c r="G28" s="2">
-        <v>2602</v>
+        <v>2666</v>
       </c>
       <c r="H28">
         <v>2246</v>
@@ -3337,21 +3337,21 @@
         <v>16707</v>
       </c>
       <c r="M28" s="2">
-        <v>4762</v>
+        <v>4950</v>
       </c>
       <c r="N28" s="2">
-        <v>1585</v>
+        <v>1630</v>
       </c>
       <c r="O28" s="1">
         <v>796</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="0"/>
-        <v>1.6809036357218496</v>
+        <v>1.6489007328447702</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="1"/>
-        <v>0.60914681014604155</v>
+        <v>0.61140285071267819</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="2"/>
@@ -3370,21 +3370,21 @@
         <v>12097</v>
       </c>
       <c r="W28" s="2">
-        <v>5005</v>
+        <v>5214</v>
       </c>
       <c r="X28" s="2">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="Y28" s="1">
         <v>1158</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" si="3"/>
-        <v>1.7666784327567948</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="AA28" s="9">
         <f t="shared" si="4"/>
-        <v>0.63335895465026903</v>
+        <v>0.61927981995498871</v>
       </c>
       <c r="AB28" s="9">
         <f t="shared" si="5"/>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>8211</v>
+        <v>8605</v>
       </c>
       <c r="G29" s="2">
-        <v>7729</v>
+        <v>8030</v>
       </c>
       <c r="H29" s="2">
         <v>6956</v>
@@ -3429,21 +3429,21 @@
         <v>4490</v>
       </c>
       <c r="M29" s="2">
-        <v>4081</v>
+        <v>4234</v>
       </c>
       <c r="N29" s="2">
-        <v>2940</v>
+        <v>3051</v>
       </c>
       <c r="O29" s="1">
         <v>1892</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="0"/>
-        <v>0.49701619778346123</v>
+        <v>0.49203951191167927</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="1"/>
-        <v>0.38038556087462805</v>
+        <v>0.37995018679950188</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="2"/>
@@ -3462,21 +3462,21 @@
         <v>0</v>
       </c>
       <c r="W29" s="2">
-        <v>4175</v>
+        <v>4339</v>
       </c>
       <c r="X29" s="2">
-        <v>3336</v>
+        <v>3497</v>
       </c>
       <c r="Y29" s="1">
         <v>2212</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" si="3"/>
-        <v>0.50846425526732431</v>
+        <v>0.50424171993027311</v>
       </c>
       <c r="AA29" s="9">
         <f t="shared" si="4"/>
-        <v>0.43162116703325137</v>
+        <v>0.43549190535491905</v>
       </c>
       <c r="AB29" s="9">
         <f t="shared" si="5"/>
@@ -3500,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>3124</v>
+        <v>3229</v>
       </c>
       <c r="G30" s="2">
-        <v>2635</v>
+        <v>2743</v>
       </c>
       <c r="H30" s="2">
         <v>2478</v>
@@ -3521,21 +3521,21 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>912</v>
+        <v>949</v>
       </c>
       <c r="N30" s="2">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="O30" s="1">
         <v>266</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="0"/>
-        <v>0.29193341869398209</v>
+        <v>0.29389903995044908</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="1"/>
-        <v>0.21935483870967742</v>
+        <v>0.21946773605541378</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="2"/>
@@ -3554,21 +3554,21 @@
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="X30" s="2">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="Y30" s="1">
         <v>379</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" si="3"/>
-        <v>0.28969270166453265</v>
+        <v>0.29018271910808302</v>
       </c>
       <c r="AA30" s="9">
         <f t="shared" si="4"/>
-        <v>0.24743833017077799</v>
+        <v>0.24972657674079474</v>
       </c>
       <c r="AB30" s="9">
         <f t="shared" si="5"/>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>1632</v>
+        <v>1705</v>
       </c>
       <c r="G31" s="2">
-        <v>1428</v>
+        <v>1484</v>
       </c>
       <c r="H31">
         <v>1135</v>
@@ -3613,21 +3613,21 @@
         <v>3009</v>
       </c>
       <c r="M31" s="2">
-        <v>1679</v>
+        <v>1756</v>
       </c>
       <c r="N31" s="2">
-        <v>1147</v>
+        <v>1186</v>
       </c>
       <c r="O31" s="1">
         <v>585</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="0"/>
-        <v>1.0287990196078431</v>
+        <v>1.0299120234604107</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="1"/>
-        <v>0.8032212885154062</v>
+        <v>0.79919137466307277</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="2"/>
@@ -3646,21 +3646,21 @@
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <v>1830</v>
+        <v>1905</v>
       </c>
       <c r="X31" s="2">
-        <v>1318</v>
+        <v>1357</v>
       </c>
       <c r="Y31" s="1">
         <v>781</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" si="3"/>
-        <v>1.1213235294117647</v>
+        <v>1.1173020527859236</v>
       </c>
       <c r="AA31" s="9">
         <f t="shared" si="4"/>
-        <v>0.92296918767507008</v>
+        <v>0.91442048517520214</v>
       </c>
       <c r="AB31" s="9">
         <f t="shared" si="5"/>
@@ -3684,10 +3684,10 @@
         <v>153</v>
       </c>
       <c r="F32" s="2">
-        <v>5526</v>
+        <v>5480</v>
       </c>
       <c r="G32" s="2">
-        <v>7380</v>
+        <v>7503</v>
       </c>
       <c r="H32" s="2">
         <v>6171</v>
@@ -3705,21 +3705,21 @@
         <v>14432</v>
       </c>
       <c r="M32" s="2">
-        <v>2060</v>
+        <v>2140</v>
       </c>
       <c r="N32" s="2">
-        <v>1513</v>
+        <v>1578</v>
       </c>
       <c r="O32" s="2">
         <v>689</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" si="0"/>
-        <v>0.37278320665942816</v>
+        <v>0.39051094890510951</v>
       </c>
       <c r="Q32" s="15">
         <f t="shared" si="1"/>
-        <v>0.20501355013550135</v>
+        <v>0.21031587365053978</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="2"/>
@@ -3738,21 +3738,21 @@
         <v>13864</v>
       </c>
       <c r="W32" s="2">
-        <v>2879</v>
+        <v>2989</v>
       </c>
       <c r="X32" s="2">
-        <v>1730</v>
+        <v>1818</v>
       </c>
       <c r="Y32" s="2">
         <v>1152</v>
       </c>
       <c r="Z32" s="15">
         <f t="shared" si="3"/>
-        <v>0.52099167571480276</v>
+        <v>0.54543795620437951</v>
       </c>
       <c r="AA32" s="16">
         <f t="shared" si="4"/>
-        <v>0.23441734417344173</v>
+        <v>0.24230307876849261</v>
       </c>
       <c r="AB32" s="9">
         <f t="shared" si="5"/>
@@ -3776,10 +3776,10 @@
         <v>185</v>
       </c>
       <c r="F33" s="2">
-        <v>5367</v>
+        <v>5288</v>
       </c>
       <c r="G33" s="2">
-        <v>7423</v>
+        <v>7462</v>
       </c>
       <c r="H33" s="2">
         <v>6082</v>
@@ -3797,21 +3797,21 @@
         <v>14454</v>
       </c>
       <c r="M33" s="2">
-        <v>4775</v>
+        <v>4840</v>
       </c>
       <c r="N33" s="2">
-        <v>2549</v>
+        <v>2666</v>
       </c>
       <c r="O33" s="2">
         <v>1477</v>
       </c>
       <c r="P33" s="15">
         <f t="shared" si="0"/>
-        <v>0.88969629215576673</v>
+        <v>0.91527987897125562</v>
       </c>
       <c r="Q33" s="15">
         <f t="shared" si="1"/>
-        <v>0.34339215950424357</v>
+        <v>0.35727686947199144</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="2"/>
@@ -3830,21 +3830,21 @@
         <v>13867</v>
       </c>
       <c r="W33" s="2">
-        <v>5244</v>
+        <v>5466</v>
       </c>
       <c r="X33" s="2">
-        <v>2865</v>
+        <v>3001</v>
       </c>
       <c r="Y33" s="2">
         <v>1907</v>
       </c>
       <c r="Z33" s="15">
         <f t="shared" si="3"/>
-        <v>0.97708216880939069</v>
+        <v>1.0336611195158851</v>
       </c>
       <c r="AA33" s="16">
         <f t="shared" si="4"/>
-        <v>0.38596254883470293</v>
+        <v>0.40217099973197534</v>
       </c>
       <c r="AB33" s="9">
         <f t="shared" si="5"/>
@@ -3868,10 +3868,10 @@
         <v>16</v>
       </c>
       <c r="F34" s="2">
-        <v>31192</v>
+        <v>25855</v>
       </c>
       <c r="G34" s="2">
-        <v>32155</v>
+        <v>30854</v>
       </c>
       <c r="H34" s="30">
         <v>22222</v>
@@ -3889,21 +3889,21 @@
         <v>6</v>
       </c>
       <c r="M34" s="2">
-        <v>9089</v>
+        <v>9178</v>
       </c>
       <c r="N34" s="2">
-        <v>5915</v>
+        <v>5889</v>
       </c>
       <c r="O34" s="2">
         <v>3916</v>
       </c>
       <c r="P34" s="15">
         <f t="shared" si="0"/>
-        <v>0.29138881764555014</v>
+        <v>0.35497969444981631</v>
       </c>
       <c r="Q34" s="15">
         <f t="shared" si="1"/>
-        <v>0.18395272896905612</v>
+        <v>0.19086666234523886</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="2"/>
@@ -3922,21 +3922,21 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>10178</v>
+        <v>10253</v>
       </c>
       <c r="X34" s="2">
-        <v>7494</v>
+        <v>7596</v>
       </c>
       <c r="Y34" s="2">
         <v>5196</v>
       </c>
       <c r="Z34" s="15">
         <f t="shared" si="3"/>
-        <v>0.32630161579892281</v>
+        <v>0.39655772577837944</v>
       </c>
       <c r="AA34" s="16">
         <f t="shared" si="4"/>
-        <v>0.2330586222982429</v>
+        <v>0.24619174175147468</v>
       </c>
       <c r="AB34" s="9">
         <f t="shared" si="5"/>
@@ -3960,10 +3960,10 @@
         <v>56</v>
       </c>
       <c r="F35" s="11">
-        <v>24722</v>
+        <v>23510</v>
       </c>
       <c r="G35" s="11">
-        <v>24292</v>
+        <v>23643</v>
       </c>
       <c r="H35" s="31">
         <v>22222</v>
@@ -3981,21 +3981,21 @@
         <v>13140</v>
       </c>
       <c r="M35" s="11">
-        <v>9583</v>
+        <v>9623</v>
       </c>
       <c r="N35" s="11">
-        <v>5250</v>
+        <v>5523</v>
       </c>
       <c r="O35" s="11">
         <v>3489</v>
       </c>
       <c r="P35" s="12">
         <f t="shared" si="0"/>
-        <v>0.38763045061079199</v>
+        <v>0.4093151850276478</v>
       </c>
       <c r="Q35" s="12">
         <f t="shared" si="1"/>
-        <v>0.21612053350897414</v>
+        <v>0.23359979698007868</v>
       </c>
       <c r="R35" s="12">
         <f t="shared" si="2"/>
@@ -4014,21 +4014,21 @@
         <v>9794</v>
       </c>
       <c r="W35" s="11">
-        <v>23479</v>
+        <v>23511</v>
       </c>
       <c r="X35" s="11">
-        <v>15897</v>
+        <v>16004</v>
       </c>
       <c r="Y35" s="11">
         <v>11068</v>
       </c>
       <c r="Z35" s="12">
         <f t="shared" si="3"/>
-        <v>0.94972089636760781</v>
+        <v>1.0000425350914504</v>
       </c>
       <c r="AA35" s="13">
         <f t="shared" si="4"/>
-        <v>0.65441297546517374</v>
+        <v>0.6769022543670431</v>
       </c>
       <c r="AB35" s="13">
         <f t="shared" si="5"/>
@@ -4079,11 +4079,11 @@
       <c r="O36" s="1"/>
       <c r="P36" s="17">
         <f>AVERAGE(P2:P5)</f>
-        <v>0.68902828322313658</v>
+        <v>0.68658391020923648</v>
       </c>
       <c r="Q36" s="17">
         <f>AVERAGE(Q2:Q5)</f>
-        <v>0.78598285971147119</v>
+        <v>0.77384451398913989</v>
       </c>
       <c r="R36" s="17">
         <f>AVERAGE(R2:R5)</f>
@@ -4110,11 +4110,11 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="17">
         <f>AVERAGE(Z2:Z5)</f>
-        <v>1.3047276873465157</v>
+        <v>1.3084316719813858</v>
       </c>
       <c r="AA36" s="18">
         <f>AVERAGE(AA2:AA5)</f>
-        <v>0.91813992805453881</v>
+        <v>0.89572855225313708</v>
       </c>
       <c r="AB36" s="18">
         <f>AVERAGE(AB2:AB5)</f>
@@ -4165,11 +4165,11 @@
       <c r="O37" s="2"/>
       <c r="P37" s="19">
         <f>AVERAGE(P6:P35)</f>
-        <v>0.61019409845995198</v>
+        <v>0.61370123256545106</v>
       </c>
       <c r="Q37" s="19">
         <f>AVERAGE(Q6:Q35)</f>
-        <v>0.39590905794227799</v>
+        <v>0.40376164714352114</v>
       </c>
       <c r="R37" s="19">
         <f>AVERAGE(R6:R35)</f>
@@ -4196,11 +4196,11 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="19">
         <f>AVERAGE(Z6:Z35)</f>
-        <v>0.79046639494759918</v>
+        <v>0.79250365147900592</v>
       </c>
       <c r="AA37" s="19">
         <f>AVERAGE(AA6:AA35)</f>
-        <v>0.45508439525794514</v>
+        <v>0.45667212687075548</v>
       </c>
       <c r="AB37" s="28">
         <f>AVERAGE(AB6:AB35)</f>
@@ -4252,11 +4252,11 @@
       <c r="O38" s="14"/>
       <c r="P38" s="20">
         <f>AVERAGE(P2:P35)</f>
-        <v>0.61946870843209145</v>
+        <v>0.62227566522942568</v>
       </c>
       <c r="Q38" s="20">
         <f>AVERAGE(Q2:Q35)</f>
-        <v>0.44180009344453591</v>
+        <v>0.44730080794888805</v>
       </c>
       <c r="R38" s="20">
         <f>AVERAGE(R2:R35)</f>
@@ -4283,11 +4283,11 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="20">
         <f>AVERAGE(Z2:Z35)</f>
-        <v>0.85096772346511873</v>
+        <v>0.8532010656557566</v>
       </c>
       <c r="AA38" s="21">
         <f>AVERAGE(AA2:AA35)</f>
-        <v>0.50956151676342676</v>
+        <v>0.50832582397456505</v>
       </c>
       <c r="AB38" s="21">
         <f>AVERAGE(AB2:AB35)</f>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -2337,16 +2337,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2">
         <v>7735</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B38" s="24">
         <f>COUNTIF(B7:B36,"=0")/COUNTA(B7:B36)</f>
-        <v>0.73333333333333328</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C38" s="24">
         <f>COUNTIF(C7:C36,"=0")/COUNTA(C7:C36)</f>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B39" s="25">
         <f>COUNTIF(B3:B36,"=0")/COUNTA(B3:B36)</f>
-        <v>0.76470588235294112</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="C39" s="25">
         <f>COUNTIF(C3:C36,"=0")/COUNTA(C3:C36)</f>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,25 +204,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -439,12 +427,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -473,8 +460,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,8 +474,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -821,134 +805,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33" t="s">
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33" t="s">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="32"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -969,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>5950</v>
+        <v>5376</v>
       </c>
       <c r="G3" s="1">
-        <v>4275</v>
+        <v>4217</v>
       </c>
       <c r="H3" s="1">
-        <v>3762</v>
+        <v>3461</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -990,25 +974,25 @@
         <v>92258304</v>
       </c>
       <c r="M3" s="1">
-        <v>2531</v>
+        <v>2464</v>
       </c>
       <c r="N3" s="1">
-        <v>2090</v>
+        <v>2023</v>
       </c>
       <c r="O3" s="1">
         <v>378</v>
       </c>
       <c r="P3" s="6">
         <f>M3/F3</f>
-        <v>0.42537815126050421</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q3" s="6">
         <f>N3/G3</f>
-        <v>0.48888888888888887</v>
+        <v>0.47972492293099361</v>
       </c>
       <c r="R3" s="6">
         <f>O3/H3</f>
-        <v>0.10047846889952153</v>
+        <v>0.10921698930944813</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -1023,25 +1007,25 @@
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>4672</v>
+        <v>4502</v>
       </c>
       <c r="X3" s="1">
-        <v>2532</v>
+        <v>2439</v>
       </c>
       <c r="Y3" s="1">
-        <v>1147</v>
+        <v>1152</v>
       </c>
       <c r="Z3" s="6">
         <f>W3/F3</f>
-        <v>0.78521008403361348</v>
+        <v>0.83742559523809523</v>
       </c>
       <c r="AA3" s="7">
         <f>X3/G3</f>
-        <v>0.59228070175438596</v>
+        <v>0.57837325112639315</v>
       </c>
       <c r="AB3" s="7">
         <f>Y3/H3</f>
-        <v>0.30489101541733121</v>
+        <v>0.33285177694308005</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1061,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>7512</v>
+        <v>6799</v>
       </c>
       <c r="G4" s="2">
-        <v>4336</v>
+        <v>4173</v>
       </c>
       <c r="H4" s="2">
-        <v>3791</v>
+        <v>3529</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1082,25 +1066,25 @@
         <v>92258304</v>
       </c>
       <c r="M4" s="2">
-        <v>2541</v>
+        <v>2454</v>
       </c>
       <c r="N4" s="2">
-        <v>2088</v>
+        <v>2012</v>
       </c>
       <c r="O4" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ref="P4:P36" si="0">M4/F4</f>
-        <v>0.33825878594249204</v>
+        <v>0.36093543168112957</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q36" si="1">N4/G4</f>
-        <v>0.48154981549815495</v>
+        <v>0.48214713635274381</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ref="R4:R36" si="2">O4/H4</f>
-        <v>9.9182273806383545E-2</v>
+        <v>0.10682913006517428</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -1115,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>5712</v>
+        <v>5497</v>
       </c>
       <c r="X4" s="2">
-        <v>2505</v>
+        <v>2421</v>
       </c>
       <c r="Y4" s="1">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="Z4" s="6">
         <f t="shared" ref="Z4:Z36" si="3">W4/F4</f>
-        <v>0.76038338658146964</v>
+        <v>0.80850125018385055</v>
       </c>
       <c r="AA4" s="7">
         <f t="shared" ref="AA4:AA36" si="4">X4/G4</f>
-        <v>0.57772140221402213</v>
+        <v>0.5801581595974119</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" ref="AB4:AB36" si="5">Y4/H4</f>
-        <v>0.30176734370878394</v>
+        <v>0.32530461887220175</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1153,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>3142</v>
+        <v>3023</v>
       </c>
       <c r="G5" s="2">
-        <v>2623</v>
+        <v>2549</v>
       </c>
       <c r="H5" s="2">
-        <v>1820</v>
+        <v>1887</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1174,25 +1158,25 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>3279</v>
+        <v>3173</v>
       </c>
       <c r="N5" s="2">
-        <v>2823</v>
+        <v>2724</v>
       </c>
       <c r="O5" s="1">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>1.0436028007638447</v>
+        <v>1.0496195831955011</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0762485703393061</v>
+        <v>1.0686543742644175</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" si="2"/>
-        <v>0.20659340659340658</v>
+        <v>0.20084790673025968</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1207,25 +1191,25 @@
         <v>0</v>
       </c>
       <c r="W5" s="2">
-        <v>5420</v>
+        <v>5218</v>
       </c>
       <c r="X5" s="2">
-        <v>3150</v>
+        <v>3040</v>
       </c>
       <c r="Y5" s="1">
-        <v>1775</v>
+        <v>1789</v>
       </c>
       <c r="Z5" s="6">
         <f t="shared" si="3"/>
-        <v>1.7250159134309357</v>
+        <v>1.7260999007608335</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="4"/>
-        <v>1.2009149828440717</v>
+        <v>1.1926245586504511</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="5"/>
-        <v>0.97527472527472525</v>
+        <v>0.94806571277159513</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -1245,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>3888</v>
+        <v>3708</v>
       </c>
       <c r="G6" s="2">
-        <v>3200</v>
+        <v>3091</v>
       </c>
       <c r="H6" s="2">
         <v>2104</v>
@@ -1266,25 +1250,25 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>3634</v>
+        <v>3514</v>
       </c>
       <c r="N6" s="2">
-        <v>3181</v>
+        <v>3080</v>
       </c>
       <c r="O6" s="1">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>0.93467078189300412</v>
+        <v>0.94768069039913705</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>0.99406249999999996</v>
+        <v>0.99644128113879005</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="2"/>
-        <v>0.17918250950570341</v>
+        <v>0.17965779467680609</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1299,25 +1283,25 @@
         <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>7668</v>
+        <v>7318</v>
       </c>
       <c r="X6" s="2">
-        <v>3658</v>
+        <v>3526</v>
       </c>
       <c r="Y6" s="1">
-        <v>2056</v>
+        <v>2071</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="3"/>
-        <v>1.9722222222222223</v>
+        <v>1.9735706580366774</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="4"/>
-        <v>1.1431249999999999</v>
+        <v>1.1407311549660304</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="5"/>
-        <v>0.97718631178707227</v>
+        <v>0.98431558935361219</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1337,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>1254</v>
+        <v>1170</v>
       </c>
       <c r="G7" s="2">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="H7" s="2">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1358,25 +1342,25 @@
         <v>11280</v>
       </c>
       <c r="M7" s="2">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="N7" s="2">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="O7" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5861244019138756</v>
+        <v>0.61452991452991457</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0.73836477987421378</v>
+        <v>0.7347994825355757</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="2"/>
-        <v>0.44482173174872663</v>
+        <v>0.43421052631578949</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1391,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>1501</v>
+        <v>1047</v>
       </c>
       <c r="X7" s="2">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="Y7" s="1">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="3"/>
-        <v>1.196969696969697</v>
+        <v>0.89487179487179491</v>
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="4"/>
-        <v>0.82515723270440255</v>
+        <v>0.81630012936610608</v>
       </c>
       <c r="AB7" s="7">
         <f t="shared" si="5"/>
-        <v>0.63157894736842102</v>
+        <v>0.61019736842105265</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -1429,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>24089</v>
+        <v>22923</v>
       </c>
       <c r="G8" s="2">
-        <v>18884</v>
+        <v>18320</v>
       </c>
       <c r="H8" s="2">
-        <v>14420</v>
+        <v>14699</v>
       </c>
       <c r="I8" s="2">
         <v>666</v>
@@ -1450,25 +1434,25 @@
         <v>429655</v>
       </c>
       <c r="M8" s="2">
-        <v>11457</v>
+        <v>11087</v>
       </c>
       <c r="N8" s="2">
-        <v>9595</v>
+        <v>9334</v>
       </c>
       <c r="O8" s="1">
-        <v>1964</v>
+        <v>2016</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>0.47561127485574328</v>
+        <v>0.48366269685468743</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>0.50810209701334463</v>
+        <v>0.50949781659388649</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="2"/>
-        <v>0.13619972260748961</v>
+        <v>0.13715218722362066</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -1483,25 +1467,25 @@
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>26779</v>
+        <v>26402</v>
       </c>
       <c r="X8" s="2">
-        <v>12823</v>
+        <v>12422</v>
       </c>
       <c r="Y8" s="1">
-        <v>5347</v>
+        <v>6039</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="3"/>
-        <v>1.1116692266179584</v>
+        <v>1.15176896566767</v>
       </c>
       <c r="AA8" s="7">
         <f t="shared" si="4"/>
-        <v>0.67904045753018427</v>
+        <v>0.67805676855895192</v>
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="5"/>
-        <v>0.37080443828016646</v>
+        <v>0.4108442751207565</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1521,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>5109</v>
+        <v>4928</v>
       </c>
       <c r="G9" s="2">
-        <v>4440</v>
+        <v>4299</v>
       </c>
       <c r="H9" s="2">
-        <v>3788</v>
+        <v>3913</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -1542,25 +1526,25 @@
         <v>9848</v>
       </c>
       <c r="M9" s="2">
-        <v>2157</v>
+        <v>2136</v>
       </c>
       <c r="N9" s="2">
-        <v>2246</v>
+        <v>2295</v>
       </c>
       <c r="O9" s="1">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>0.42219612448620081</v>
+        <v>0.43344155844155846</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>0.50585585585585591</v>
+        <v>0.53384508025122124</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="2"/>
-        <v>0.3146779303062302</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
@@ -1575,25 +1559,25 @@
         <v>6772</v>
       </c>
       <c r="W9" s="2">
-        <v>2690</v>
+        <v>2734</v>
       </c>
       <c r="X9" s="2">
-        <v>2231</v>
+        <v>2170</v>
       </c>
       <c r="Y9" s="1">
-        <v>1483</v>
+        <v>1538</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="3"/>
-        <v>0.52652182423174787</v>
+        <v>0.55478896103896103</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" si="4"/>
-        <v>0.50247747747747751</v>
+        <v>0.50476855082577343</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="5"/>
-        <v>0.39149947201689544</v>
+        <v>0.39304881165346284</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -1613,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>4590</v>
+        <v>4548</v>
       </c>
       <c r="G10" s="2">
-        <v>4730</v>
+        <v>4653</v>
       </c>
       <c r="H10" s="2">
-        <v>4074</v>
+        <v>4180</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1634,25 +1618,25 @@
         <v>9218</v>
       </c>
       <c r="M10" s="2">
-        <v>8345</v>
+        <v>8087</v>
       </c>
       <c r="N10" s="2">
-        <v>4538</v>
+        <v>4383</v>
       </c>
       <c r="O10" s="1">
-        <v>3160</v>
+        <v>3256</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>1.818082788671024</v>
+        <v>1.7781442392260334</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>0.95940803382663853</v>
+        <v>0.94197292069632499</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="2"/>
-        <v>0.77565046637211588</v>
+        <v>0.77894736842105261</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
@@ -1667,25 +1651,25 @@
         <v>6144</v>
       </c>
       <c r="W10" s="2">
-        <v>7511</v>
+        <v>7358</v>
       </c>
       <c r="X10" s="2">
-        <v>4482</v>
+        <v>4353</v>
       </c>
       <c r="Y10" s="1">
-        <v>3398</v>
+        <v>3525</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="3"/>
-        <v>1.6363834422657952</v>
+        <v>1.6178540017590151</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="4"/>
-        <v>0.94756871035940804</v>
+        <v>0.93552546744036102</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="5"/>
-        <v>0.83406971035837019</v>
+        <v>0.84330143540669855</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1705,13 +1689,13 @@
         <v>310</v>
       </c>
       <c r="F11" s="2">
-        <v>5689</v>
+        <v>5499</v>
       </c>
       <c r="G11" s="2">
-        <v>5457</v>
+        <v>5233</v>
       </c>
       <c r="H11" s="2">
-        <v>4708</v>
+        <v>4892</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1726,25 +1710,25 @@
         <v>9846</v>
       </c>
       <c r="M11" s="2">
-        <v>4908</v>
+        <v>4775</v>
       </c>
       <c r="N11" s="2">
-        <v>2576</v>
+        <v>2629</v>
       </c>
       <c r="O11" s="1">
-        <v>1467</v>
+        <v>1507</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="0"/>
-        <v>0.86271752504833887</v>
+        <v>0.86833969812693212</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>0.47205424225765075</v>
+        <v>0.50238868717752727</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="2"/>
-        <v>0.31159728122344943</v>
+        <v>0.30805396565821752</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -1759,25 +1743,25 @@
         <v>6772</v>
       </c>
       <c r="W11" s="2">
-        <v>4554</v>
+        <v>4396</v>
       </c>
       <c r="X11" s="2">
-        <v>2490</v>
+        <v>2410</v>
       </c>
       <c r="Y11" s="1">
-        <v>1680</v>
+        <v>1744</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="3"/>
-        <v>0.80049217788715066</v>
+        <v>0.79941807601382064</v>
       </c>
       <c r="AA11" s="7">
         <f t="shared" si="4"/>
-        <v>0.45629466739967017</v>
+        <v>0.46053888782725017</v>
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="5"/>
-        <v>0.356839422259983</v>
+        <v>0.35650040883074408</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1797,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>3621</v>
+        <v>3466</v>
       </c>
       <c r="G12" s="2">
-        <v>3193</v>
+        <v>3094</v>
       </c>
       <c r="H12" s="2">
-        <v>2914</v>
+        <v>2922</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1818,25 +1802,25 @@
         <v>4</v>
       </c>
       <c r="M12" s="2">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="N12" s="2">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="O12" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="0"/>
-        <v>0.20988677161005248</v>
+        <v>0.21177149451817656</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>0.17820231756968369</v>
+        <v>0.17744020685197157</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="2"/>
-        <v>5.3877831159917636E-2</v>
+        <v>5.4414784394250515E-2</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -1851,25 +1835,25 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>1072</v>
+        <v>1030</v>
       </c>
       <c r="X12" s="2">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="Y12" s="1">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="3"/>
-        <v>0.296050814692074</v>
+        <v>0.29717253317945758</v>
       </c>
       <c r="AA12" s="7">
         <f t="shared" si="4"/>
-        <v>0.19918571875978702</v>
+        <v>0.19974143503555269</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="5"/>
-        <v>0.11942347288949898</v>
+        <v>0.12080766598220397</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -1889,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>3661</v>
+        <v>3526</v>
       </c>
       <c r="G13" s="2">
-        <v>3250</v>
+        <v>3174</v>
       </c>
       <c r="H13" s="2">
-        <v>2896</v>
+        <v>2957</v>
       </c>
       <c r="I13" s="2">
         <v>5</v>
@@ -1910,25 +1894,25 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="N13" s="2">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="O13" s="1">
         <v>168</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
-        <v>0.20895930073750341</v>
+        <v>0.20986954055587068</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>0.18769230769230769</v>
+        <v>0.18620037807183365</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="2"/>
-        <v>5.8011049723756904E-2</v>
+        <v>5.6814338856949614E-2</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
@@ -1943,25 +1927,25 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>1093</v>
+        <v>1057</v>
       </c>
       <c r="X13" s="2">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="Y13" s="1">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="3"/>
-        <v>0.29855230811253758</v>
+        <v>0.2997731140102099</v>
       </c>
       <c r="AA13" s="7">
         <f t="shared" si="4"/>
-        <v>0.20738461538461539</v>
+        <v>0.20636420919974796</v>
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="5"/>
-        <v>0.12430939226519337</v>
+        <v>0.12275955360162327</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -1981,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>5235</v>
+        <v>5078</v>
       </c>
       <c r="G14" s="2">
-        <v>3451</v>
+        <v>3233</v>
       </c>
       <c r="H14" s="2">
-        <v>2915</v>
+        <v>3031</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2002,25 +1986,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1776</v>
+        <v>1720</v>
       </c>
       <c r="N14" s="2">
-        <v>1196</v>
+        <v>1159</v>
       </c>
       <c r="O14" s="1">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="P14" s="6">
         <f>M14/F14</f>
-        <v>0.33925501432664756</v>
+        <v>0.3387160299330445</v>
       </c>
       <c r="Q14" s="6">
         <f>N14/G14</f>
-        <v>0.34656621269197335</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="R14" s="6">
         <f>O14/H14</f>
-        <v>0.31663807890222984</v>
+        <v>0.30616958099637082</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -2035,25 +2019,25 @@
         <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>2032</v>
+        <v>1953</v>
       </c>
       <c r="X14" s="2">
-        <v>904</v>
+        <v>875</v>
       </c>
       <c r="Y14" s="1">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Z14" s="6">
         <f>W14/F14</f>
-        <v>0.38815663801337152</v>
+        <v>0.38460023631350926</v>
       </c>
       <c r="AA14" s="7">
         <f>X14/G14</f>
-        <v>0.26195305708490291</v>
+        <v>0.27064645839777296</v>
       </c>
       <c r="AB14" s="7">
         <f>Y14/H14</f>
-        <v>0.1934819897084048</v>
+        <v>0.1883866710656549</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -2073,13 +2057,13 @@
         <v>868</v>
       </c>
       <c r="F15" s="2">
-        <v>6644</v>
+        <v>6353</v>
       </c>
       <c r="G15" s="2">
-        <v>5938</v>
+        <v>5670</v>
       </c>
       <c r="H15" s="2">
-        <v>5210</v>
+        <v>5236</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -2094,25 +2078,25 @@
         <v>5</v>
       </c>
       <c r="M15" s="2">
-        <v>1825</v>
+        <v>1750</v>
       </c>
       <c r="N15" s="2">
-        <v>1311</v>
+        <v>1264</v>
       </c>
       <c r="O15" s="1">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="0"/>
-        <v>0.27468392534617703</v>
+        <v>0.27546041240358887</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>0.22078140788144157</v>
+        <v>0.22292768959435627</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="2"/>
-        <v>0.11055662188099807</v>
+        <v>0.11077158135981666</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -2127,25 +2111,25 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>2108</v>
+        <v>2028</v>
       </c>
       <c r="X15" s="2">
-        <v>1487</v>
+        <v>1422</v>
       </c>
       <c r="Y15" s="1">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="3"/>
-        <v>0.3172787477423239</v>
+        <v>0.31921926648827326</v>
       </c>
       <c r="AA15" s="7">
         <f t="shared" si="4"/>
-        <v>0.25042101717750082</v>
+        <v>0.25079365079365079</v>
       </c>
       <c r="AB15" s="7">
         <f t="shared" si="5"/>
-        <v>0.16986564299424184</v>
+        <v>0.17055003819709702</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -2165,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>1524</v>
+        <v>1473</v>
       </c>
       <c r="G16" s="2">
-        <v>1486</v>
+        <v>1445</v>
       </c>
       <c r="H16" s="2">
-        <v>1272</v>
+        <v>1356</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2186,25 +2170,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="N16" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="O16" s="1">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
-        <v>0.27624671916010501</v>
+        <v>0.27562797012898849</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>0.24764468371467024</v>
+        <v>0.24636678200692042</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="2"/>
-        <v>7.0754716981132074E-2</v>
+        <v>9.9557522123893807E-2</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -2219,25 +2203,25 @@
         <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="X16" s="2">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Y16" s="1">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="3"/>
-        <v>0.46325459317585299</v>
+        <v>0.46232179226069248</v>
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="4"/>
-        <v>0.26783310901749663</v>
+        <v>0.2685121107266436</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="5"/>
-        <v>0.19496855345911951</v>
+        <v>0.18141592920353983</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -2257,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>13288</v>
+        <v>12919</v>
       </c>
       <c r="G17" s="2">
-        <v>13746</v>
+        <v>13338</v>
       </c>
       <c r="H17" s="2">
-        <v>12476</v>
+        <v>12184</v>
       </c>
       <c r="I17" s="2">
         <v>20</v>
@@ -2278,25 +2262,25 @@
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>4862</v>
+        <v>4695</v>
       </c>
       <c r="N17" s="2">
-        <v>3189</v>
+        <v>3078</v>
       </c>
       <c r="O17" s="1">
-        <v>2242</v>
+        <v>2255</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="0"/>
-        <v>0.36589403973509932</v>
+        <v>0.36341822122455297</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0.23199476211261458</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="2"/>
-        <v>0.17970503366463611</v>
+        <v>0.18507879185817466</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -2311,25 +2295,25 @@
         <v>0</v>
       </c>
       <c r="W17" s="2">
-        <v>6438</v>
+        <v>6205</v>
       </c>
       <c r="X17" s="2">
-        <v>4686</v>
+        <v>4528</v>
       </c>
       <c r="Y17" s="1">
-        <v>3190</v>
+        <v>3205</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="3"/>
-        <v>0.48449729078868153</v>
+        <v>0.48030033284309931</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="4"/>
-        <v>0.34089917066783065</v>
+        <v>0.33948118158644475</v>
       </c>
       <c r="AB17" s="7">
         <f t="shared" si="5"/>
-        <v>0.25569092657903175</v>
+        <v>0.26304990151017726</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -2349,13 +2333,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>7735</v>
+        <v>7346</v>
       </c>
       <c r="G18" s="2">
-        <v>7621</v>
+        <v>7389</v>
       </c>
       <c r="H18" s="2">
-        <v>6296</v>
+        <v>6399</v>
       </c>
       <c r="I18" s="2">
         <v>53</v>
@@ -2370,25 +2354,25 @@
         <v>148569</v>
       </c>
       <c r="M18" s="2">
-        <v>4192</v>
+        <v>4044</v>
       </c>
       <c r="N18" s="2">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="O18" s="1">
-        <v>3072</v>
+        <v>3042</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="0"/>
-        <v>0.54195216548157721</v>
+        <v>0.55050367546964329</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>0.5592441936753707</v>
+        <v>0.57666802002977402</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
-        <v>0.48792884371029227</v>
+        <v>0.47538677918424754</v>
       </c>
       <c r="S18" s="2">
         <v>42</v>
@@ -2403,25 +2387,25 @@
         <v>121458</v>
       </c>
       <c r="W18" s="2">
-        <v>4688</v>
+        <v>4505</v>
       </c>
       <c r="X18" s="2">
-        <v>5011</v>
+        <v>5185</v>
       </c>
       <c r="Y18" s="1">
-        <v>3663</v>
+        <v>3700</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="3"/>
-        <v>0.60607627666451191</v>
+        <v>0.61325891641709773</v>
       </c>
       <c r="AA18" s="7">
         <f t="shared" si="4"/>
-        <v>0.65752525915234217</v>
+        <v>0.70171877114629855</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="5"/>
-        <v>0.58179796696315123</v>
+        <v>0.57821534614783565</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -2441,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>3850</v>
+        <v>3734</v>
       </c>
       <c r="G19" s="2">
-        <v>3869</v>
+        <v>3723</v>
       </c>
       <c r="H19" s="2">
-        <v>3257</v>
+        <v>3185</v>
       </c>
       <c r="I19" s="2">
         <v>13</v>
@@ -2462,25 +2446,25 @@
         <v>4</v>
       </c>
       <c r="M19" s="2">
-        <v>1355</v>
+        <v>1314</v>
       </c>
       <c r="N19" s="2">
-        <v>1094</v>
+        <v>1037</v>
       </c>
       <c r="O19" s="1">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>0.35194805194805195</v>
+        <v>0.3519014461703267</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>0.28276040320496254</v>
+        <v>0.27853881278538811</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="2"/>
-        <v>0.10469757445501995</v>
+        <v>0.10549450549450549</v>
       </c>
       <c r="S19" s="2">
         <v>2</v>
@@ -2495,25 +2479,25 @@
         <v>8</v>
       </c>
       <c r="W19" s="2">
-        <v>7805</v>
+        <v>7499</v>
       </c>
       <c r="X19" s="2">
-        <v>1296</v>
+        <v>1256</v>
       </c>
       <c r="Y19" s="1">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="3"/>
-        <v>2.0272727272727273</v>
+        <v>2.0083020889126941</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="4"/>
-        <v>0.33497027655724992</v>
+        <v>0.33736234219715283</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="5"/>
-        <v>0.21983420325452871</v>
+        <v>0.22543171114599686</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -2533,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>4777</v>
+        <v>4513</v>
       </c>
       <c r="G20" s="2">
-        <v>4489</v>
+        <v>4330</v>
       </c>
       <c r="H20" s="2">
-        <v>2919</v>
+        <v>2991</v>
       </c>
       <c r="I20" s="2">
         <v>4</v>
@@ -2554,25 +2538,25 @@
         <v>4062</v>
       </c>
       <c r="M20" s="2">
-        <v>1667</v>
+        <v>1621</v>
       </c>
       <c r="N20" s="2">
-        <v>1804</v>
+        <v>1741</v>
       </c>
       <c r="O20" s="1">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="0"/>
-        <v>0.3489637848021771</v>
+        <v>0.3591845778861068</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0.401871240810871</v>
+        <v>0.4020785219399538</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="2"/>
-        <v>0.29290853031860226</v>
+        <v>0.28752925442995653</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -2587,25 +2571,25 @@
         <v>0</v>
       </c>
       <c r="W20" s="2">
-        <v>2267</v>
+        <v>2178</v>
       </c>
       <c r="X20" s="2">
-        <v>1645</v>
+        <v>1597</v>
       </c>
       <c r="Y20" s="1">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="3"/>
-        <v>0.4745656269625288</v>
+        <v>0.48260580545091958</v>
       </c>
       <c r="AA20" s="7">
         <f t="shared" si="4"/>
-        <v>0.36645132546224102</v>
+        <v>0.36882217090069286</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="5"/>
-        <v>0.36348064405618363</v>
+        <v>0.35406218655967903</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -2625,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>4826</v>
+        <v>4571</v>
       </c>
       <c r="G21" s="2">
-        <v>4406</v>
+        <v>4248</v>
       </c>
       <c r="H21" s="2">
-        <v>3035</v>
+        <v>3024</v>
       </c>
       <c r="I21" s="2">
         <v>2</v>
@@ -2646,25 +2630,25 @@
         <v>6154</v>
       </c>
       <c r="M21" s="2">
-        <v>1643</v>
+        <v>1592</v>
       </c>
       <c r="N21" s="2">
-        <v>1576</v>
+        <v>1523</v>
       </c>
       <c r="O21" s="1">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="0"/>
-        <v>0.34044757563199335</v>
+        <v>0.34828265149857801</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>0.35769405356332273</v>
+        <v>0.3585216572504708</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="2"/>
-        <v>0.27248764415156507</v>
+        <v>0.27447089947089948</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -2679,25 +2663,25 @@
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>2257</v>
+        <v>2187</v>
       </c>
       <c r="X21" s="2">
-        <v>1626</v>
+        <v>1570</v>
       </c>
       <c r="Y21" s="1">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="3"/>
-        <v>0.46767509324492335</v>
+        <v>0.47845110479107417</v>
       </c>
       <c r="AA21" s="7">
         <f t="shared" si="4"/>
-        <v>0.36904221516114388</v>
+        <v>0.36958568738229758</v>
       </c>
       <c r="AB21" s="7">
         <f t="shared" si="5"/>
-        <v>0.34365733113673808</v>
+        <v>0.34424603174603174</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -2717,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>6080</v>
+        <v>5920</v>
       </c>
       <c r="G22" s="2">
-        <v>5414</v>
+        <v>5268</v>
       </c>
       <c r="H22" s="2">
-        <v>3712</v>
+        <v>3778</v>
       </c>
       <c r="I22" s="2">
         <v>6</v>
@@ -2738,25 +2722,25 @@
         <v>3525</v>
       </c>
       <c r="M22" s="2">
-        <v>2251</v>
+        <v>2179</v>
       </c>
       <c r="N22" s="2">
-        <v>1545</v>
+        <v>1500</v>
       </c>
       <c r="O22" s="1">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="0"/>
-        <v>0.37023026315789476</v>
+        <v>0.3680743243243243</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>0.28537125969708166</v>
+        <v>0.2847380410022779</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="2"/>
-        <v>0.20043103448275862</v>
+        <v>0.2019587083112758</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -2771,25 +2755,25 @@
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <v>2867</v>
+        <v>2760</v>
       </c>
       <c r="X22" s="2">
-        <v>2158</v>
+        <v>2084</v>
       </c>
       <c r="Y22" s="1">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="3"/>
-        <v>0.47154605263157895</v>
+        <v>0.46621621621621623</v>
       </c>
       <c r="AA22" s="7">
         <f t="shared" si="4"/>
-        <v>0.39859623199113409</v>
+        <v>0.39559605163249811</v>
       </c>
       <c r="AB22" s="7">
         <f t="shared" si="5"/>
-        <v>0.31303879310344829</v>
+        <v>0.30862890418210692</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -2809,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1640</v>
+        <v>1574</v>
       </c>
       <c r="G23" s="2">
-        <v>1542</v>
+        <v>1493</v>
       </c>
       <c r="H23">
-        <v>1172</v>
+        <v>1217</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2830,25 +2814,25 @@
         <v>4057</v>
       </c>
       <c r="M23" s="2">
-        <v>744</v>
+        <v>698</v>
       </c>
       <c r="N23" s="2">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="O23" s="1">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>0.45365853658536587</v>
+        <v>0.4434561626429479</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>0.45265888456549935</v>
+        <v>0.45144005358338912</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="2"/>
-        <v>0.25682593856655289</v>
+        <v>0.257189811010682</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2863,25 +2847,25 @@
         <v>0</v>
       </c>
       <c r="W23" s="2">
-        <v>1033</v>
+        <v>943</v>
       </c>
       <c r="X23" s="2">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="Y23" s="1">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="3"/>
-        <v>0.62987804878048781</v>
+        <v>0.59911054637865313</v>
       </c>
       <c r="AA23" s="7">
         <f t="shared" si="4"/>
-        <v>0.53307392996108949</v>
+        <v>0.53114534494306764</v>
       </c>
       <c r="AB23" s="7">
         <f t="shared" si="5"/>
-        <v>0.45733788395904434</v>
+        <v>0.46096959737058341</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -2901,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>3908</v>
+        <v>3764</v>
       </c>
       <c r="G24" s="2">
-        <v>3876</v>
+        <v>3768</v>
       </c>
       <c r="H24" s="2">
-        <v>2753</v>
+        <v>2769</v>
       </c>
       <c r="I24" s="2">
         <v>3</v>
@@ -2922,25 +2906,25 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="N24" s="2">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="O24" s="1">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="0"/>
-        <v>0.18474923234390994</v>
+        <v>0.18597236981934112</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>0.18550051599587203</v>
+        <v>0.18471337579617833</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="2"/>
-        <v>0.12350163458045768</v>
+        <v>0.12387143373058866</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -2955,25 +2939,25 @@
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>1005</v>
+        <v>971</v>
       </c>
       <c r="X24" s="2">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="Y24" s="1">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="3"/>
-        <v>0.25716479017400207</v>
+        <v>0.25797024442082889</v>
       </c>
       <c r="AA24" s="7">
         <f t="shared" si="4"/>
-        <v>0.20820433436532507</v>
+        <v>0.20674097664543525</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" si="5"/>
-        <v>0.19469669451507446</v>
+        <v>0.19465511014806788</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -2993,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>4135</v>
+        <v>4016</v>
       </c>
       <c r="G25" s="2">
-        <v>3650</v>
+        <v>3554</v>
       </c>
       <c r="H25" s="2">
-        <v>2654</v>
+        <v>2566</v>
       </c>
       <c r="I25" s="2">
         <v>6</v>
@@ -3014,25 +2998,25 @@
         <v>3525</v>
       </c>
       <c r="M25" s="2">
-        <v>1999</v>
+        <v>2067</v>
       </c>
       <c r="N25" s="2">
-        <v>1661</v>
+        <v>1606</v>
       </c>
       <c r="O25" s="1">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="0"/>
-        <v>0.48343409915356711</v>
+        <v>0.514691235059761</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>0.45506849315068493</v>
+        <v>0.45188519977490155</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="2"/>
-        <v>0.32592313489073099</v>
+        <v>0.34099766173031959</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -3047,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="W25" s="2">
-        <v>2795</v>
+        <v>2695</v>
       </c>
       <c r="X25" s="2">
-        <v>1908</v>
+        <v>1844</v>
       </c>
       <c r="Y25" s="1">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="3"/>
-        <v>0.67593712212817414</v>
+        <v>0.67106573705179284</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="4"/>
-        <v>0.52273972602739727</v>
+        <v>0.51885199774901525</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="5"/>
-        <v>0.48266767143933687</v>
+        <v>0.50389711613406074</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -3085,13 +3069,13 @@
         <v>4083</v>
       </c>
       <c r="F26" s="2">
-        <v>7120</v>
+        <v>6845</v>
       </c>
       <c r="G26" s="2">
-        <v>6255</v>
+        <v>5971</v>
       </c>
       <c r="H26" s="2">
-        <v>4136</v>
+        <v>4193</v>
       </c>
       <c r="I26" s="2">
         <v>377</v>
@@ -3106,25 +3090,25 @@
         <v>1176</v>
       </c>
       <c r="M26" s="2">
-        <v>5465</v>
+        <v>5158</v>
       </c>
       <c r="N26" s="2">
-        <v>2244</v>
+        <v>2169</v>
       </c>
       <c r="O26" s="1">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="0"/>
-        <v>0.7675561797752809</v>
+        <v>0.75354273192111032</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>0.35875299760191848</v>
+        <v>0.3632557360576118</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="2"/>
-        <v>0.32833655705996134</v>
+        <v>0.32315764369186739</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -3139,25 +3123,25 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>5610</v>
+        <v>5370</v>
       </c>
       <c r="X26" s="2">
-        <v>3062</v>
+        <v>2969</v>
       </c>
       <c r="Y26" s="1">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="3"/>
-        <v>0.7879213483146067</v>
+        <v>0.7845142439737034</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="4"/>
-        <v>0.48952837729816145</v>
+        <v>0.4972366437782616</v>
       </c>
       <c r="AB26" s="7">
         <f t="shared" si="5"/>
-        <v>0.44294003868471954</v>
+        <v>0.4381111376103029</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -3177,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>6467</v>
+        <v>6162</v>
       </c>
       <c r="G27" s="2">
-        <v>5960</v>
+        <v>5724</v>
       </c>
       <c r="H27" s="2">
-        <v>5251</v>
+        <v>5306</v>
       </c>
       <c r="I27" s="2">
         <v>2</v>
@@ -3198,25 +3182,25 @@
         <v>13892</v>
       </c>
       <c r="M27" s="2">
-        <v>10723</v>
+        <v>10265</v>
       </c>
       <c r="N27" s="2">
-        <v>2900</v>
+        <v>3081</v>
       </c>
       <c r="O27" s="1">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="0"/>
-        <v>1.658110406680068</v>
+        <v>1.6658552418046089</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>0.48657718120805371</v>
+        <v>0.5382599580712788</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="2"/>
-        <v>0.34736240716054084</v>
+        <v>0.34093479080286471</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -3231,25 +3215,25 @@
         <v>6771</v>
       </c>
       <c r="W27" s="2">
-        <v>10761</v>
+        <v>10389</v>
       </c>
       <c r="X27" s="2">
-        <v>2960</v>
+        <v>2861</v>
       </c>
       <c r="Y27" s="1">
-        <v>2112</v>
+        <v>2089</v>
       </c>
       <c r="Z27" s="6">
         <f t="shared" si="3"/>
-        <v>1.6639863924539973</v>
+        <v>1.6859785783836416</v>
       </c>
       <c r="AA27" s="7">
         <f t="shared" si="4"/>
-        <v>0.49664429530201343</v>
+        <v>0.4998252969951083</v>
       </c>
       <c r="AB27" s="7">
         <f t="shared" si="5"/>
-        <v>0.40220910302799467</v>
+        <v>0.39370523935167734</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -3269,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>7398</v>
+        <v>7139</v>
       </c>
       <c r="G28" s="2">
-        <v>6710</v>
+        <v>6439</v>
       </c>
       <c r="H28" s="2">
-        <v>5789</v>
+        <v>5912</v>
       </c>
       <c r="I28" s="2">
         <v>2</v>
@@ -3290,25 +3274,25 @@
         <v>19670</v>
       </c>
       <c r="M28" s="2">
-        <v>10703</v>
+        <v>10215</v>
       </c>
       <c r="N28" s="2">
-        <v>2924</v>
+        <v>3116</v>
       </c>
       <c r="O28" s="1">
-        <v>1852</v>
+        <v>1834</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="0"/>
-        <v>1.446742362800757</v>
+        <v>1.4308726712424709</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>0.43576751117734724</v>
+        <v>0.48392607547755861</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="2"/>
-        <v>0.31991708412506475</v>
+        <v>0.31021650879566981</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -3323,25 +3307,25 @@
         <v>13542</v>
       </c>
       <c r="W28" s="2">
-        <v>10760</v>
+        <v>10397</v>
       </c>
       <c r="X28" s="2">
-        <v>2923</v>
+        <v>2952</v>
       </c>
       <c r="Y28" s="1">
-        <v>2003</v>
+        <v>2015</v>
       </c>
       <c r="Z28" s="6">
         <f t="shared" si="3"/>
-        <v>1.4544471478778047</v>
+        <v>1.4563664378764534</v>
       </c>
       <c r="AA28" s="7">
         <f t="shared" si="4"/>
-        <v>0.43561847988077496</v>
+        <v>0.45845628203137134</v>
       </c>
       <c r="AB28" s="7">
         <f t="shared" si="5"/>
-        <v>0.34600103644843672</v>
+        <v>0.34083220568335587</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -3361,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>3030</v>
+        <v>2928</v>
       </c>
       <c r="G29" s="2">
-        <v>2657</v>
+        <v>2543</v>
       </c>
       <c r="H29">
-        <v>2246</v>
+        <v>2299</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -3382,25 +3366,25 @@
         <v>16707</v>
       </c>
       <c r="M29" s="2">
-        <v>5073</v>
+        <v>4766</v>
       </c>
       <c r="N29" s="2">
-        <v>1634</v>
+        <v>1578</v>
       </c>
       <c r="O29" s="1">
-        <v>796</v>
+        <v>829</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="0"/>
-        <v>1.6742574257425742</v>
+        <v>1.6277322404371584</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>0.61497929996236356</v>
+        <v>0.62052693668895009</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="2"/>
-        <v>0.35440783615316118</v>
+        <v>0.36059156154849936</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -3415,25 +3399,25 @@
         <v>12097</v>
       </c>
       <c r="W29" s="2">
-        <v>5222</v>
+        <v>5133</v>
       </c>
       <c r="X29" s="2">
-        <v>1641</v>
+        <v>1585</v>
       </c>
       <c r="Y29" s="1">
-        <v>1158</v>
+        <v>1191</v>
       </c>
       <c r="Z29" s="6">
         <f t="shared" si="3"/>
-        <v>1.7234323432343235</v>
+        <v>1.7530737704918034</v>
       </c>
       <c r="AA29" s="7">
         <f t="shared" si="4"/>
-        <v>0.61761385020700033</v>
+        <v>0.6232795910342116</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" si="5"/>
-        <v>0.51558325912733749</v>
+        <v>0.51805132666376685</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3453,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>8414</v>
+        <v>8087</v>
       </c>
       <c r="G30" s="2">
-        <v>8162</v>
+        <v>7889</v>
       </c>
       <c r="H30" s="2">
-        <v>6956</v>
+        <v>7166</v>
       </c>
       <c r="I30" s="2">
         <v>4</v>
@@ -3474,25 +3458,25 @@
         <v>4490</v>
       </c>
       <c r="M30" s="2">
-        <v>4216</v>
+        <v>4144</v>
       </c>
       <c r="N30" s="2">
-        <v>3044</v>
+        <v>2955</v>
       </c>
       <c r="O30" s="1">
-        <v>1892</v>
+        <v>1914</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="0"/>
-        <v>0.50106964582838132</v>
+        <v>0.51242735254111538</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>0.37294780691007107</v>
+        <v>0.37457218912409684</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="2"/>
-        <v>0.2719953996549741</v>
+        <v>0.2670946134524142</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -3507,25 +3491,25 @@
         <v>0</v>
       </c>
       <c r="W30" s="2">
-        <v>4354</v>
+        <v>4181</v>
       </c>
       <c r="X30" s="2">
-        <v>3440</v>
+        <v>3331</v>
       </c>
       <c r="Y30" s="1">
-        <v>2212</v>
+        <v>2239</v>
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="3"/>
-        <v>0.51747088186356072</v>
+        <v>0.51700259676023252</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="4"/>
-        <v>0.4214653271257045</v>
+        <v>0.42223348966915958</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="5"/>
-        <v>0.31799884991374355</v>
+        <v>0.31244766955065589</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -3545,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>3169</v>
+        <v>3052</v>
       </c>
       <c r="G31" s="2">
-        <v>2747</v>
+        <v>2710</v>
       </c>
       <c r="H31" s="2">
-        <v>2478</v>
+        <v>2489</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
@@ -3566,25 +3550,25 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>945</v>
+        <v>916</v>
       </c>
       <c r="N31" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="O31" s="1">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" si="0"/>
-        <v>0.29820132533922372</v>
+        <v>0.30013106159895153</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>0.21805606115762649</v>
+        <v>0.2118081180811808</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="2"/>
-        <v>0.10734463276836158</v>
+        <v>0.10727199678585778</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -3599,25 +3583,25 @@
         <v>0</v>
       </c>
       <c r="W31" s="2">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="X31" s="2">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="Y31" s="1">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="3"/>
-        <v>0.29630798359103816</v>
+        <v>0.29554390563564875</v>
       </c>
       <c r="AA31" s="7">
         <f t="shared" si="4"/>
-        <v>0.24608663997087732</v>
+        <v>0.24206642066420664</v>
       </c>
       <c r="AB31" s="7">
         <f t="shared" si="5"/>
-        <v>0.1529459241323648</v>
+        <v>0.14985938127762152</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -3637,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>1699</v>
+        <v>1626</v>
       </c>
       <c r="G32" s="2">
-        <v>1446</v>
+        <v>1407</v>
       </c>
       <c r="H32">
-        <v>1135</v>
+        <v>1273</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -3658,25 +3642,25 @@
         <v>3009</v>
       </c>
       <c r="M32" s="2">
-        <v>1731</v>
+        <v>1680</v>
       </c>
       <c r="N32" s="2">
-        <v>1166</v>
+        <v>1130</v>
       </c>
       <c r="O32" s="1">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" si="0"/>
-        <v>1.0188346085932902</v>
+        <v>1.033210332103321</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>0.80636237897648688</v>
+        <v>0.80312722103766876</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="2"/>
-        <v>0.51541850220264318</v>
+        <v>0.47996857816182248</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -3691,25 +3675,25 @@
         <v>0</v>
       </c>
       <c r="W32" s="2">
-        <v>1904</v>
+        <v>1838</v>
       </c>
       <c r="X32" s="2">
-        <v>1351</v>
+        <v>1304</v>
       </c>
       <c r="Y32" s="1">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="Z32" s="6">
         <f t="shared" si="3"/>
-        <v>1.1206592113007652</v>
+        <v>1.1303813038130381</v>
       </c>
       <c r="AA32" s="7">
         <f t="shared" si="4"/>
-        <v>0.93430152143845091</v>
+        <v>0.92679459843638945</v>
       </c>
       <c r="AB32" s="7">
         <f t="shared" si="5"/>
-        <v>0.68810572687224669</v>
+        <v>0.64650432050274942</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3729,13 +3713,13 @@
         <v>153</v>
       </c>
       <c r="F33" s="2">
-        <v>5558</v>
+        <v>5382</v>
       </c>
       <c r="G33" s="2">
-        <v>7603</v>
+        <v>7250</v>
       </c>
       <c r="H33" s="2">
-        <v>6171</v>
+        <v>6044</v>
       </c>
       <c r="I33" s="2">
         <v>2</v>
@@ -3750,25 +3734,25 @@
         <v>14432</v>
       </c>
       <c r="M33" s="2">
-        <v>2133</v>
+        <v>2095</v>
       </c>
       <c r="N33" s="2">
-        <v>1536</v>
+        <v>1484</v>
       </c>
       <c r="O33" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="0"/>
-        <v>0.38377114069809282</v>
+        <v>0.38926049795615014</v>
       </c>
       <c r="Q33" s="13">
         <f t="shared" si="1"/>
-        <v>0.20202551624358805</v>
+        <v>0.2046896551724138</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="2"/>
-        <v>0.11165127207907957</v>
+        <v>0.11465916611515553</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -3783,25 +3767,25 @@
         <v>13864</v>
       </c>
       <c r="W33" s="2">
-        <v>3013</v>
+        <v>2882</v>
       </c>
       <c r="X33" s="2">
-        <v>1787</v>
+        <v>1740</v>
       </c>
       <c r="Y33" s="2">
-        <v>1152</v>
+        <v>1178</v>
       </c>
       <c r="Z33" s="13">
         <f t="shared" si="3"/>
-        <v>0.54210147535084563</v>
+        <v>0.53548866592344857</v>
       </c>
       <c r="AA33" s="14">
         <f t="shared" si="4"/>
-        <v>0.23503880047349732</v>
+        <v>0.24</v>
       </c>
       <c r="AB33" s="7">
         <f t="shared" si="5"/>
-        <v>0.18667963052989792</v>
+        <v>0.19490403706154863</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3821,13 +3805,13 @@
         <v>185</v>
       </c>
       <c r="F34" s="2">
-        <v>5174</v>
+        <v>5000</v>
       </c>
       <c r="G34" s="2">
-        <v>7370</v>
+        <v>7099</v>
       </c>
       <c r="H34" s="2">
-        <v>6082</v>
+        <v>5938</v>
       </c>
       <c r="I34" s="2">
         <v>2</v>
@@ -3842,25 +3826,25 @@
         <v>14454</v>
       </c>
       <c r="M34" s="2">
-        <v>4815</v>
+        <v>4663</v>
       </c>
       <c r="N34" s="2">
-        <v>2621</v>
+        <v>2531</v>
       </c>
       <c r="O34" s="2">
-        <v>1477</v>
+        <v>1524</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="0"/>
-        <v>0.93061461151913416</v>
+        <v>0.93259999999999998</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="1"/>
-        <v>0.35563093622795117</v>
+        <v>0.35652908860402871</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="2"/>
-        <v>0.24284774745149623</v>
+        <v>0.25665207140451329</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
@@ -3875,25 +3859,25 @@
         <v>13867</v>
       </c>
       <c r="W34" s="2">
-        <v>5450</v>
+        <v>5242</v>
       </c>
       <c r="X34" s="2">
-        <v>2952</v>
+        <v>2855</v>
       </c>
       <c r="Y34" s="2">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="Z34" s="13">
         <f t="shared" si="3"/>
-        <v>1.0533436412833397</v>
+        <v>1.0484</v>
       </c>
       <c r="AA34" s="14">
         <f t="shared" si="4"/>
-        <v>0.4005427408412483</v>
+        <v>0.40216931962248204</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" si="5"/>
-        <v>0.31354817494245313</v>
+        <v>0.31946783428763892</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -3913,13 +3897,13 @@
         <v>16</v>
       </c>
       <c r="F35" s="2">
-        <v>25318</v>
+        <v>24650</v>
       </c>
       <c r="G35" s="2">
-        <v>30673</v>
-      </c>
-      <c r="H35" s="28">
-        <v>22222</v>
+        <v>29508</v>
+      </c>
+      <c r="H35" s="2">
+        <v>25902</v>
       </c>
       <c r="I35" s="2">
         <v>6</v>
@@ -3934,25 +3918,25 @@
         <v>6</v>
       </c>
       <c r="M35" s="2">
-        <v>9189</v>
+        <v>8841</v>
       </c>
       <c r="N35" s="2">
-        <v>5850</v>
+        <v>5647</v>
       </c>
       <c r="O35" s="2">
-        <v>3916</v>
+        <v>3906</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="0"/>
-        <v>0.36294336045501224</v>
+        <v>0.35866125760649087</v>
       </c>
       <c r="Q35" s="13">
         <f t="shared" si="1"/>
-        <v>0.19072148143318227</v>
+        <v>0.19137183136776467</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="2"/>
-        <v>0.17622176221762217</v>
+        <v>0.1507991660875608</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -3967,25 +3951,25 @@
         <v>0</v>
       </c>
       <c r="W35" s="2">
-        <v>10270</v>
+        <v>9901</v>
       </c>
       <c r="X35" s="2">
-        <v>7386</v>
+        <v>7156</v>
       </c>
       <c r="Y35" s="2">
-        <v>5196</v>
+        <v>5230</v>
       </c>
       <c r="Z35" s="13">
         <f t="shared" si="3"/>
-        <v>0.40564025594438741</v>
+        <v>0.40166328600405682</v>
       </c>
       <c r="AA35" s="14">
         <f t="shared" si="4"/>
-        <v>0.24079809604538194</v>
+        <v>0.24251050562559306</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="5"/>
-        <v>0.23382233822338222</v>
+        <v>0.20191491004555634</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4005,13 +3989,13 @@
         <v>56</v>
       </c>
       <c r="F36" s="9">
-        <v>23520</v>
+        <v>22880</v>
       </c>
       <c r="G36" s="9">
-        <v>23455</v>
-      </c>
-      <c r="H36" s="29">
-        <v>22222</v>
+        <v>22440</v>
+      </c>
+      <c r="H36" s="9">
+        <v>19388</v>
       </c>
       <c r="I36" s="9">
         <v>2</v>
@@ -4026,25 +4010,25 @@
         <v>13140</v>
       </c>
       <c r="M36" s="9">
-        <v>9580</v>
+        <v>9274</v>
       </c>
       <c r="N36" s="9">
-        <v>5206</v>
+        <v>5024</v>
       </c>
       <c r="O36" s="9">
-        <v>3489</v>
+        <v>3482</v>
       </c>
       <c r="P36" s="10">
         <f t="shared" si="0"/>
-        <v>0.40731292517006801</v>
+        <v>0.40533216783216786</v>
       </c>
       <c r="Q36" s="10">
         <f t="shared" si="1"/>
-        <v>0.22195693881901513</v>
+        <v>0.22388591800356505</v>
       </c>
       <c r="R36" s="10">
         <f t="shared" si="2"/>
-        <v>0.15700657006570065</v>
+        <v>0.17959562616051167</v>
       </c>
       <c r="S36" s="9">
         <v>0</v>
@@ -4059,25 +4043,25 @@
         <v>9794</v>
       </c>
       <c r="W36" s="9">
-        <v>23473</v>
+        <v>22756</v>
       </c>
       <c r="X36" s="9">
-        <v>15871</v>
+        <v>15345</v>
       </c>
       <c r="Y36" s="9">
-        <v>11068</v>
+        <v>11097</v>
       </c>
       <c r="Z36" s="10">
         <f t="shared" si="3"/>
-        <v>0.99800170068027216</v>
+        <v>0.99458041958041954</v>
       </c>
       <c r="AA36" s="11">
         <f t="shared" si="4"/>
-        <v>0.6766574291195907</v>
+        <v>0.68382352941176472</v>
       </c>
       <c r="AB36" s="11">
         <f t="shared" si="5"/>
-        <v>0.49806498064980648</v>
+        <v>0.57236434908190637</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4124,15 +4108,15 @@
       <c r="O37" s="1"/>
       <c r="P37" s="15">
         <f>AVERAGE(P3:P6)</f>
-        <v>0.68547762996496131</v>
+        <v>0.70414225965227528</v>
       </c>
       <c r="Q37" s="15">
         <f>AVERAGE(Q3:Q6)</f>
-        <v>0.76018744368158753</v>
+        <v>0.75674192867173617</v>
       </c>
       <c r="R37" s="15">
         <f>AVERAGE(R3:R6)</f>
-        <v>0.14635916470125376</v>
+        <v>0.14913795519542206</v>
       </c>
       <c r="S37" s="23">
         <f>COUNTIF(S3:S6,"=0")/COUNTA(S3:S6)</f>
@@ -4155,15 +4139,15 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="15">
         <f>AVERAGE(Z3:Z6)</f>
-        <v>1.3107079015670604</v>
+        <v>1.3363993510548642</v>
       </c>
       <c r="AA37" s="16">
         <f>AVERAGE(AA3:AA6)</f>
-        <v>0.87851052170311994</v>
+        <v>0.87297178108507167</v>
       </c>
       <c r="AB37" s="16">
         <f>AVERAGE(AB3:AB6)</f>
-        <v>0.63977984904697816</v>
+        <v>0.64763442448512232</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4210,15 +4194,15 @@
       <c r="O38" s="2"/>
       <c r="P38" s="17">
         <f>AVERAGE(P7:P36)</f>
-        <v>0.61214851958657301</v>
+        <v>0.61282245912859745</v>
       </c>
       <c r="Q38" s="17">
         <f>AVERAGE(Q7:Q36)</f>
-        <v>0.39468712849572218</v>
+        <v>0.40017450834783452</v>
       </c>
       <c r="R38" s="17">
         <f>AVERAGE(R7:R36)</f>
-        <v>0.25899015235550887</v>
+        <v>0.25789012437565523</v>
       </c>
       <c r="S38" s="24">
         <f>COUNTIF(S7:S36,"=0")/COUNTA(S7:S36)</f>
@@ -4241,15 +4225,15 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="17">
         <f>AVERAGE(Z7:Z36)</f>
-        <v>0.78977516267503556</v>
+        <v>0.78140209808427419</v>
       </c>
       <c r="AA38" s="17">
         <f>AVERAGE(AA7:AA36)</f>
-        <v>0.45077046966479656</v>
+        <v>0.45329826232077536</v>
       </c>
       <c r="AB38" s="26">
         <f>AVERAGE(AB7:AB36)</f>
-        <v>0.35656474063864046</v>
+        <v>0.35730434911813835</v>
       </c>
       <c r="AC38" s="27"/>
     </row>
@@ -4297,15 +4281,15 @@
       <c r="O39" s="12"/>
       <c r="P39" s="18">
         <f>AVERAGE(P3:P36)</f>
-        <v>0.62077547374873621</v>
+        <v>0.62356596507255957</v>
       </c>
       <c r="Q39" s="18">
         <f>AVERAGE(Q3:Q36)</f>
-        <v>0.43768716557641224</v>
+        <v>0.44212361662123473</v>
       </c>
       <c r="R39" s="18">
         <f>AVERAGE(R3:R36)</f>
-        <v>0.24573944792559654</v>
+        <v>0.24509575153092189</v>
       </c>
       <c r="S39" s="25">
         <f>COUNTIF(S3:S36,"=0")/COUNTA(S3:S36)</f>
@@ -4328,15 +4312,15 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="18">
         <f>AVERAGE(Z3:Z36)</f>
-        <v>0.85106136725056791</v>
+        <v>0.84669589255140254</v>
       </c>
       <c r="AA39" s="19">
         <f>AVERAGE(AA3:AA36)</f>
-        <v>0.50109282872812877</v>
+        <v>0.50267161746951616</v>
       </c>
       <c r="AB39" s="19">
         <f>AVERAGE(AB3:AB36)</f>
-        <v>0.38988416515726837</v>
+        <v>0.39146082857307762</v>
       </c>
     </row>
   </sheetData>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -123,15 +123,9 @@
     <t>fma</t>
   </si>
   <si>
-    <t>functions</t>
-  </si>
-  <si>
     <t>fdim</t>
   </si>
   <si>
-    <t>operators</t>
-  </si>
-  <si>
     <t>half accuracy</t>
   </si>
   <si>
@@ -175,13 +169,19 @@
   </si>
   <si>
     <t>F16C</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>funcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,16 +204,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -426,12 +438,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -467,14 +491,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -792,7 +821,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -801,142 +830,149 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="18" width="8.7109375" customWidth="1"/>
+    <col min="19" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="32"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="33"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="L2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="P2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="27"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1064,7 @@
         <v>0.33285177694308005</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>0.32530461887220175</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1212,7 +1248,7 @@
         <v>0.94806571277159513</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1304,9 +1340,9 @@
         <v>0.98431558935361219</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1333,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>11280</v>
+        <v>46123008</v>
       </c>
       <c r="K7" s="2">
-        <v>11348</v>
+        <v>46135296</v>
       </c>
       <c r="L7" s="2">
-        <v>11280</v>
+        <v>46123008</v>
       </c>
       <c r="M7" s="2">
         <v>719</v>
@@ -1396,7 +1432,7 @@
         <v>0.61019736842105265</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1488,7 +1524,7 @@
         <v>0.4108442751207565</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1616,7 @@
         <v>0.39304881165346284</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>0.84330143540669855</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1800,7 @@
         <v>0.35650040883074408</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +1892,7 @@
         <v>0.12080766598220397</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1984,7 @@
         <v>0.12275955360162327</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2076,7 @@
         <v>0.1883866710656549</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2168,7 @@
         <v>0.17055003819709702</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2321,16 +2357,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>8278</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>12013</v>
       </c>
       <c r="D18" s="2">
-        <v>6</v>
+        <v>12913</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
+        <v>13016</v>
       </c>
       <c r="F18" s="2">
         <v>7346</v>
@@ -2342,16 +2378,16 @@
         <v>6399</v>
       </c>
       <c r="I18" s="2">
-        <v>53</v>
+        <v>64079</v>
       </c>
       <c r="J18" s="2">
-        <v>148538</v>
+        <v>601827096</v>
       </c>
       <c r="K18" s="2">
-        <v>146678</v>
+        <v>594665760</v>
       </c>
       <c r="L18" s="2">
-        <v>148569</v>
+        <v>601709992</v>
       </c>
       <c r="M18" s="2">
         <v>4044</v>
@@ -2375,16 +2411,16 @@
         <v>0.47538677918424754</v>
       </c>
       <c r="S18" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>121437</v>
+        <v>495461850</v>
       </c>
       <c r="U18" s="2">
-        <v>120719</v>
+        <v>492989872</v>
       </c>
       <c r="V18" s="2">
-        <v>121458</v>
+        <v>495283947</v>
       </c>
       <c r="W18" s="2">
         <v>4505</v>
@@ -2434,16 +2470,16 @@
         <v>3185</v>
       </c>
       <c r="I19" s="2">
-        <v>13</v>
+        <v>50512</v>
       </c>
       <c r="J19" s="2">
-        <v>4</v>
+        <v>18280</v>
       </c>
       <c r="K19" s="2">
-        <v>377364</v>
+        <v>1558157760</v>
       </c>
       <c r="L19" s="2">
-        <v>4</v>
+        <v>18280</v>
       </c>
       <c r="M19" s="2">
         <v>1314</v>
@@ -2467,16 +2503,16 @@
         <v>0.10549450549450549</v>
       </c>
       <c r="S19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>26458</v>
+        <v>96159496</v>
       </c>
       <c r="V19" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2">
         <v>7499</v>
@@ -3057,54 +3093,54 @@
         <v>21</v>
       </c>
       <c r="B26" s="2">
-        <v>1967</v>
+        <v>238856</v>
       </c>
       <c r="C26" s="2">
-        <v>3650</v>
+        <v>3907448</v>
       </c>
       <c r="D26" s="2">
-        <v>4118</v>
+        <v>913439</v>
       </c>
       <c r="E26" s="2">
-        <v>4083</v>
+        <v>913439</v>
       </c>
       <c r="F26" s="2">
-        <v>6845</v>
+        <v>4777</v>
       </c>
       <c r="G26" s="2">
-        <v>5971</v>
-      </c>
-      <c r="H26" s="2">
+        <v>4678</v>
+      </c>
+      <c r="H26" s="31">
         <v>4193</v>
       </c>
       <c r="I26" s="2">
-        <v>377</v>
+        <v>716930</v>
       </c>
       <c r="J26" s="2">
-        <v>2343</v>
+        <v>1250114</v>
       </c>
       <c r="K26" s="2">
-        <v>1194</v>
+        <v>700113</v>
       </c>
       <c r="L26" s="2">
-        <v>1176</v>
+        <v>700113</v>
       </c>
       <c r="M26" s="2">
-        <v>5158</v>
+        <v>5323</v>
       </c>
       <c r="N26" s="2">
-        <v>2169</v>
+        <v>2262</v>
       </c>
       <c r="O26" s="1">
         <v>1355</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="0"/>
-        <v>0.75354273192111032</v>
+        <v>1.11429767636592</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>0.3632557360576118</v>
+        <v>0.48353997434801199</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="2"/>
@@ -3123,21 +3159,21 @@
         <v>0</v>
       </c>
       <c r="W26" s="2">
-        <v>5370</v>
+        <v>5581</v>
       </c>
       <c r="X26" s="2">
-        <v>2969</v>
+        <v>3096</v>
       </c>
       <c r="Y26" s="1">
         <v>1837</v>
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="3"/>
-        <v>0.7845142439737034</v>
+        <v>1.1683064684948712</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="4"/>
-        <v>0.4972366437782616</v>
+        <v>0.66182129115006416</v>
       </c>
       <c r="AB26" s="7">
         <f t="shared" si="5"/>
@@ -4066,7 +4102,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B37" s="23">
         <f>COUNTIF(B3:B6,"=0")/COUNTA(B3:B6)</f>
@@ -4152,11 +4188,11 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B38" s="24">
         <f>COUNTIF(B7:B36,"=0")/COUNTA(B7:B36)</f>
-        <v>0.76666666666666672</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C38" s="24">
         <f>COUNTIF(C7:C36,"=0")/COUNTA(C7:C36)</f>
@@ -4194,11 +4230,11 @@
       <c r="O38" s="2"/>
       <c r="P38" s="17">
         <f>AVERAGE(P7:P36)</f>
-        <v>0.61282245912859745</v>
+        <v>0.62484762394342441</v>
       </c>
       <c r="Q38" s="17">
         <f>AVERAGE(Q7:Q36)</f>
-        <v>0.40017450834783452</v>
+        <v>0.40418398295751451</v>
       </c>
       <c r="R38" s="17">
         <f>AVERAGE(R7:R36)</f>
@@ -4206,11 +4242,11 @@
       </c>
       <c r="S38" s="24">
         <f>COUNTIF(S7:S36,"=0")/COUNTA(S7:S36)</f>
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="T38" s="24">
         <f>COUNTIF(T7:T36,"=0")/COUNTA(T7:T36)</f>
-        <v>0.6333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U38" s="24">
         <f>COUNTIF(U7:U36,"=0")/COUNTA(U7:U36)</f>
@@ -4218,18 +4254,18 @@
       </c>
       <c r="V38" s="24">
         <f>COUNTIF(V7:V36,"=0")/COUNTA(V7:V36)</f>
-        <v>0.6333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="17">
         <f>AVERAGE(Z7:Z36)</f>
-        <v>0.78140209808427419</v>
+        <v>0.79419517223497982</v>
       </c>
       <c r="AA38" s="17">
         <f>AVERAGE(AA7:AA36)</f>
-        <v>0.45329826232077536</v>
+        <v>0.45878441723316876</v>
       </c>
       <c r="AB38" s="26">
         <f>AVERAGE(AB7:AB36)</f>
@@ -4243,7 +4279,7 @@
       </c>
       <c r="B39" s="25">
         <f>COUNTIF(B3:B36,"=0")/COUNTA(B3:B36)</f>
-        <v>0.79411764705882348</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C39" s="25">
         <f>COUNTIF(C3:C36,"=0")/COUNTA(C3:C36)</f>
@@ -4281,11 +4317,11 @@
       <c r="O39" s="12"/>
       <c r="P39" s="18">
         <f>AVERAGE(P3:P36)</f>
-        <v>0.62356596507255957</v>
+        <v>0.63417640461505398</v>
       </c>
       <c r="Q39" s="18">
         <f>AVERAGE(Q3:Q36)</f>
-        <v>0.44212361662123473</v>
+        <v>0.44566138833565827</v>
       </c>
       <c r="R39" s="18">
         <f>AVERAGE(R3:R36)</f>
@@ -4293,11 +4329,11 @@
       </c>
       <c r="S39" s="25">
         <f>COUNTIF(S3:S36,"=0")/COUNTA(S3:S36)</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="T39" s="25">
         <f>COUNTIF(T3:T36,"=0")/COUNTA(T3:T36)</f>
-        <v>0.67647058823529416</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="U39" s="25">
         <f>COUNTIF(U3:U36,"=0")/COUNTA(U3:U36)</f>
@@ -4305,23 +4341,359 @@
       </c>
       <c r="V39" s="25">
         <f>COUNTIF(V3:V36,"=0")/COUNTA(V3:V36)</f>
-        <v>0.67647058823529416</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="18">
         <f>AVERAGE(Z3:Z36)</f>
-        <v>0.84669589255140254</v>
+        <v>0.85798389915496631</v>
       </c>
       <c r="AA39" s="19">
         <f>AVERAGE(AA3:AA36)</f>
-        <v>0.50267161746951616</v>
+        <v>0.50751234239221621</v>
       </c>
       <c r="AB39" s="19">
         <f>AVERAGE(AB3:AB36)</f>
         <v>0.39146082857307762</v>
       </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4335,7 +4707,7 @@
     <mergeCell ref="S1:V1"/>
   </mergeCells>
   <conditionalFormatting sqref="Z3:AB39 P3:R39">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4348,8 +4720,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E6 I3:L6 S3:V6">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="B3:E7 B18:E19 B26:E26 I3:L7 I18:L19 I26:L26 S3:V7 S18:V19 S26:V26">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4360,20 +4732,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:E19 B26:E26 I18:L19 I26:L26 S18:V19 S26:V26 B7:E7 I7:L7 S7:V7">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="1048576"/>
-        <color rgb="FF99FF99"/>
-        <color rgb="FFFFFFCC"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20:E25 I20:L25 S20:V25 I27:L36 S27:V36 B27:E36 S9:V17 I9:L17 B9:E17">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4385,7 +4745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E39 I37:L39 S37:V39">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4399,7 +4759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:E8 I8:L8 S8:V8">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>+</t>
   </si>
@@ -135,18 +135,9 @@
     <t>half-vs-float performance</t>
   </si>
   <si>
-    <t>half runtime</t>
-  </si>
-  <si>
-    <t>float runtime</t>
-  </si>
-  <si>
     <t>double accuracy</t>
   </si>
   <si>
-    <t>double runtime</t>
-  </si>
-  <si>
     <t>half-vs-double performance</t>
   </si>
   <si>
@@ -175,13 +166,25 @@
   </si>
   <si>
     <t>funcs</t>
+  </si>
+  <si>
+    <t>rsqrt</t>
+  </si>
+  <si>
+    <t>half MFLOPS</t>
+  </si>
+  <si>
+    <t>float MFLOPS</t>
+  </si>
+  <si>
+    <t>double MFLOPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,25 +207,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -450,12 +441,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -468,9 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -491,19 +478,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -821,7 +811,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -840,137 +830,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="33"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="G2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="M2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="O2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="P2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="Q2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="W2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="Y2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="29" t="s">
+      <c r="Z2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="30" t="s">
+      <c r="AA2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="AB2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="27"/>
+      <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -988,14 +978,14 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>5376</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4217</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3461</v>
+      <c r="F3" s="30">
+        <v>45052</v>
+      </c>
+      <c r="G3" s="30">
+        <v>57291</v>
+      </c>
+      <c r="H3" s="30">
+        <v>69936</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1009,26 +999,26 @@
       <c r="L3" s="1">
         <v>92258304</v>
       </c>
-      <c r="M3" s="1">
-        <v>2464</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="O3" s="1">
-        <v>378</v>
+      <c r="M3" s="30">
+        <v>102480</v>
+      </c>
+      <c r="N3" s="30">
+        <v>110295</v>
+      </c>
+      <c r="O3" s="30">
+        <v>675479</v>
       </c>
       <c r="P3" s="6">
-        <f>M3/F3</f>
-        <v>0.45833333333333331</v>
+        <f>F3/M3</f>
+        <v>0.43961748633879782</v>
       </c>
       <c r="Q3" s="6">
-        <f>N3/G3</f>
-        <v>0.47972492293099361</v>
+        <f>G3/N3</f>
+        <v>0.51943424452604381</v>
       </c>
       <c r="R3" s="6">
-        <f>O3/H3</f>
-        <v>0.10921698930944813</v>
+        <f>H3/O3</f>
+        <v>0.10353541708920633</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -1042,26 +1032,26 @@
       <c r="V3" s="1">
         <v>0</v>
       </c>
-      <c r="W3" s="1">
-        <v>4502</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2439</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1152</v>
+      <c r="W3" s="30">
+        <v>55838</v>
+      </c>
+      <c r="X3" s="30">
+        <v>95649</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>168833</v>
       </c>
       <c r="Z3" s="6">
-        <f>W3/F3</f>
-        <v>0.83742559523809523</v>
+        <f>F3/W3</f>
+        <v>0.8068340556610194</v>
       </c>
       <c r="AA3" s="7">
-        <f>X3/G3</f>
-        <v>0.57837325112639315</v>
+        <f>G3/X3</f>
+        <v>0.59897123859109869</v>
       </c>
       <c r="AB3" s="7">
-        <f>Y3/H3</f>
-        <v>0.33285177694308005</v>
+        <f>H3/Y3</f>
+        <v>0.41423181487031563</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1080,14 +1070,14 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
-        <v>6799</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4173</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3529</v>
+      <c r="F4" s="31">
+        <v>36200</v>
+      </c>
+      <c r="G4" s="31">
+        <v>57613</v>
+      </c>
+      <c r="H4" s="31">
+        <v>69492</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1101,26 +1091,26 @@
       <c r="L4" s="2">
         <v>92258304</v>
       </c>
-      <c r="M4" s="2">
-        <v>2454</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2012</v>
-      </c>
-      <c r="O4" s="1">
-        <v>377</v>
+      <c r="M4" s="31">
+        <v>102281</v>
+      </c>
+      <c r="N4" s="31">
+        <v>111055</v>
+      </c>
+      <c r="O4" s="30">
+        <v>675518</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4:P36" si="0">M4/F4</f>
-        <v>0.36093543168112957</v>
+        <f t="shared" ref="P4:P37" si="0">F4/M4</f>
+        <v>0.35392692679969889</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" ref="Q4:Q36" si="1">N4/G4</f>
-        <v>0.48214713635274381</v>
+        <f t="shared" ref="Q4:Q37" si="1">G4/N4</f>
+        <v>0.51877898338661022</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" ref="R4:R36" si="2">O4/H4</f>
-        <v>0.10682913006517428</v>
+        <f t="shared" ref="R4:R37" si="2">H4/O4</f>
+        <v>0.1028721662487158</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -1134,26 +1124,26 @@
       <c r="V4" s="2">
         <v>0</v>
       </c>
-      <c r="W4" s="2">
-        <v>5497</v>
-      </c>
-      <c r="X4" s="2">
-        <v>2421</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1148</v>
+      <c r="W4" s="31">
+        <v>45826</v>
+      </c>
+      <c r="X4" s="31">
+        <v>95378</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>168681</v>
       </c>
       <c r="Z4" s="6">
-        <f t="shared" ref="Z4:Z36" si="3">W4/F4</f>
-        <v>0.80850125018385055</v>
+        <f t="shared" ref="Z4:Z37" si="3">F4/W4</f>
+        <v>0.78994457294985376</v>
       </c>
       <c r="AA4" s="7">
-        <f t="shared" ref="AA4:AA36" si="4">X4/G4</f>
-        <v>0.5801581595974119</v>
+        <f t="shared" ref="AA4:AA37" si="4">G4/X4</f>
+        <v>0.60404915179601171</v>
       </c>
       <c r="AB4" s="7">
-        <f t="shared" ref="AB4:AB36" si="5">Y4/H4</f>
-        <v>0.32530461887220175</v>
+        <f t="shared" ref="AB4:AB37" si="5">H4/Y4</f>
+        <v>0.4119728955839721</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1172,14 +1162,14 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>3023</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2549</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1887</v>
+      <c r="F5" s="31">
+        <v>80535</v>
+      </c>
+      <c r="G5" s="31">
+        <v>92418</v>
+      </c>
+      <c r="H5" s="31">
+        <v>129255</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1193,26 +1183,26 @@
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>3173</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2724</v>
-      </c>
-      <c r="O5" s="1">
-        <v>379</v>
+      <c r="M5" s="31">
+        <v>79072</v>
+      </c>
+      <c r="N5" s="31">
+        <v>82152</v>
+      </c>
+      <c r="O5" s="30">
+        <v>666954</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>1.0496195831955011</v>
+        <v>1.0185021246458923</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>1.0686543742644175</v>
+        <v>1.1249634823254455</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" si="2"/>
-        <v>0.20084790673025968</v>
+        <v>0.19379897264279095</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1226,26 +1216,26 @@
       <c r="V5" s="2">
         <v>0</v>
       </c>
-      <c r="W5" s="2">
-        <v>5218</v>
-      </c>
-      <c r="X5" s="2">
-        <v>3040</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1789</v>
+      <c r="W5" s="31">
+        <v>48421</v>
+      </c>
+      <c r="X5" s="31">
+        <v>77126</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>122435</v>
       </c>
       <c r="Z5" s="6">
         <f t="shared" si="3"/>
-        <v>1.7260999007608335</v>
+        <v>1.6632246339398196</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="4"/>
-        <v>1.1926245586504511</v>
+        <v>1.1982729559422245</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="5"/>
-        <v>0.94806571277159513</v>
+        <v>1.0557030260954792</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1264,14 +1254,14 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>3708</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3091</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2104</v>
+      <c r="F6" s="31">
+        <v>67406</v>
+      </c>
+      <c r="G6" s="31">
+        <v>77231</v>
+      </c>
+      <c r="H6" s="31">
+        <v>115168</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1285,26 +1275,26 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>3514</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3080</v>
-      </c>
-      <c r="O6" s="1">
-        <v>378</v>
+      <c r="M6" s="31">
+        <v>70731</v>
+      </c>
+      <c r="N6" s="31">
+        <v>74288</v>
+      </c>
+      <c r="O6" s="30">
+        <v>631902</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>0.94768069039913705</v>
+        <v>0.95299090921943708</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>0.99644128113879005</v>
+        <v>1.0396160887357313</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="2"/>
-        <v>0.17965779467680609</v>
+        <v>0.1822561093334093</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1318,26 +1308,26 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="2">
-        <v>7318</v>
-      </c>
-      <c r="X6" s="2">
-        <v>3526</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2071</v>
+      <c r="W6" s="31">
+        <v>34502</v>
+      </c>
+      <c r="X6" s="31">
+        <v>66415</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>111147</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="3"/>
-        <v>1.9735706580366774</v>
+        <v>1.9536838444148166</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="4"/>
-        <v>1.1407311549660304</v>
+        <v>1.1628547767823534</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="5"/>
-        <v>0.98431558935361219</v>
+        <v>1.036177314727343</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1356,14 +1346,14 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
-        <v>1170</v>
-      </c>
-      <c r="G7" s="2">
-        <v>773</v>
-      </c>
-      <c r="H7" s="2">
-        <v>608</v>
+      <c r="F7" s="31">
+        <v>53858</v>
+      </c>
+      <c r="G7" s="31">
+        <v>75471</v>
+      </c>
+      <c r="H7" s="31">
+        <v>98482</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1377,26 +1367,26 @@
       <c r="L7" s="2">
         <v>46123008</v>
       </c>
-      <c r="M7" s="2">
-        <v>719</v>
-      </c>
-      <c r="N7" s="2">
-        <v>568</v>
-      </c>
-      <c r="O7" s="1">
-        <v>264</v>
+      <c r="M7" s="31">
+        <v>87590</v>
+      </c>
+      <c r="N7" s="31">
+        <v>98344</v>
+      </c>
+      <c r="O7" s="30">
+        <v>215278</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>0.61452991452991457</v>
+        <v>0.61488754424021008</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0.7347994825355757</v>
+        <v>0.76741844952411942</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="2"/>
-        <v>0.43421052631578949</v>
+        <v>0.45746430197233345</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1410,26 +1400,26 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="W7" s="2">
-        <v>1047</v>
-      </c>
-      <c r="X7" s="2">
-        <v>631</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>371</v>
+      <c r="W7" s="31">
+        <v>59363</v>
+      </c>
+      <c r="X7" s="31">
+        <v>90813</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>148472</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="3"/>
-        <v>0.89487179487179491</v>
+        <v>0.90726546838940081</v>
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="4"/>
-        <v>0.81630012936610608</v>
+        <v>0.83105942981731695</v>
       </c>
       <c r="AB7" s="7">
         <f t="shared" si="5"/>
-        <v>0.61019736842105265</v>
+        <v>0.6633035185085403</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1448,14 +1438,14 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
-        <v>22923</v>
-      </c>
-      <c r="G8" s="2">
-        <v>18320</v>
-      </c>
-      <c r="H8" s="2">
-        <v>14699</v>
+      <c r="F8" s="31">
+        <v>43846</v>
+      </c>
+      <c r="G8" s="31">
+        <v>49869</v>
+      </c>
+      <c r="H8" s="31">
+        <v>67064</v>
       </c>
       <c r="I8" s="2">
         <v>666</v>
@@ -1469,26 +1459,26 @@
       <c r="L8" s="2">
         <v>429655</v>
       </c>
-      <c r="M8" s="2">
-        <v>11087</v>
-      </c>
-      <c r="N8" s="2">
-        <v>9334</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2016</v>
+      <c r="M8" s="31">
+        <v>86439</v>
+      </c>
+      <c r="N8" s="31">
+        <v>95793</v>
+      </c>
+      <c r="O8" s="30">
+        <v>489142</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>0.48366269685468743</v>
+        <v>0.50724788579229285</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>0.50949781659388649</v>
+        <v>0.52059127493658197</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="2"/>
-        <v>0.13715218722362066</v>
+        <v>0.13710538044167134</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -1502,26 +1492,26 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>26402</v>
-      </c>
-      <c r="X8" s="2">
-        <v>12422</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>6039</v>
+      <c r="W8" s="31">
+        <v>37888</v>
+      </c>
+      <c r="X8" s="31">
+        <v>75398</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>166482</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="3"/>
-        <v>1.15176896566767</v>
+        <v>1.1572529560810811</v>
       </c>
       <c r="AA8" s="7">
         <f t="shared" si="4"/>
-        <v>0.67805676855895192</v>
+        <v>0.66141011697923024</v>
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="5"/>
-        <v>0.4108442751207565</v>
+        <v>0.40283033601230162</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1540,14 +1530,14 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
-        <v>4928</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4299</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3913</v>
+      <c r="F9" s="31">
+        <v>13410</v>
+      </c>
+      <c r="G9" s="31">
+        <v>14461</v>
+      </c>
+      <c r="H9" s="31">
+        <v>16790</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -1561,26 +1551,26 @@
       <c r="L9" s="2">
         <v>9848</v>
       </c>
-      <c r="M9" s="2">
-        <v>2136</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2295</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1204</v>
+      <c r="M9" s="31">
+        <v>30150</v>
+      </c>
+      <c r="N9" s="31">
+        <v>28510</v>
+      </c>
+      <c r="O9" s="30">
+        <v>51567</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>0.43344155844155846</v>
+        <v>0.44477611940298506</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>0.53384508025122124</v>
+        <v>0.50722553490003508</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="2"/>
-        <v>0.30769230769230771</v>
+        <v>0.32559582678845</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
@@ -1594,26 +1584,26 @@
       <c r="V9" s="2">
         <v>6772</v>
       </c>
-      <c r="W9" s="2">
-        <v>2734</v>
-      </c>
-      <c r="X9" s="2">
-        <v>2170</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>1538</v>
+      <c r="W9" s="31">
+        <v>24365</v>
+      </c>
+      <c r="X9" s="31">
+        <v>28287</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>41368</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="3"/>
-        <v>0.55478896103896103</v>
+        <v>0.55037964293043296</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" si="4"/>
-        <v>0.50476855082577343</v>
+        <v>0.51122423728214372</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="5"/>
-        <v>0.39304881165346284</v>
+        <v>0.40586927093405528</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1632,14 +1622,14 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
-        <v>4548</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4653</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4180</v>
+      <c r="F10" s="31">
+        <v>14089</v>
+      </c>
+      <c r="G10" s="31">
+        <v>13738</v>
+      </c>
+      <c r="H10" s="31">
+        <v>15499</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1653,26 +1643,26 @@
       <c r="L10" s="2">
         <v>9218</v>
       </c>
-      <c r="M10" s="2">
-        <v>8087</v>
-      </c>
-      <c r="N10" s="2">
-        <v>4383</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3256</v>
+      <c r="M10" s="31">
+        <v>7875</v>
+      </c>
+      <c r="N10" s="31">
+        <v>14245</v>
+      </c>
+      <c r="O10" s="30">
+        <v>20045</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>1.7781442392260334</v>
+        <v>1.789079365079365</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>0.94197292069632499</v>
+        <v>0.96440856440856437</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="2"/>
-        <v>0.77894736842105261</v>
+        <v>0.7732102768770267</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
@@ -1686,26 +1676,26 @@
       <c r="V10" s="2">
         <v>6144</v>
       </c>
-      <c r="W10" s="2">
-        <v>7358</v>
-      </c>
-      <c r="X10" s="2">
-        <v>4353</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>3525</v>
+      <c r="W10" s="31">
+        <v>8871</v>
+      </c>
+      <c r="X10" s="31">
+        <v>14457</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>18539</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="3"/>
-        <v>1.6178540017590151</v>
+        <v>1.5882087701499268</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="4"/>
-        <v>0.93552546744036102</v>
+        <v>0.95026630697931802</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="5"/>
-        <v>0.84330143540669855</v>
+        <v>0.83602136037542474</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1724,14 +1714,14 @@
       <c r="E11" s="2">
         <v>310</v>
       </c>
-      <c r="F11" s="2">
-        <v>5499</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5233</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4892</v>
+      <c r="F11" s="31">
+        <v>11714</v>
+      </c>
+      <c r="G11" s="31">
+        <v>11783</v>
+      </c>
+      <c r="H11" s="31">
+        <v>13395</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1745,26 +1735,26 @@
       <c r="L11" s="2">
         <v>9846</v>
       </c>
-      <c r="M11" s="2">
-        <v>4775</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2629</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1507</v>
+      <c r="M11" s="31">
+        <v>13295</v>
+      </c>
+      <c r="N11" s="31">
+        <v>25565</v>
+      </c>
+      <c r="O11" s="30">
+        <v>42106</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="0"/>
-        <v>0.86833969812693212</v>
+        <v>0.88108311395261374</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>0.50238868717752727</v>
+        <v>0.46090357911206725</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="2"/>
-        <v>0.30805396565821752</v>
+        <v>0.31812568280055098</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -1778,26 +1768,26 @@
       <c r="V11" s="2">
         <v>6772</v>
       </c>
-      <c r="W11" s="2">
-        <v>4396</v>
-      </c>
-      <c r="X11" s="2">
-        <v>2410</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>1744</v>
+      <c r="W11" s="31">
+        <v>14460</v>
+      </c>
+      <c r="X11" s="31">
+        <v>25576</v>
+      </c>
+      <c r="Y11" s="30">
+        <v>36824</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="3"/>
-        <v>0.79941807601382064</v>
+        <v>0.81009681881051177</v>
       </c>
       <c r="AA11" s="7">
         <f t="shared" si="4"/>
-        <v>0.46053888782725017</v>
+        <v>0.46070534876446667</v>
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="5"/>
-        <v>0.35650040883074408</v>
+        <v>0.36375733217466871</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1816,14 +1806,14 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
-        <v>3466</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3094</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2922</v>
+      <c r="F12" s="31">
+        <v>9149</v>
+      </c>
+      <c r="G12" s="31">
+        <v>9782</v>
+      </c>
+      <c r="H12" s="31">
+        <v>10793</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1837,26 +1827,26 @@
       <c r="L12" s="2">
         <v>4</v>
       </c>
-      <c r="M12" s="2">
-        <v>734</v>
-      </c>
-      <c r="N12" s="2">
-        <v>549</v>
-      </c>
-      <c r="O12" s="1">
-        <v>159</v>
+      <c r="M12" s="31">
+        <v>43006</v>
+      </c>
+      <c r="N12" s="31">
+        <v>56752</v>
+      </c>
+      <c r="O12" s="30">
+        <v>186449</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="0"/>
-        <v>0.21177149451817656</v>
+        <v>0.21273775752220619</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>0.17744020685197157</v>
+        <v>0.17236396955173386</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="2"/>
-        <v>5.4414784394250515E-2</v>
+        <v>5.788714340114455E-2</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -1870,26 +1860,26 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="2">
-        <v>1030</v>
-      </c>
-      <c r="X12" s="2">
-        <v>618</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>353</v>
+      <c r="W12" s="31">
+        <v>30799</v>
+      </c>
+      <c r="X12" s="31">
+        <v>50282</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>89837</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="3"/>
-        <v>0.29717253317945758</v>
+        <v>0.29705509919153217</v>
       </c>
       <c r="AA12" s="7">
         <f t="shared" si="4"/>
-        <v>0.19974143503555269</v>
+        <v>0.19454277872797424</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="5"/>
-        <v>0.12080766598220397</v>
+        <v>0.12013980876476285</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1908,14 +1898,14 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>3526</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3174</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2957</v>
+      <c r="F13" s="31">
+        <v>9004</v>
+      </c>
+      <c r="G13" s="31">
+        <v>9236</v>
+      </c>
+      <c r="H13" s="31">
+        <v>11182</v>
       </c>
       <c r="I13" s="2">
         <v>5</v>
@@ -1929,26 +1919,26 @@
       <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="2">
-        <v>740</v>
-      </c>
-      <c r="N13" s="2">
-        <v>591</v>
-      </c>
-      <c r="O13" s="1">
-        <v>168</v>
+      <c r="M13" s="31">
+        <v>42605</v>
+      </c>
+      <c r="N13" s="31">
+        <v>53052</v>
+      </c>
+      <c r="O13" s="30">
+        <v>175291</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
-        <v>0.20986954055587068</v>
+        <v>0.21133669757070767</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>0.18620037807183365</v>
+        <v>0.17409334238106008</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="2"/>
-        <v>5.6814338856949614E-2</v>
+        <v>6.3791067425024675E-2</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
@@ -1962,26 +1952,26 @@
       <c r="V13" s="2">
         <v>0</v>
       </c>
-      <c r="W13" s="2">
-        <v>1057</v>
-      </c>
-      <c r="X13" s="2">
-        <v>655</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>363</v>
+      <c r="W13" s="31">
+        <v>30176</v>
+      </c>
+      <c r="X13" s="31">
+        <v>47631</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>86797</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="3"/>
-        <v>0.2997731140102099</v>
+        <v>0.29838282078472961</v>
       </c>
       <c r="AA13" s="7">
         <f t="shared" si="4"/>
-        <v>0.20636420919974796</v>
+        <v>0.19390732926035564</v>
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="5"/>
-        <v>0.12275955360162327</v>
+        <v>0.12882933741949606</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2000,14 +1990,14 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>5078</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3233</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3031</v>
+      <c r="F14" s="31">
+        <v>5973</v>
+      </c>
+      <c r="G14" s="31">
+        <v>9905</v>
+      </c>
+      <c r="H14" s="31">
+        <v>10845</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2021,26 +2011,26 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
-        <v>1720</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O14" s="1">
-        <v>928</v>
+      <c r="M14" s="31">
+        <v>18632</v>
+      </c>
+      <c r="N14" s="31">
+        <v>26892</v>
+      </c>
+      <c r="O14" s="30">
+        <v>34903</v>
       </c>
       <c r="P14" s="6">
-        <f>M14/F14</f>
-        <v>0.3387160299330445</v>
+        <f t="shared" si="0"/>
+        <v>0.32057750107342209</v>
       </c>
       <c r="Q14" s="6">
-        <f>N14/G14</f>
-        <v>0.35849056603773582</v>
+        <f t="shared" si="1"/>
+        <v>0.36832515246169867</v>
       </c>
       <c r="R14" s="6">
-        <f>O14/H14</f>
-        <v>0.30616958099637082</v>
+        <f t="shared" si="2"/>
+        <v>0.31071827636592841</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -2054,26 +2044,26 @@
       <c r="V14" s="2">
         <v>0</v>
       </c>
-      <c r="W14" s="2">
-        <v>1953</v>
-      </c>
-      <c r="X14" s="2">
-        <v>875</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>571</v>
+      <c r="W14" s="31">
+        <v>16235</v>
+      </c>
+      <c r="X14" s="31">
+        <v>35216</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>57616</v>
       </c>
       <c r="Z14" s="6">
-        <f>W14/F14</f>
-        <v>0.38460023631350926</v>
+        <f t="shared" si="3"/>
+        <v>0.36790883892824144</v>
       </c>
       <c r="AA14" s="7">
-        <f>X14/G14</f>
-        <v>0.27064645839777296</v>
+        <f t="shared" si="4"/>
+        <v>0.28126419809177644</v>
       </c>
       <c r="AB14" s="7">
-        <f>Y14/H14</f>
-        <v>0.1883866710656549</v>
+        <f t="shared" si="5"/>
+        <v>0.18822896417661761</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2092,14 +2082,14 @@
       <c r="E15" s="2">
         <v>868</v>
       </c>
-      <c r="F15" s="2">
-        <v>6353</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5670</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5236</v>
+      <c r="F15" s="31">
+        <v>7319</v>
+      </c>
+      <c r="G15" s="31">
+        <v>8237</v>
+      </c>
+      <c r="H15" s="31">
+        <v>9356</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -2113,26 +2103,26 @@
       <c r="L15" s="2">
         <v>5</v>
       </c>
-      <c r="M15" s="2">
-        <v>1750</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1264</v>
-      </c>
-      <c r="O15" s="1">
-        <v>580</v>
+      <c r="M15" s="31">
+        <v>26935</v>
+      </c>
+      <c r="N15" s="31">
+        <v>37054</v>
+      </c>
+      <c r="O15" s="30">
+        <v>82806</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="0"/>
-        <v>0.27546041240358887</v>
+        <v>0.27172823463894563</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>0.22292768959435627</v>
+        <v>0.22229718788794733</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="2"/>
-        <v>0.11077158135981666</v>
+        <v>0.1129869816196894</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -2146,26 +2136,26 @@
       <c r="V15" s="2">
         <v>0</v>
       </c>
-      <c r="W15" s="2">
-        <v>2028</v>
-      </c>
-      <c r="X15" s="2">
-        <v>1422</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>893</v>
+      <c r="W15" s="31">
+        <v>23265</v>
+      </c>
+      <c r="X15" s="31">
+        <v>32550</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>54341</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="3"/>
-        <v>0.31921926648827326</v>
+        <v>0.31459273586933162</v>
       </c>
       <c r="AA15" s="7">
         <f t="shared" si="4"/>
-        <v>0.25079365079365079</v>
+        <v>0.25305683563748083</v>
       </c>
       <c r="AB15" s="7">
         <f t="shared" si="5"/>
-        <v>0.17055003819709702</v>
+        <v>0.17217202480631566</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2184,14 +2174,14 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
-        <v>1473</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1445</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1356</v>
+      <c r="F16" s="31">
+        <v>22297</v>
+      </c>
+      <c r="G16" s="31">
+        <v>21646</v>
+      </c>
+      <c r="H16" s="31">
+        <v>24463</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2205,26 +2195,26 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <v>406</v>
-      </c>
-      <c r="N16" s="2">
-        <v>356</v>
-      </c>
-      <c r="O16" s="1">
-        <v>135</v>
+      <c r="M16" s="31">
+        <v>77164</v>
+      </c>
+      <c r="N16" s="31">
+        <v>86268</v>
+      </c>
+      <c r="O16" s="30">
+        <v>239487</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
-        <v>0.27562797012898849</v>
+        <v>0.28895598983982168</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>0.24636678200692042</v>
+        <v>0.25091575091575091</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="2"/>
-        <v>9.9557522123893807E-2</v>
+        <v>0.10214750696279964</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -2238,55 +2228,55 @@
       <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="W16" s="2">
-        <v>681</v>
-      </c>
-      <c r="X16" s="2">
-        <v>388</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>246</v>
+      <c r="W16" s="31">
+        <v>46770</v>
+      </c>
+      <c r="X16" s="31">
+        <v>78721</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>128405</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="3"/>
-        <v>0.46232179226069248</v>
+        <v>0.47673722471669872</v>
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="4"/>
-        <v>0.2685121107266436</v>
+        <v>0.27497110046874407</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="5"/>
-        <v>0.18141592920353983</v>
+        <v>0.19051438806900042</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>12919</v>
-      </c>
-      <c r="G17" s="2">
-        <v>13338</v>
-      </c>
-      <c r="H17" s="2">
-        <v>12184</v>
+        <v>61</v>
+      </c>
+      <c r="F17" s="31">
+        <v>46102</v>
+      </c>
+      <c r="G17" s="31">
+        <v>48005</v>
+      </c>
+      <c r="H17" s="31">
+        <v>75106</v>
       </c>
       <c r="I17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -2297,26 +2287,26 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>4695</v>
-      </c>
-      <c r="N17" s="2">
-        <v>3078</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2255</v>
+      <c r="M17" s="31">
+        <v>69218</v>
+      </c>
+      <c r="N17" s="31">
+        <v>75498</v>
+      </c>
+      <c r="O17" s="30">
+        <v>146565</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="0"/>
-        <v>0.36341822122455297</v>
+        <v>0.66604062527088326</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0.23076923076923078</v>
+        <v>0.63584465813663937</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="2"/>
-        <v>0.18507879185817466</v>
+        <v>0.51244157882168317</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -2330,215 +2320,215 @@
       <c r="V17" s="2">
         <v>0</v>
       </c>
-      <c r="W17" s="2">
-        <v>6205</v>
-      </c>
-      <c r="X17" s="2">
-        <v>4528</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>3205</v>
+      <c r="W17" s="31">
+        <v>36165</v>
+      </c>
+      <c r="X17" s="31">
+        <v>66205</v>
+      </c>
+      <c r="Y17" s="30">
+        <v>110443</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="3"/>
-        <v>0.48030033284309931</v>
+        <v>1.2747684225079496</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="4"/>
-        <v>0.33948118158644475</v>
+        <v>0.72509629182085944</v>
       </c>
       <c r="AB17" s="7">
         <f t="shared" si="5"/>
-        <v>0.26304990151017726</v>
+        <v>0.68004309915522032</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
-        <v>8278</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>12013</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>12913</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>13016</v>
-      </c>
-      <c r="F18" s="2">
-        <v>7346</v>
-      </c>
-      <c r="G18" s="2">
-        <v>7389</v>
-      </c>
-      <c r="H18" s="2">
-        <v>6399</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="31">
+        <v>4940</v>
+      </c>
+      <c r="G18" s="31">
+        <v>4756</v>
+      </c>
+      <c r="H18" s="31">
+        <v>5298</v>
       </c>
       <c r="I18" s="2">
-        <v>64079</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
-        <v>601827096</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>594665760</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>601709992</v>
-      </c>
-      <c r="M18" s="2">
-        <v>4044</v>
-      </c>
-      <c r="N18" s="2">
-        <v>4261</v>
-      </c>
-      <c r="O18" s="1">
-        <v>3042</v>
+        <v>0</v>
+      </c>
+      <c r="M18" s="31">
+        <v>13451</v>
+      </c>
+      <c r="N18" s="31">
+        <v>20295</v>
+      </c>
+      <c r="O18" s="30">
+        <v>29023</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="0"/>
-        <v>0.55050367546964329</v>
+        <v>0.36725893985577279</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>0.57666802002977402</v>
+        <v>0.23434343434343435</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
-        <v>0.47538677918424754</v>
+        <v>0.18254487820004825</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>495461850</v>
+        <v>0</v>
       </c>
       <c r="U18" s="2">
-        <v>492989872</v>
+        <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>495283947</v>
-      </c>
-      <c r="W18" s="2">
-        <v>4505</v>
-      </c>
-      <c r="X18" s="2">
-        <v>5185</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>3700</v>
+        <v>0</v>
+      </c>
+      <c r="W18" s="31">
+        <v>10226</v>
+      </c>
+      <c r="X18" s="31">
+        <v>13857</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>20473</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="3"/>
-        <v>0.61325891641709773</v>
+        <v>0.48308233913553689</v>
       </c>
       <c r="AA18" s="7">
         <f t="shared" si="4"/>
-        <v>0.70171877114629855</v>
+        <v>0.34322003319621852</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="5"/>
-        <v>0.57821534614783565</v>
+        <v>0.25877985639622919</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>8278</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>12013</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>12913</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3734</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3723</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3185</v>
+        <v>13016</v>
+      </c>
+      <c r="F19" s="31">
+        <v>8531</v>
+      </c>
+      <c r="G19" s="31">
+        <v>8456</v>
+      </c>
+      <c r="H19" s="31">
+        <v>10277</v>
       </c>
       <c r="I19" s="2">
-        <v>50512</v>
+        <v>64079</v>
       </c>
       <c r="J19" s="2">
-        <v>18280</v>
+        <v>601827096</v>
       </c>
       <c r="K19" s="2">
-        <v>1558157760</v>
+        <v>594665760</v>
       </c>
       <c r="L19" s="2">
-        <v>18280</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1314</v>
-      </c>
-      <c r="N19" s="2">
-        <v>1037</v>
-      </c>
-      <c r="O19" s="1">
-        <v>336</v>
+        <v>601709992</v>
+      </c>
+      <c r="M19" s="31">
+        <v>15579</v>
+      </c>
+      <c r="N19" s="31">
+        <v>14941</v>
+      </c>
+      <c r="O19" s="30">
+        <v>20708</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>0.3519014461703267</v>
+        <v>0.54759612298607097</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>0.27853881278538811</v>
+        <v>0.56595944046583224</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="2"/>
-        <v>0.10549450549450549</v>
+        <v>0.49628163028781147</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>0</v>
+        <v>495461850</v>
       </c>
       <c r="U19" s="2">
-        <v>96159496</v>
+        <v>492989872</v>
       </c>
       <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>7499</v>
-      </c>
-      <c r="X19" s="2">
-        <v>1256</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>718</v>
+        <v>495283947</v>
+      </c>
+      <c r="W19" s="31">
+        <v>13904</v>
+      </c>
+      <c r="X19" s="31">
+        <v>12189</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>16667</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="3"/>
-        <v>2.0083020889126941</v>
+        <v>0.6135644418872267</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="4"/>
-        <v>0.33736234219715283</v>
+        <v>0.6937402576093199</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="5"/>
-        <v>0.22543171114599686</v>
+        <v>0.61660766784664311</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2552,47 +2542,47 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
-        <v>4513</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4330</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2991</v>
+      <c r="F20" s="31">
+        <v>17201</v>
+      </c>
+      <c r="G20" s="31">
+        <v>17213</v>
+      </c>
+      <c r="H20" s="31">
+        <v>20018</v>
       </c>
       <c r="I20" s="2">
-        <v>4</v>
+        <v>50512</v>
       </c>
       <c r="J20" s="2">
-        <v>8124</v>
+        <v>18280</v>
       </c>
       <c r="K20" s="2">
-        <v>4062</v>
+        <v>1558157760</v>
       </c>
       <c r="L20" s="2">
-        <v>4062</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1621</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1741</v>
-      </c>
-      <c r="O20" s="1">
-        <v>860</v>
+        <v>18280</v>
+      </c>
+      <c r="M20" s="31">
+        <v>48005</v>
+      </c>
+      <c r="N20" s="31">
+        <v>57240</v>
+      </c>
+      <c r="O20" s="30">
+        <v>167594</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="0"/>
-        <v>0.3591845778861068</v>
+        <v>0.35831684199562547</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0.4020785219399538</v>
+        <v>0.30071628232005593</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="2"/>
-        <v>0.28752925442995653</v>
+        <v>0.11944341682876475</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -2601,36 +2591,36 @@
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>96159496</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
       </c>
-      <c r="W20" s="2">
-        <v>2178</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1597</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>1059</v>
+      <c r="W20" s="31">
+        <v>8417</v>
+      </c>
+      <c r="X20" s="31">
+        <v>46897</v>
+      </c>
+      <c r="Y20" s="30">
+        <v>80184</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="3"/>
-        <v>0.48260580545091958</v>
+        <v>2.0436022335749078</v>
       </c>
       <c r="AA20" s="7">
         <f t="shared" si="4"/>
-        <v>0.36882217090069286</v>
+        <v>0.36703840330938015</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="5"/>
-        <v>0.35406218655967903</v>
+        <v>0.24965080315274868</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2644,47 +2634,47 @@
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
-        <v>4571</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4248</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3024</v>
+      <c r="F21" s="31">
+        <v>14021</v>
+      </c>
+      <c r="G21" s="31">
+        <v>14385</v>
+      </c>
+      <c r="H21" s="31">
+        <v>21553</v>
       </c>
       <c r="I21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" s="2">
-        <v>6160</v>
+        <v>8124</v>
       </c>
       <c r="K21" s="2">
-        <v>6</v>
+        <v>4062</v>
       </c>
       <c r="L21" s="2">
-        <v>6154</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1592</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1523</v>
-      </c>
-      <c r="O21" s="1">
-        <v>830</v>
+        <v>4062</v>
+      </c>
+      <c r="M21" s="31">
+        <v>38879</v>
+      </c>
+      <c r="N21" s="31">
+        <v>34783</v>
+      </c>
+      <c r="O21" s="30">
+        <v>71034</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="0"/>
-        <v>0.34828265149857801</v>
+        <v>0.36063170349031609</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>0.3585216572504708</v>
+        <v>0.41356409740390421</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="2"/>
-        <v>0.27447089947089948</v>
+        <v>0.30341808148210714</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -2698,31 +2688,31 @@
       <c r="V21" s="2">
         <v>0</v>
       </c>
-      <c r="W21" s="2">
-        <v>2187</v>
-      </c>
-      <c r="X21" s="2">
-        <v>1570</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>1041</v>
+      <c r="W21" s="31">
+        <v>29144</v>
+      </c>
+      <c r="X21" s="31">
+        <v>38610</v>
+      </c>
+      <c r="Y21" s="30">
+        <v>54036</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="3"/>
-        <v>0.47845110479107417</v>
+        <v>0.48109387867142467</v>
       </c>
       <c r="AA21" s="7">
         <f t="shared" si="4"/>
-        <v>0.36958568738229758</v>
+        <v>0.37257187257187258</v>
       </c>
       <c r="AB21" s="7">
         <f t="shared" si="5"/>
-        <v>0.34424603174603174</v>
+        <v>0.39886372048264118</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2736,47 +2726,47 @@
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
-        <v>5920</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5268</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3778</v>
+      <c r="F22" s="31">
+        <v>13818</v>
+      </c>
+      <c r="G22" s="31">
+        <v>14817</v>
+      </c>
+      <c r="H22" s="31">
+        <v>21515</v>
       </c>
       <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6160</v>
+      </c>
+      <c r="K22" s="2">
         <v>6</v>
       </c>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>3525</v>
-      </c>
       <c r="L22" s="2">
-        <v>3525</v>
-      </c>
-      <c r="M22" s="2">
-        <v>2179</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1500</v>
-      </c>
-      <c r="O22" s="1">
-        <v>763</v>
+        <v>6154</v>
+      </c>
+      <c r="M22" s="31">
+        <v>39672</v>
+      </c>
+      <c r="N22" s="31">
+        <v>39651</v>
+      </c>
+      <c r="O22" s="30">
+        <v>72352</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="0"/>
-        <v>0.3680743243243243</v>
+        <v>0.34830611010284329</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>0.2847380410022779</v>
+        <v>0.37368540516002119</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="2"/>
-        <v>0.2019587083112758</v>
+        <v>0.29736565678903143</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -2790,31 +2780,31 @@
       <c r="V22" s="2">
         <v>0</v>
       </c>
-      <c r="W22" s="2">
-        <v>2760</v>
-      </c>
-      <c r="X22" s="2">
-        <v>2084</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1166</v>
+      <c r="W22" s="31">
+        <v>29309</v>
+      </c>
+      <c r="X22" s="31">
+        <v>39154</v>
+      </c>
+      <c r="Y22" s="30">
+        <v>56497</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="3"/>
-        <v>0.46621621621621623</v>
+        <v>0.47145927871984716</v>
       </c>
       <c r="AA22" s="7">
         <f t="shared" si="4"/>
-        <v>0.39559605163249811</v>
+        <v>0.37842876845277623</v>
       </c>
       <c r="AB22" s="7">
         <f t="shared" si="5"/>
-        <v>0.30862890418210692</v>
+        <v>0.38081668053170964</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2828,47 +2818,47 @@
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
-        <v>1574</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1493</v>
-      </c>
-      <c r="H23">
-        <v>1217</v>
+      <c r="F23" s="31">
+        <v>10899</v>
+      </c>
+      <c r="G23" s="31">
+        <v>12309</v>
+      </c>
+      <c r="H23" s="31">
+        <v>17491</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2">
-        <v>4057</v>
+        <v>3525</v>
       </c>
       <c r="L23" s="2">
-        <v>4057</v>
-      </c>
-      <c r="M23" s="2">
-        <v>698</v>
-      </c>
-      <c r="N23" s="2">
-        <v>674</v>
-      </c>
-      <c r="O23" s="1">
-        <v>313</v>
+        <v>3525</v>
+      </c>
+      <c r="M23" s="31">
+        <v>28736</v>
+      </c>
+      <c r="N23" s="31">
+        <v>39756</v>
+      </c>
+      <c r="O23" s="30">
+        <v>81048</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>0.4434561626429479</v>
+        <v>0.37928034521158127</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>0.45144005358338912</v>
+        <v>0.30961364322366436</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="2"/>
-        <v>0.257189811010682</v>
+        <v>0.21581038396999308</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2882,31 +2872,31 @@
       <c r="V23" s="2">
         <v>0</v>
       </c>
-      <c r="W23" s="2">
-        <v>943</v>
-      </c>
-      <c r="X23" s="2">
-        <v>793</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>561</v>
+      <c r="W23" s="31">
+        <v>23015</v>
+      </c>
+      <c r="X23" s="31">
+        <v>29913</v>
+      </c>
+      <c r="Y23" s="30">
+        <v>50392</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="3"/>
-        <v>0.59911054637865313</v>
+        <v>0.47356072126873777</v>
       </c>
       <c r="AA23" s="7">
         <f t="shared" si="4"/>
-        <v>0.53114534494306764</v>
+        <v>0.41149333065891086</v>
       </c>
       <c r="AB23" s="7">
         <f t="shared" si="5"/>
-        <v>0.46096959737058341</v>
+        <v>0.34709874583267186</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2920,47 +2910,47 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
-        <v>3764</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3768</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2769</v>
+      <c r="F24" s="31">
+        <v>19691</v>
+      </c>
+      <c r="G24" s="31">
+        <v>20547</v>
+      </c>
+      <c r="H24" s="29">
+        <v>25738</v>
       </c>
       <c r="I24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>4057</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>700</v>
-      </c>
-      <c r="N24" s="2">
-        <v>696</v>
-      </c>
-      <c r="O24" s="1">
-        <v>343</v>
+        <v>4057</v>
+      </c>
+      <c r="M24" s="31">
+        <v>43638</v>
+      </c>
+      <c r="N24" s="31">
+        <v>43686</v>
+      </c>
+      <c r="O24" s="30">
+        <v>95237</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="0"/>
-        <v>0.18597236981934112</v>
+        <v>0.45123516201475777</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>0.18471337579617833</v>
+        <v>0.47033374536464773</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="2"/>
-        <v>0.12387143373058866</v>
+        <v>0.27025210789924087</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -2974,31 +2964,31 @@
       <c r="V24" s="2">
         <v>0</v>
       </c>
-      <c r="W24" s="2">
-        <v>971</v>
-      </c>
-      <c r="X24" s="2">
-        <v>779</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>539</v>
+      <c r="W24" s="31">
+        <v>32593</v>
+      </c>
+      <c r="X24" s="31">
+        <v>38177</v>
+      </c>
+      <c r="Y24" s="30">
+        <v>53238</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="3"/>
-        <v>0.25797024442082889</v>
+        <v>0.6041481299665572</v>
       </c>
       <c r="AA24" s="7">
         <f t="shared" si="4"/>
-        <v>0.20674097664543525</v>
+        <v>0.53820363045812925</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" si="5"/>
-        <v>0.19465511014806788</v>
+        <v>0.48345166985987453</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -3012,47 +3002,47 @@
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
-        <v>4016</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3554</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2566</v>
+      <c r="F25" s="31">
+        <v>7922</v>
+      </c>
+      <c r="G25" s="31">
+        <v>8110</v>
+      </c>
+      <c r="H25" s="31">
+        <v>11328</v>
       </c>
       <c r="I25" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J25" s="2">
-        <v>7050</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>3525</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>3525</v>
-      </c>
-      <c r="M25" s="2">
-        <v>2067</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1606</v>
-      </c>
-      <c r="O25" s="1">
-        <v>875</v>
+        <v>1</v>
+      </c>
+      <c r="M25" s="31">
+        <v>43694</v>
+      </c>
+      <c r="N25" s="31">
+        <v>43736</v>
+      </c>
+      <c r="O25" s="30">
+        <v>88010</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="0"/>
-        <v>0.514691235059761</v>
+        <v>0.1813063578523367</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>0.45188519977490155</v>
+        <v>0.18543076641668191</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="2"/>
-        <v>0.34099766173031959</v>
+        <v>0.1287126462901943</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -3066,85 +3056,85 @@
       <c r="V25" s="2">
         <v>0</v>
       </c>
-      <c r="W25" s="2">
-        <v>2695</v>
-      </c>
-      <c r="X25" s="2">
-        <v>1844</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>1293</v>
+      <c r="W25" s="31">
+        <v>31687</v>
+      </c>
+      <c r="X25" s="31">
+        <v>38418</v>
+      </c>
+      <c r="Y25" s="30">
+        <v>55175</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="3"/>
-        <v>0.67106573705179284</v>
+        <v>0.25000788967084292</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="4"/>
-        <v>0.51885199774901525</v>
+        <v>0.21109896402727887</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="5"/>
-        <v>0.50389711613406074</v>
+        <v>0.20531037607612143</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
-        <v>238856</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>3907448</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>913439</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>913439</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4777</v>
-      </c>
-      <c r="G26" s="2">
-        <v>4678</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="31">
+        <v>15880</v>
+      </c>
+      <c r="G26" s="31">
+        <v>17764</v>
       </c>
       <c r="H26" s="31">
-        <v>4193</v>
+        <v>25556</v>
       </c>
       <c r="I26" s="2">
-        <v>716930</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2">
-        <v>1250114</v>
+        <v>7050</v>
       </c>
       <c r="K26" s="2">
-        <v>700113</v>
+        <v>3525</v>
       </c>
       <c r="L26" s="2">
-        <v>700113</v>
-      </c>
-      <c r="M26" s="2">
-        <v>5323</v>
-      </c>
-      <c r="N26" s="2">
-        <v>2262</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1355</v>
+        <v>3525</v>
+      </c>
+      <c r="M26" s="31">
+        <v>32600</v>
+      </c>
+      <c r="N26" s="31">
+        <v>37567</v>
+      </c>
+      <c r="O26" s="30">
+        <v>69491</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="0"/>
-        <v>1.11429767636592</v>
+        <v>0.48711656441717793</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>0.48353997434801199</v>
+        <v>0.47286182021454998</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="2"/>
-        <v>0.32315764369186739</v>
+        <v>0.36775985379401649</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -3158,123 +3148,123 @@
       <c r="V26" s="2">
         <v>0</v>
       </c>
-      <c r="W26" s="2">
-        <v>5581</v>
-      </c>
-      <c r="X26" s="2">
-        <v>3096</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>1837</v>
+      <c r="W26" s="31">
+        <v>23625</v>
+      </c>
+      <c r="X26" s="31">
+        <v>33602</v>
+      </c>
+      <c r="Y26" s="30">
+        <v>47059</v>
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="3"/>
-        <v>1.1683064684948712</v>
+        <v>0.67216931216931219</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="4"/>
-        <v>0.66182129115006416</v>
+        <v>0.52865900839235758</v>
       </c>
       <c r="AB26" s="7">
         <f t="shared" si="5"/>
-        <v>0.4381111376103029</v>
+        <v>0.54306296351388683</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
-        <v>0</v>
+        <v>238856</v>
       </c>
       <c r="C27" s="2">
-        <v>0</v>
+        <v>3907448</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>913439</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>6162</v>
-      </c>
-      <c r="G27" s="2">
-        <v>5724</v>
-      </c>
-      <c r="H27" s="2">
-        <v>5306</v>
+        <v>913439</v>
+      </c>
+      <c r="F27" s="31">
+        <v>12823</v>
+      </c>
+      <c r="G27" s="31">
+        <v>14028</v>
+      </c>
+      <c r="H27" s="31">
+        <v>20918</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>716930</v>
       </c>
       <c r="J27" s="2">
-        <v>19668</v>
+        <v>1250114</v>
       </c>
       <c r="K27" s="2">
-        <v>13892</v>
+        <v>700113</v>
       </c>
       <c r="L27" s="2">
-        <v>13892</v>
-      </c>
-      <c r="M27" s="2">
-        <v>10265</v>
-      </c>
-      <c r="N27" s="2">
-        <v>3081</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1809</v>
+        <v>700113</v>
+      </c>
+      <c r="M27" s="31">
+        <v>12320</v>
+      </c>
+      <c r="N27" s="31">
+        <v>28190</v>
+      </c>
+      <c r="O27" s="30">
+        <v>47229</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="0"/>
-        <v>1.6658552418046089</v>
+        <v>1.0408279220779222</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>0.5382599580712788</v>
+        <v>0.49762327066335582</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="2"/>
-        <v>0.34093479080286471</v>
+        <v>0.44290584174977238</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>13542</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
-        <v>6771</v>
+        <v>0</v>
       </c>
       <c r="V27" s="2">
-        <v>6771</v>
-      </c>
-      <c r="W27" s="2">
-        <v>10389</v>
-      </c>
-      <c r="X27" s="2">
-        <v>2861</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>2089</v>
+        <v>0</v>
+      </c>
+      <c r="W27" s="31">
+        <v>11701</v>
+      </c>
+      <c r="X27" s="31">
+        <v>20920</v>
+      </c>
+      <c r="Y27" s="30">
+        <v>33145</v>
       </c>
       <c r="Z27" s="6">
         <f t="shared" si="3"/>
-        <v>1.6859785783836416</v>
+        <v>1.0958892402358773</v>
       </c>
       <c r="AA27" s="7">
         <f t="shared" si="4"/>
-        <v>0.4998252969951083</v>
+        <v>0.67055449330783934</v>
       </c>
       <c r="AB27" s="7">
         <f t="shared" si="5"/>
-        <v>0.39370523935167734</v>
+        <v>0.63110574747322368</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -3288,47 +3278,47 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
-        <v>7139</v>
-      </c>
-      <c r="G28" s="2">
-        <v>6439</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5912</v>
+      <c r="F28" s="31">
+        <v>10233</v>
+      </c>
+      <c r="G28" s="31">
+        <v>10833</v>
+      </c>
+      <c r="H28" s="31">
+        <v>12236</v>
       </c>
       <c r="I28" s="2">
         <v>2</v>
       </c>
       <c r="J28" s="2">
-        <v>19670</v>
+        <v>19668</v>
       </c>
       <c r="K28" s="2">
-        <v>6992</v>
+        <v>13892</v>
       </c>
       <c r="L28" s="2">
-        <v>19670</v>
-      </c>
-      <c r="M28" s="2">
-        <v>10215</v>
-      </c>
-      <c r="N28" s="2">
-        <v>3116</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1834</v>
+        <v>13892</v>
+      </c>
+      <c r="M28" s="31">
+        <v>6205</v>
+      </c>
+      <c r="N28" s="31">
+        <v>20407</v>
+      </c>
+      <c r="O28" s="30">
+        <v>34992</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="0"/>
-        <v>1.4308726712424709</v>
+        <v>1.649153908138598</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>0.48392607547755861</v>
+        <v>0.5308472582937227</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="2"/>
-        <v>0.31021650879566981</v>
+        <v>0.34967992684042065</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -3337,36 +3327,36 @@
         <v>13542</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>6771</v>
       </c>
       <c r="V28" s="2">
-        <v>13542</v>
-      </c>
-      <c r="W28" s="2">
-        <v>10397</v>
-      </c>
-      <c r="X28" s="2">
-        <v>2952</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>2015</v>
+        <v>6771</v>
+      </c>
+      <c r="W28" s="31">
+        <v>6115</v>
+      </c>
+      <c r="X28" s="31">
+        <v>21639</v>
+      </c>
+      <c r="Y28" s="30">
+        <v>28036</v>
       </c>
       <c r="Z28" s="6">
         <f t="shared" si="3"/>
-        <v>1.4563664378764534</v>
+        <v>1.6734260016353231</v>
       </c>
       <c r="AA28" s="7">
         <f t="shared" si="4"/>
-        <v>0.45845628203137134</v>
+        <v>0.50062387356162485</v>
       </c>
       <c r="AB28" s="7">
         <f t="shared" si="5"/>
-        <v>0.34083220568335587</v>
+        <v>0.43643886431730633</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -3380,85 +3370,85 @@
       <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2">
-        <v>2928</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2543</v>
-      </c>
-      <c r="H29">
-        <v>2299</v>
+      <c r="F29" s="31">
+        <v>8791</v>
+      </c>
+      <c r="G29" s="31">
+        <v>9778</v>
+      </c>
+      <c r="H29" s="31">
+        <v>11075</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" s="2">
-        <v>33412</v>
+        <v>19670</v>
       </c>
       <c r="K29" s="2">
-        <v>16707</v>
+        <v>6992</v>
       </c>
       <c r="L29" s="2">
-        <v>16707</v>
-      </c>
-      <c r="M29" s="2">
-        <v>4766</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1578</v>
-      </c>
-      <c r="O29" s="1">
-        <v>829</v>
+        <v>19670</v>
+      </c>
+      <c r="M29" s="31">
+        <v>6222</v>
+      </c>
+      <c r="N29" s="31">
+        <v>19983</v>
+      </c>
+      <c r="O29" s="30">
+        <v>34354</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="0"/>
-        <v>1.6277322404371584</v>
+        <v>1.4128897460623593</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>0.62052693668895009</v>
+        <v>0.48931591853075113</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="2"/>
-        <v>0.36059156154849936</v>
+        <v>0.32237876229842233</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>24184</v>
+        <v>13542</v>
       </c>
       <c r="U29" s="2">
-        <v>12092</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
-        <v>12097</v>
-      </c>
-      <c r="W29" s="2">
-        <v>5133</v>
-      </c>
-      <c r="X29" s="2">
-        <v>1585</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>1191</v>
+        <v>13542</v>
+      </c>
+      <c r="W29" s="31">
+        <v>6119</v>
+      </c>
+      <c r="X29" s="31">
+        <v>21828</v>
+      </c>
+      <c r="Y29" s="30">
+        <v>29632</v>
       </c>
       <c r="Z29" s="6">
         <f t="shared" si="3"/>
-        <v>1.7530737704918034</v>
+        <v>1.436672658931198</v>
       </c>
       <c r="AA29" s="7">
         <f t="shared" si="4"/>
-        <v>0.6232795910342116</v>
+        <v>0.44795675279457575</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" si="5"/>
-        <v>0.51805132666376685</v>
+        <v>0.37375134989200864</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -3472,85 +3462,85 @@
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2">
-        <v>8087</v>
-      </c>
-      <c r="G30" s="2">
-        <v>7889</v>
-      </c>
-      <c r="H30" s="2">
-        <v>7166</v>
+      <c r="F30" s="31">
+        <v>21931</v>
+      </c>
+      <c r="G30" s="31">
+        <v>24149</v>
+      </c>
+      <c r="H30" s="29">
+        <v>27794</v>
       </c>
       <c r="I30" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>3949</v>
+        <v>33412</v>
       </c>
       <c r="K30" s="2">
-        <v>4490</v>
+        <v>16707</v>
       </c>
       <c r="L30" s="2">
-        <v>4490</v>
-      </c>
-      <c r="M30" s="2">
-        <v>4144</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2955</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1914</v>
+        <v>16707</v>
+      </c>
+      <c r="M30" s="31">
+        <v>13330</v>
+      </c>
+      <c r="N30" s="31">
+        <v>38542</v>
+      </c>
+      <c r="O30" s="30">
+        <v>75465</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="0"/>
-        <v>0.51242735254111538</v>
+        <v>1.6452363090772693</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>0.37457218912409684</v>
+        <v>0.6265632297234186</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="2"/>
-        <v>0.2670946134524142</v>
+        <v>0.36830318690783809</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <v>0</v>
+        <v>24184</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>12092</v>
       </c>
       <c r="V30" s="2">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2">
-        <v>4181</v>
-      </c>
-      <c r="X30" s="2">
-        <v>3331</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>2239</v>
+        <v>12097</v>
+      </c>
+      <c r="W30" s="31">
+        <v>12611</v>
+      </c>
+      <c r="X30" s="31">
+        <v>38872</v>
+      </c>
+      <c r="Y30" s="30">
+        <v>48874</v>
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="3"/>
-        <v>0.51700259676023252</v>
+        <v>1.7390373483466814</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="4"/>
-        <v>0.42223348966915958</v>
+        <v>0.62124408314467994</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="5"/>
-        <v>0.31244766955065589</v>
+        <v>0.5686868273519663</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -3564,47 +3554,47 @@
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="2">
-        <v>3052</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2710</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2489</v>
+      <c r="F31" s="31">
+        <v>7798</v>
+      </c>
+      <c r="G31" s="31">
+        <v>7962</v>
+      </c>
+      <c r="H31" s="31">
+        <v>9296</v>
       </c>
       <c r="I31" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>3949</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
+        <v>4490</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
-        <v>916</v>
-      </c>
-      <c r="N31" s="2">
-        <v>574</v>
-      </c>
-      <c r="O31" s="1">
-        <v>267</v>
+        <v>4490</v>
+      </c>
+      <c r="M31" s="31">
+        <v>15432</v>
+      </c>
+      <c r="N31" s="31">
+        <v>21324</v>
+      </c>
+      <c r="O31" s="30">
+        <v>33377</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" si="0"/>
-        <v>0.30013106159895153</v>
+        <v>0.50531363400725759</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>0.2118081180811808</v>
+        <v>0.37338210467079347</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="2"/>
-        <v>0.10727199678585778</v>
+        <v>0.2785151451598406</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -3618,31 +3608,31 @@
       <c r="V31" s="2">
         <v>0</v>
       </c>
-      <c r="W31" s="2">
-        <v>902</v>
-      </c>
-      <c r="X31" s="2">
-        <v>656</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>373</v>
+      <c r="W31" s="31">
+        <v>15204</v>
+      </c>
+      <c r="X31" s="31">
+        <v>18660</v>
+      </c>
+      <c r="Y31" s="30">
+        <v>28398</v>
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="3"/>
-        <v>0.29554390563564875</v>
+        <v>0.51289134438305706</v>
       </c>
       <c r="AA31" s="7">
         <f t="shared" si="4"/>
-        <v>0.24206642066420664</v>
+        <v>0.4266881028938907</v>
       </c>
       <c r="AB31" s="7">
         <f t="shared" si="5"/>
-        <v>0.14985938127762152</v>
+        <v>0.32734699626734276</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -3656,47 +3646,47 @@
       <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="2">
-        <v>1626</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1407</v>
-      </c>
-      <c r="H32">
-        <v>1273</v>
+      <c r="F32" s="31">
+        <v>5359</v>
+      </c>
+      <c r="G32" s="31">
+        <v>6079</v>
+      </c>
+      <c r="H32" s="31">
+        <v>6770</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
-        <v>3009</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>3009</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1680</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1130</v>
-      </c>
-      <c r="O32" s="1">
-        <v>611</v>
+        <v>1</v>
+      </c>
+      <c r="M32" s="31">
+        <v>17738</v>
+      </c>
+      <c r="N32" s="31">
+        <v>28449</v>
+      </c>
+      <c r="O32" s="30">
+        <v>60018</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" si="0"/>
-        <v>1.033210332103321</v>
+        <v>0.30211974292479421</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>0.80312722103766876</v>
+        <v>0.21368062146296882</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="2"/>
-        <v>0.47996857816182248</v>
+        <v>0.11279949348528774</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -3710,990 +3700,1163 @@
       <c r="V32" s="2">
         <v>0</v>
       </c>
-      <c r="W32" s="2">
-        <v>1838</v>
-      </c>
-      <c r="X32" s="2">
-        <v>1304</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>823</v>
+      <c r="W32" s="31">
+        <v>18156</v>
+      </c>
+      <c r="X32" s="31">
+        <v>24854</v>
+      </c>
+      <c r="Y32" s="30">
+        <v>42708</v>
       </c>
       <c r="Z32" s="6">
         <f t="shared" si="3"/>
-        <v>1.1303813038130381</v>
+        <v>0.29516413306895795</v>
       </c>
       <c r="AA32" s="7">
         <f t="shared" si="4"/>
-        <v>0.92679459843638945</v>
+        <v>0.24458839623400661</v>
       </c>
       <c r="AB32" s="7">
         <f t="shared" si="5"/>
-        <v>0.64650432050274942</v>
+        <v>0.15851831038681277</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>153</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5382</v>
-      </c>
-      <c r="G33" s="2">
-        <v>7250</v>
-      </c>
-      <c r="H33" s="2">
-        <v>6044</v>
+        <v>0</v>
+      </c>
+      <c r="F33" s="31">
+        <v>19021</v>
+      </c>
+      <c r="G33" s="31">
+        <v>21802</v>
+      </c>
+      <c r="H33" s="29">
+        <v>25070</v>
       </c>
       <c r="I33" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>28860</v>
+        <v>162</v>
       </c>
       <c r="K33" s="2">
-        <v>14432</v>
+        <v>3009</v>
       </c>
       <c r="L33" s="2">
-        <v>14432</v>
-      </c>
-      <c r="M33" s="2">
-        <v>2095</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1484</v>
-      </c>
-      <c r="O33" s="2">
-        <v>693</v>
-      </c>
-      <c r="P33" s="13">
+        <v>3009</v>
+      </c>
+      <c r="M33" s="31">
+        <v>18146</v>
+      </c>
+      <c r="N33" s="31">
+        <v>25583</v>
+      </c>
+      <c r="O33" s="30">
+        <v>52293</v>
+      </c>
+      <c r="P33" s="6">
         <f t="shared" si="0"/>
-        <v>0.38926049795615014</v>
-      </c>
-      <c r="Q33" s="13">
+        <v>1.0482199933869722</v>
+      </c>
+      <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>0.2046896551724138</v>
+        <v>0.85220654340773172</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="2"/>
-        <v>0.11465916611515553</v>
+        <v>0.47941407071692194</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <v>27728</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>13864</v>
+        <v>0</v>
       </c>
       <c r="V33" s="2">
-        <v>13864</v>
-      </c>
-      <c r="W33" s="2">
-        <v>2882</v>
-      </c>
-      <c r="X33" s="2">
-        <v>1740</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>1178</v>
-      </c>
-      <c r="Z33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="31">
+        <v>16767</v>
+      </c>
+      <c r="X33" s="31">
+        <v>21934</v>
+      </c>
+      <c r="Y33" s="30">
+        <v>37714</v>
+      </c>
+      <c r="Z33" s="6">
         <f t="shared" si="3"/>
-        <v>0.53548866592344857</v>
-      </c>
-      <c r="AA33" s="14">
+        <v>1.1344307270233196</v>
+      </c>
+      <c r="AA33" s="7">
         <f t="shared" si="4"/>
-        <v>0.24</v>
+        <v>0.99398194583751254</v>
       </c>
       <c r="AB33" s="7">
         <f t="shared" si="5"/>
-        <v>0.19490403706154863</v>
+        <v>0.66473988439306353</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C34" s="2">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D34" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2">
-        <v>185</v>
-      </c>
-      <c r="F34" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G34" s="2">
-        <v>7099</v>
-      </c>
-      <c r="H34" s="2">
-        <v>5938</v>
+        <v>153</v>
+      </c>
+      <c r="F34" s="31">
+        <v>11821</v>
+      </c>
+      <c r="G34" s="31">
+        <v>8711</v>
+      </c>
+      <c r="H34" s="31">
+        <v>10845</v>
       </c>
       <c r="I34" s="2">
         <v>2</v>
       </c>
       <c r="J34" s="2">
-        <v>14454</v>
+        <v>28860</v>
       </c>
       <c r="K34" s="2">
-        <v>13053</v>
+        <v>14432</v>
       </c>
       <c r="L34" s="2">
-        <v>14454</v>
-      </c>
-      <c r="M34" s="2">
-        <v>4663</v>
-      </c>
-      <c r="N34" s="2">
-        <v>2531</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1524</v>
-      </c>
-      <c r="P34" s="13">
+        <v>14432</v>
+      </c>
+      <c r="M34" s="31">
+        <v>30535</v>
+      </c>
+      <c r="N34" s="31">
+        <v>38173</v>
+      </c>
+      <c r="O34" s="31">
+        <v>89047</v>
+      </c>
+      <c r="P34" s="6">
         <f t="shared" si="0"/>
-        <v>0.93259999999999998</v>
-      </c>
-      <c r="Q34" s="13">
+        <v>0.38712952349762569</v>
+      </c>
+      <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>0.35652908860402871</v>
+        <v>0.22819794095302962</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="2"/>
-        <v>0.25665207140451329</v>
+        <v>0.12178961671926061</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
       </c>
       <c r="T34" s="2">
-        <v>13867</v>
+        <v>27728</v>
       </c>
       <c r="U34" s="2">
-        <v>11569</v>
+        <v>13864</v>
       </c>
       <c r="V34" s="2">
-        <v>13867</v>
-      </c>
-      <c r="W34" s="2">
-        <v>5242</v>
-      </c>
-      <c r="X34" s="2">
-        <v>2855</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>1897</v>
-      </c>
-      <c r="Z34" s="13">
+        <v>13864</v>
+      </c>
+      <c r="W34" s="31">
+        <v>22084</v>
+      </c>
+      <c r="X34" s="31">
+        <v>33705</v>
+      </c>
+      <c r="Y34" s="31">
+        <v>53355</v>
+      </c>
+      <c r="Z34" s="6">
         <f t="shared" si="3"/>
-        <v>1.0484</v>
-      </c>
-      <c r="AA34" s="14">
+        <v>0.53527440681036043</v>
+      </c>
+      <c r="AA34" s="7">
         <f t="shared" si="4"/>
-        <v>0.40216931962248204</v>
+        <v>0.25844830143895564</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" si="5"/>
-        <v>0.31946783428763892</v>
+        <v>0.20326117514759628</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="D35" s="2">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="E35" s="2">
-        <v>16</v>
-      </c>
-      <c r="F35" s="2">
-        <v>24650</v>
-      </c>
-      <c r="G35" s="2">
-        <v>29508</v>
-      </c>
-      <c r="H35" s="2">
-        <v>25902</v>
+        <v>185</v>
+      </c>
+      <c r="F35" s="31">
+        <v>12811</v>
+      </c>
+      <c r="G35" s="31">
+        <v>8893</v>
+      </c>
+      <c r="H35" s="31">
+        <v>10951</v>
       </c>
       <c r="I35" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J35" s="2">
-        <v>5</v>
+        <v>14454</v>
       </c>
       <c r="K35" s="2">
-        <v>5</v>
+        <v>13053</v>
       </c>
       <c r="L35" s="2">
-        <v>6</v>
-      </c>
-      <c r="M35" s="2">
-        <v>8841</v>
-      </c>
-      <c r="N35" s="2">
-        <v>5647</v>
-      </c>
-      <c r="O35" s="2">
-        <v>3906</v>
-      </c>
-      <c r="P35" s="13">
+        <v>14454</v>
+      </c>
+      <c r="M35" s="31">
+        <v>12890</v>
+      </c>
+      <c r="N35" s="31">
+        <v>24015</v>
+      </c>
+      <c r="O35" s="31">
+        <v>43887</v>
+      </c>
+      <c r="P35" s="6">
         <f t="shared" si="0"/>
-        <v>0.35866125760649087</v>
-      </c>
-      <c r="Q35" s="13">
+        <v>0.99387121799844846</v>
+      </c>
+      <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>0.19137183136776467</v>
+        <v>0.37031022277743075</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="2"/>
-        <v>0.1507991660875608</v>
+        <v>0.24952719484129696</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <v>0</v>
+        <v>13867</v>
       </c>
       <c r="U35" s="2">
-        <v>0</v>
+        <v>11569</v>
       </c>
       <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2">
-        <v>9901</v>
-      </c>
-      <c r="X35" s="2">
-        <v>7156</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>5230</v>
-      </c>
-      <c r="Z35" s="13">
+        <v>13867</v>
+      </c>
+      <c r="W35" s="31">
+        <v>12097</v>
+      </c>
+      <c r="X35" s="31">
+        <v>20982</v>
+      </c>
+      <c r="Y35" s="31">
+        <v>32867</v>
+      </c>
+      <c r="Z35" s="6">
         <f t="shared" si="3"/>
-        <v>0.40166328600405682</v>
-      </c>
-      <c r="AA35" s="14">
+        <v>1.0590228982392329</v>
+      </c>
+      <c r="AA35" s="7">
         <f t="shared" si="4"/>
-        <v>0.24251050562559306</v>
+        <v>0.42383948146029932</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="5"/>
-        <v>0.20191491004555634</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+        <v>0.33319134694374297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16</v>
+      </c>
+      <c r="F36" s="31">
+        <v>2596</v>
+      </c>
+      <c r="G36" s="31">
+        <v>2148</v>
+      </c>
+      <c r="H36" s="31">
+        <v>2558</v>
+      </c>
+      <c r="I36" s="2">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>5</v>
+      </c>
+      <c r="L36" s="2">
+        <v>6</v>
+      </c>
+      <c r="M36" s="31">
+        <v>7001</v>
+      </c>
+      <c r="N36" s="31">
+        <v>10866</v>
+      </c>
+      <c r="O36" s="31">
+        <v>16551</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3708041708327382</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="1"/>
+        <v>0.19768083931529543</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="2"/>
+        <v>0.154552595009365</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="31">
+        <v>6405</v>
+      </c>
+      <c r="X36" s="31">
+        <v>8647</v>
+      </c>
+      <c r="Y36" s="31">
+        <v>12395</v>
+      </c>
+      <c r="Z36" s="6">
+        <f t="shared" si="3"/>
+        <v>0.40530835284933647</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="4"/>
+        <v>0.24840985312825256</v>
+      </c>
+      <c r="AB36" s="7">
+        <f t="shared" si="5"/>
+        <v>0.20637353771682129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B37" s="9">
         <v>121</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C37" s="9">
         <v>56</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>56</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>56</v>
       </c>
-      <c r="F36" s="9">
-        <v>22880</v>
-      </c>
-      <c r="G36" s="9">
-        <v>22440</v>
-      </c>
-      <c r="H36" s="9">
-        <v>19388</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="F37" s="32">
+        <v>2792</v>
+      </c>
+      <c r="G37" s="32">
+        <v>2766</v>
+      </c>
+      <c r="H37" s="32">
+        <v>3399</v>
+      </c>
+      <c r="I37" s="9">
         <v>2</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J37" s="9">
         <v>11169</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K37" s="9">
         <v>1975</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L37" s="9">
         <v>13140</v>
       </c>
-      <c r="M36" s="9">
-        <v>9274</v>
-      </c>
-      <c r="N36" s="9">
-        <v>5024</v>
-      </c>
-      <c r="O36" s="9">
-        <v>3482</v>
-      </c>
-      <c r="P36" s="10">
+      <c r="M37" s="32">
+        <v>6644</v>
+      </c>
+      <c r="N37" s="32">
+        <v>11988</v>
+      </c>
+      <c r="O37" s="32">
+        <v>18284</v>
+      </c>
+      <c r="P37" s="10">
         <f t="shared" si="0"/>
-        <v>0.40533216783216786</v>
-      </c>
-      <c r="Q36" s="10">
+        <v>0.42022877784467189</v>
+      </c>
+      <c r="Q37" s="10">
         <f t="shared" si="1"/>
-        <v>0.22388591800356505</v>
-      </c>
-      <c r="R36" s="10">
+        <v>0.23073073073073072</v>
+      </c>
+      <c r="R37" s="10">
         <f t="shared" si="2"/>
-        <v>0.17959562616051167</v>
-      </c>
-      <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9">
+        <v>0.18590024064756072</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
         <v>8867</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U37" s="9">
         <v>927</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V37" s="9">
         <v>9794</v>
       </c>
-      <c r="W36" s="9">
-        <v>22756</v>
-      </c>
-      <c r="X36" s="9">
-        <v>15345</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>11097</v>
-      </c>
-      <c r="Z36" s="10">
+      <c r="W37" s="32">
+        <v>2804</v>
+      </c>
+      <c r="X37" s="32">
+        <v>4075</v>
+      </c>
+      <c r="Y37" s="32">
+        <v>5883</v>
+      </c>
+      <c r="Z37" s="10">
         <f t="shared" si="3"/>
-        <v>0.99458041958041954</v>
-      </c>
-      <c r="AA36" s="11">
+        <v>0.99572039942938662</v>
+      </c>
+      <c r="AA37" s="11">
         <f t="shared" si="4"/>
-        <v>0.68382352941176472</v>
-      </c>
-      <c r="AB36" s="11">
+        <v>0.67877300613496927</v>
+      </c>
+      <c r="AB37" s="11">
         <f t="shared" si="5"/>
-        <v>0.57236434908190637</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="23">
+        <v>0.57776644569097402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="20">
         <f>COUNTIF(B3:B6,"=0")/COUNTA(B3:B6)</f>
         <v>1</v>
       </c>
-      <c r="C37" s="23">
-        <f t="shared" ref="C37:E37" si="6">COUNTIF(C3:C6,"=0")/COUNTA(C3:C6)</f>
+      <c r="C38" s="20">
+        <f t="shared" ref="C38:E38" si="6">COUNTIF(C3:C6,"=0")/COUNTA(C3:C6)</f>
         <v>1</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D38" s="20">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E38" s="20">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="23">
+      <c r="F38" s="30">
+        <f>AVERAGE(F3:F6)</f>
+        <v>57298.25</v>
+      </c>
+      <c r="G38" s="30">
+        <f t="shared" ref="G38:H38" si="7">AVERAGE(G3:G6)</f>
+        <v>71138.25</v>
+      </c>
+      <c r="H38" s="30">
+        <f t="shared" si="7"/>
+        <v>95962.75</v>
+      </c>
+      <c r="I38" s="20">
         <f>COUNTIF(I3:I6,"=0")/COUNTA(I3:I6)</f>
         <v>1</v>
       </c>
-      <c r="J37" s="23">
-        <f t="shared" ref="J37:L37" si="7">COUNTIF(J3:J6,"=0")/COUNTA(J3:J6)</f>
+      <c r="J38" s="20">
+        <f t="shared" ref="J38:L38" si="8">COUNTIF(J3:J6,"=0")/COUNTA(J3:J6)</f>
         <v>0.5</v>
       </c>
-      <c r="K37" s="23">
-        <f t="shared" si="7"/>
+      <c r="K38" s="20">
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="L37" s="23">
-        <f t="shared" si="7"/>
+      <c r="L38" s="20">
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="15">
+      <c r="M38" s="30">
+        <f>AVERAGE(M3:M6)</f>
+        <v>88641</v>
+      </c>
+      <c r="N38" s="30">
+        <f t="shared" ref="N38:O38" si="9">AVERAGE(N3:N6)</f>
+        <v>94447.5</v>
+      </c>
+      <c r="O38" s="30">
+        <f t="shared" si="9"/>
+        <v>662463.25</v>
+      </c>
+      <c r="P38" s="12">
         <f>AVERAGE(P3:P6)</f>
-        <v>0.70414225965227528</v>
-      </c>
-      <c r="Q37" s="15">
+        <v>0.69125936175095659</v>
+      </c>
+      <c r="Q38" s="12">
         <f>AVERAGE(Q3:Q6)</f>
-        <v>0.75674192867173617</v>
-      </c>
-      <c r="R37" s="15">
+        <v>0.80069819974345768</v>
+      </c>
+      <c r="R38" s="12">
         <f>AVERAGE(R3:R6)</f>
-        <v>0.14913795519542206</v>
-      </c>
-      <c r="S37" s="23">
+        <v>0.1456156663285306</v>
+      </c>
+      <c r="S38" s="20">
         <f>COUNTIF(S3:S6,"=0")/COUNTA(S3:S6)</f>
         <v>1</v>
       </c>
-      <c r="T37" s="23">
-        <f t="shared" ref="T37:V37" si="8">COUNTIF(T3:T6,"=0")/COUNTA(T3:T6)</f>
+      <c r="T38" s="20">
+        <f t="shared" ref="T38:V38" si="10">COUNTIF(T3:T6,"=0")/COUNTA(T3:T6)</f>
         <v>1</v>
       </c>
-      <c r="U37" s="23">
-        <f t="shared" si="8"/>
+      <c r="U38" s="20">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="V37" s="23">
-        <f t="shared" si="8"/>
+      <c r="V38" s="20">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="15">
+      <c r="W38" s="30">
+        <f>AVERAGE(W3:W6)</f>
+        <v>46146.75</v>
+      </c>
+      <c r="X38" s="30">
+        <f t="shared" ref="X38:Y38" si="11">AVERAGE(X3:X6)</f>
+        <v>83642</v>
+      </c>
+      <c r="Y38" s="30">
+        <f t="shared" si="11"/>
+        <v>142774</v>
+      </c>
+      <c r="Z38" s="12">
         <f>AVERAGE(Z3:Z6)</f>
-        <v>1.3363993510548642</v>
-      </c>
-      <c r="AA37" s="16">
+        <v>1.3034217767413772</v>
+      </c>
+      <c r="AA38" s="13">
         <f>AVERAGE(AA3:AA6)</f>
-        <v>0.87297178108507167</v>
-      </c>
-      <c r="AB37" s="16">
+        <v>0.89103703077792207</v>
+      </c>
+      <c r="AB38" s="13">
         <f>AVERAGE(AB3:AB6)</f>
-        <v>0.64763442448512232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="24">
-        <f>COUNTIF(B7:B36,"=0")/COUNTA(B7:B36)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="C38" s="24">
-        <f>COUNTIF(C7:C36,"=0")/COUNTA(C7:C36)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D38" s="24">
-        <f>COUNTIF(D7:D36,"=0")/COUNTA(D7:D36)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="E38" s="24">
-        <f>COUNTIF(E7:E36,"=0")/COUNTA(E7:E36)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="24">
-        <f>COUNTIF(I7:I36,"=0")/COUNTA(I7:I36)</f>
+        <v>0.72952126281927754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="21">
+        <f>COUNTIF(B7:B37,"=0")/COUNTA(B7:B37)</f>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="C39" s="21">
+        <f>COUNTIF(C7:C37,"=0")/COUNTA(C7:C37)</f>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="D39" s="21">
+        <f>COUNTIF(D7:D37,"=0")/COUNTA(D7:D37)</f>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="E39" s="21">
+        <f>COUNTIF(E7:E37,"=0")/COUNTA(E7:E37)</f>
+        <v>0.70967741935483875</v>
+      </c>
+      <c r="F39" s="31">
+        <f>AVERAGE(F7:F37)</f>
+        <v>15020.645161290322</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" ref="G39:H39" si="12">AVERAGE(G7:G37)</f>
+        <v>16375.451612903225</v>
+      </c>
+      <c r="H39" s="31">
+        <f t="shared" si="12"/>
+        <v>21053.580645161292</v>
+      </c>
+      <c r="I39" s="21">
+        <f>COUNTIF(I7:I37,"=0")/COUNTA(I7:I37)</f>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="J39" s="21">
+        <f>COUNTIF(J7:J37,"=0")/COUNTA(J7:J37)</f>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="K39" s="21">
+        <f>COUNTIF(K7:K37,"=0")/COUNTA(K7:K37)</f>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="L39" s="21">
+        <f>COUNTIF(L7:L37,"=0")/COUNTA(L7:L37)</f>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="M39" s="31">
+        <f>AVERAGE(M7:M37)</f>
+        <v>30762.129032258064</v>
+      </c>
+      <c r="N39" s="31">
+        <f t="shared" ref="N39:O39" si="13">AVERAGE(N7:N37)</f>
+        <v>38617.677419354841</v>
+      </c>
+      <c r="O39" s="31">
+        <f t="shared" si="13"/>
+        <v>93020.419354838712</v>
+      </c>
+      <c r="P39" s="14">
+        <f>AVERAGE(P7:P37)</f>
+        <v>0.62791270735995464</v>
+      </c>
+      <c r="Q39" s="14">
+        <f>AVERAGE(Q7:Q37)</f>
+        <v>0.418755960634136</v>
+      </c>
+      <c r="R39" s="14">
+        <f>AVERAGE(R7:R37)</f>
+        <v>0.27802673398043543</v>
+      </c>
+      <c r="S39" s="21">
+        <f>COUNTIF(S7:S37,"=0")/COUNTA(S7:S37)</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="21">
+        <f>COUNTIF(T7:T37,"=0")/COUNTA(T7:T37)</f>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="U39" s="21">
+        <f>COUNTIF(U7:U37,"=0")/COUNTA(U7:U37)</f>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="V39" s="21">
+        <f>COUNTIF(V7:V37,"=0")/COUNTA(V7:V37)</f>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="W39" s="31">
+        <f>AVERAGE(W7:W37)</f>
+        <v>21301.290322580644</v>
+      </c>
+      <c r="X39" s="31">
+        <f t="shared" ref="X39:Y39" si="14">AVERAGE(X7:X37)</f>
+        <v>34582.870967741932</v>
+      </c>
+      <c r="Y39" s="31">
+        <f t="shared" si="14"/>
+        <v>55672.645161290326</v>
+      </c>
+      <c r="Z39" s="14">
+        <f>AVERAGE(Z7:Z37)</f>
+        <v>0.80703788820570832</v>
+      </c>
+      <c r="AA39" s="14">
+        <f>AVERAGE(AA7:AA37)</f>
+        <v>0.47409892040137158</v>
+      </c>
+      <c r="AB39" s="23">
+        <f>AVERAGE(AB7:AB37)</f>
+        <v>0.39085588418289635</v>
+      </c>
+      <c r="AC39" s="24"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="22">
+        <f>COUNTIF(B3:B37,"=0")/COUNTA(B3:B37)</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="C40" s="22">
+        <f>COUNTIF(C3:C37,"=0")/COUNTA(C3:C37)</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="D40" s="22">
+        <f>COUNTIF(D3:D37,"=0")/COUNTA(D3:D37)</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="E40" s="22">
+        <f>COUNTIF(E3:E37,"=0")/COUNTA(E3:E37)</f>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="F40" s="33">
+        <f>AVERAGE(F3:F37)</f>
+        <v>19852.371428571427</v>
+      </c>
+      <c r="G40" s="33">
+        <f t="shared" ref="G40:H40" si="15">AVERAGE(G3:G37)</f>
+        <v>22634.057142857142</v>
+      </c>
+      <c r="H40" s="33">
+        <f t="shared" si="15"/>
+        <v>29614.628571428573</v>
+      </c>
+      <c r="I40" s="22">
+        <f>COUNTIF(I3:I37,"=0")/COUNTA(I3:I37)</f>
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="J40" s="22">
+        <f>COUNTIF(J3:J37,"=0")/COUNTA(J3:J37)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="24">
-        <f>COUNTIF(J7:J36,"=0")/COUNTA(J7:J36)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="K38" s="24">
-        <f>COUNTIF(K7:K36,"=0")/COUNTA(K7:K36)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="L38" s="24">
-        <f>COUNTIF(L7:L36,"=0")/COUNTA(L7:L36)</f>
-        <v>0.1</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="17">
-        <f>AVERAGE(P7:P36)</f>
-        <v>0.62484762394342441</v>
-      </c>
-      <c r="Q38" s="17">
-        <f>AVERAGE(Q7:Q36)</f>
-        <v>0.40418398295751451</v>
-      </c>
-      <c r="R38" s="17">
-        <f>AVERAGE(R7:R36)</f>
-        <v>0.25789012437565523</v>
-      </c>
-      <c r="S38" s="24">
-        <f>COUNTIF(S7:S36,"=0")/COUNTA(S7:S36)</f>
+      <c r="K40" s="22">
+        <f>COUNTIF(K3:K37,"=0")/COUNTA(K3:K37)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L40" s="22">
+        <f>COUNTIF(L3:L37,"=0")/COUNTA(L3:L37)</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="M40" s="33">
+        <f>AVERAGE(M3:M37)</f>
+        <v>37376.857142857145</v>
+      </c>
+      <c r="N40" s="33">
+        <f t="shared" ref="N40:O40" si="16">AVERAGE(N3:N37)</f>
+        <v>44998.228571428568</v>
+      </c>
+      <c r="O40" s="33">
+        <f t="shared" si="16"/>
+        <v>158099.6</v>
+      </c>
+      <c r="P40" s="15">
+        <f>AVERAGE(P3:P37)</f>
+        <v>0.63515232500464069</v>
+      </c>
+      <c r="Q40" s="15">
+        <f>AVERAGE(Q3:Q37)</f>
+        <v>0.46240650224662999</v>
+      </c>
+      <c r="R40" s="15">
+        <f>AVERAGE(R3:R37)</f>
+        <v>0.26289404053450338</v>
+      </c>
+      <c r="S40" s="22">
+        <f>COUNTIF(S3:S37,"=0")/COUNTA(S3:S37)</f>
         <v>1</v>
       </c>
-      <c r="T38" s="24">
-        <f>COUNTIF(T7:T36,"=0")/COUNTA(T7:T36)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U38" s="24">
-        <f>COUNTIF(U7:U36,"=0")/COUNTA(U7:U36)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V38" s="24">
-        <f>COUNTIF(V7:V36,"=0")/COUNTA(V7:V36)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="17">
-        <f>AVERAGE(Z7:Z36)</f>
-        <v>0.79419517223497982</v>
-      </c>
-      <c r="AA38" s="17">
-        <f>AVERAGE(AA7:AA36)</f>
-        <v>0.45878441723316876</v>
-      </c>
-      <c r="AB38" s="26">
-        <f>AVERAGE(AB7:AB36)</f>
-        <v>0.35730434911813835</v>
-      </c>
-      <c r="AC38" s="27"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="25">
-        <f>COUNTIF(B3:B36,"=0")/COUNTA(B3:B36)</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="C39" s="25">
-        <f>COUNTIF(C3:C36,"=0")/COUNTA(C3:C36)</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="D39" s="25">
-        <f>COUNTIF(D3:D36,"=0")/COUNTA(D3:D36)</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="E39" s="25">
-        <f>COUNTIF(E3:E36,"=0")/COUNTA(E3:E36)</f>
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="25">
-        <f>COUNTIF(I3:I36,"=0")/COUNTA(I3:I36)</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="J39" s="25">
-        <f>COUNTIF(J3:J36,"=0")/COUNTA(J3:J36)</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="K39" s="25">
-        <f>COUNTIF(K3:K36,"=0")/COUNTA(K3:K36)</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="L39" s="25">
-        <f>COUNTIF(L3:L36,"=0")/COUNTA(L3:L36)</f>
-        <v>0.14705882352941177</v>
-      </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="18">
-        <f>AVERAGE(P3:P36)</f>
-        <v>0.63417640461505398</v>
-      </c>
-      <c r="Q39" s="18">
-        <f>AVERAGE(Q3:Q36)</f>
-        <v>0.44566138833565827</v>
-      </c>
-      <c r="R39" s="18">
-        <f>AVERAGE(R3:R36)</f>
-        <v>0.24509575153092189</v>
-      </c>
-      <c r="S39" s="25">
-        <f>COUNTIF(S3:S36,"=0")/COUNTA(S3:S36)</f>
-        <v>1</v>
-      </c>
-      <c r="T39" s="25">
-        <f>COUNTIF(T3:T36,"=0")/COUNTA(T3:T36)</f>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="U39" s="25">
-        <f>COUNTIF(U3:U36,"=0")/COUNTA(U3:U36)</f>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="V39" s="25">
-        <f>COUNTIF(V3:V36,"=0")/COUNTA(V3:V36)</f>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="18">
-        <f>AVERAGE(Z3:Z36)</f>
-        <v>0.85798389915496631</v>
-      </c>
-      <c r="AA39" s="19">
-        <f>AVERAGE(AA3:AA36)</f>
-        <v>0.50751234239221621</v>
-      </c>
-      <c r="AB39" s="19">
-        <f>AVERAGE(AB3:AB36)</f>
-        <v>0.39146082857307762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="T40" s="22">
+        <f>COUNTIF(T3:T37,"=0")/COUNTA(T3:T37)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="U40" s="22">
+        <f>COUNTIF(U3:U37,"=0")/COUNTA(U3:U37)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V40" s="22">
+        <f>COUNTIF(V3:V37,"=0")/COUNTA(V3:V37)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W40" s="33">
+        <f>AVERAGE(W3:W37)</f>
+        <v>24140.771428571428</v>
+      </c>
+      <c r="X40" s="33">
+        <f t="shared" ref="X40:Y40" si="17">AVERAGE(X3:X37)</f>
+        <v>40189.62857142857</v>
+      </c>
+      <c r="Y40" s="33">
+        <f t="shared" si="17"/>
+        <v>65627.085714285713</v>
+      </c>
+      <c r="Z40" s="15">
+        <f>AVERAGE(Z3:Z37)</f>
+        <v>0.86376747546692756</v>
+      </c>
+      <c r="AA40" s="16">
+        <f>AVERAGE(AA3:AA37)</f>
+        <v>0.52174899015869147</v>
+      </c>
+      <c r="AB40" s="16">
+        <f>AVERAGE(AB3:AB37)</f>
+        <v>0.42956049888419706</v>
+      </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4706,8 +4869,8 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:V1"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z3:AB39 P3:R39">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="P3:R40 Z3:AB40">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4720,8 +4883,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:E7 B18:E19 B26:E26 I3:L7 I18:L19 I26:L26 S3:V7 S18:V19 S26:V26">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="B3:E7 B19:E20 B27:E27 I3:L7 I19:L20 I27:L27 S3:V7 S19:V20 S27:V27">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4732,8 +4895,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:E25 I20:L25 S20:V25 I27:L36 S27:V36 B27:E36 S9:V17 I9:L17 B9:E17">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="B21:E26 I21:L26 S21:V26 I28:L37 S28:V37 B28:E37 S9:V18 I9:L18 B9:E18">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4744,8 +4907,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:E39 I37:L39 S37:V39">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="B38:E40 I38:L40 S38:V40">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4759,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:E8 I8:L8 S8:V8">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4773,8 +4936,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F39:G39 B37:E37 M39:N39 M37:N37 P39:Q39 P37:Q37 F38:G38 B38:E38 M38:N38 I38:L38 S38:V38 F37:G37 I37:L37 S37:V37" formulaRange="1"/>
-    <ignoredError sqref="R15 AB15 AB3:AB6 R3:R6 AB9:AB13 R9:R13 R16:R36 AB16:AB36" evalError="1"/>
+    <ignoredError sqref="B38:H38 P40:Q40 P38:Q38 F39 B39:E39 I39:L39 S39:V39 I38:L38 S38:V38 M38:O39 W38:Y39 G39:H39" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4792,7 +4954,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:AB39 P3:R39</xm:sqref>
+          <xm:sqref>P3:R40 Z3:AB40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D4AEBDF6-16F3-4574-8AF5-06B7A23DFE16}">
@@ -4807,7 +4969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B37:E39 I37:L39 S37:V39</xm:sqref>
+          <xm:sqref>B38:E40 I38:L40 S38:V40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +207,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -441,11 +453,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -492,8 +505,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -979,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <v>45052</v>
+        <v>43513</v>
       </c>
       <c r="G3" s="30">
-        <v>57291</v>
+        <v>57380</v>
       </c>
       <c r="H3" s="30">
         <v>69936</v>
@@ -1010,11 +1025,11 @@
       </c>
       <c r="P3" s="6">
         <f>F3/M3</f>
-        <v>0.43961748633879782</v>
+        <v>0.4245999219359875</v>
       </c>
       <c r="Q3" s="6">
         <f>G3/N3</f>
-        <v>0.51943424452604381</v>
+        <v>0.52024117140396209</v>
       </c>
       <c r="R3" s="6">
         <f>H3/O3</f>
@@ -1043,11 +1058,11 @@
       </c>
       <c r="Z3" s="6">
         <f>F3/W3</f>
-        <v>0.8068340556610194</v>
+        <v>0.77927218023568179</v>
       </c>
       <c r="AA3" s="7">
         <f>G3/X3</f>
-        <v>0.59897123859109869</v>
+        <v>0.59990172401175135</v>
       </c>
       <c r="AB3" s="7">
         <f>H3/Y3</f>
@@ -1071,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="31">
-        <v>36200</v>
+        <v>35043</v>
       </c>
       <c r="G4" s="31">
-        <v>57613</v>
+        <v>57116</v>
       </c>
       <c r="H4" s="31">
         <v>69492</v>
@@ -1102,11 +1117,11 @@
       </c>
       <c r="P4" s="6">
         <f t="shared" ref="P4:P37" si="0">F4/M4</f>
-        <v>0.35392692679969889</v>
+        <v>0.34261495292380795</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q37" si="1">G4/N4</f>
-        <v>0.51877898338661022</v>
+        <v>0.51430372338030705</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ref="R4:R37" si="2">H4/O4</f>
@@ -1135,11 +1150,11 @@
       </c>
       <c r="Z4" s="6">
         <f t="shared" ref="Z4:Z37" si="3">F4/W4</f>
-        <v>0.78994457294985376</v>
+        <v>0.76469689695805876</v>
       </c>
       <c r="AA4" s="7">
         <f t="shared" ref="AA4:AA37" si="4">G4/X4</f>
-        <v>0.60404915179601171</v>
+        <v>0.59883830652771075</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" ref="AB4:AB37" si="5">H4/Y4</f>
@@ -1163,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="31">
-        <v>80535</v>
+        <v>78428</v>
       </c>
       <c r="G5" s="31">
-        <v>92418</v>
+        <v>92022</v>
       </c>
       <c r="H5" s="31">
         <v>129255</v>
@@ -1194,11 +1209,11 @@
       </c>
       <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>1.0185021246458923</v>
+        <v>0.99185552407932009</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>1.1249634823254455</v>
+        <v>1.1201431492842535</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" si="2"/>
@@ -1227,11 +1242,11 @@
       </c>
       <c r="Z5" s="6">
         <f t="shared" si="3"/>
-        <v>1.6632246339398196</v>
+        <v>1.6197104562070177</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="4"/>
-        <v>1.1982729559422245</v>
+        <v>1.1931385006353241</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="5"/>
@@ -1255,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="31">
-        <v>67406</v>
+        <v>65079</v>
       </c>
       <c r="G6" s="31">
-        <v>77231</v>
+        <v>76909</v>
       </c>
       <c r="H6" s="31">
         <v>115168</v>
@@ -1286,11 +1301,11 @@
       </c>
       <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>0.95299090921943708</v>
+        <v>0.92009161470925049</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>1.0396160887357313</v>
+        <v>1.0352816067197932</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="2"/>
@@ -1319,11 +1334,11 @@
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="3"/>
-        <v>1.9536838444148166</v>
+        <v>1.8862384789287578</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="4"/>
-        <v>1.1628547767823534</v>
+        <v>1.1580064744410148</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="5"/>
@@ -1347,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="31">
-        <v>53858</v>
+        <v>52088</v>
       </c>
       <c r="G7" s="31">
-        <v>75471</v>
+        <v>76683</v>
       </c>
       <c r="H7" s="31">
         <v>98482</v>
@@ -1378,11 +1393,11 @@
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>0.61488754424021008</v>
+        <v>0.5946797579632378</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0.76741844952411942</v>
+        <v>0.77974253640283087</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="2"/>
@@ -1411,11 +1426,11 @@
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="3"/>
-        <v>0.90726546838940081</v>
+        <v>0.87744891599144248</v>
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="4"/>
-        <v>0.83105942981731695</v>
+        <v>0.84440553665224138</v>
       </c>
       <c r="AB7" s="7">
         <f t="shared" si="5"/>
@@ -1439,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="31">
-        <v>43846</v>
+        <v>42537</v>
       </c>
       <c r="G8" s="31">
-        <v>49869</v>
+        <v>50910</v>
       </c>
       <c r="H8" s="31">
         <v>67064</v>
@@ -1470,11 +1485,11 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>0.50724788579229285</v>
+        <v>0.49210425849442962</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>0.52059127493658197</v>
+        <v>0.53145845729855001</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="2"/>
@@ -1503,11 +1518,11 @@
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="3"/>
-        <v>1.1572529560810811</v>
+        <v>1.1227037584459461</v>
       </c>
       <c r="AA8" s="7">
         <f t="shared" si="4"/>
-        <v>0.66141011697923024</v>
+        <v>0.67521684925329584</v>
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="5"/>
@@ -1531,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="31">
-        <v>13410</v>
+        <v>13047</v>
       </c>
       <c r="G9" s="31">
-        <v>14461</v>
+        <v>14418</v>
       </c>
       <c r="H9" s="31">
         <v>16790</v>
@@ -1562,11 +1577,11 @@
       </c>
       <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>0.44477611940298506</v>
+        <v>0.43273631840796017</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>0.50722553490003508</v>
+        <v>0.50571729217818306</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="2"/>
@@ -1595,11 +1610,11 @@
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="3"/>
-        <v>0.55037964293043296</v>
+        <v>0.5354812230658732</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" si="4"/>
-        <v>0.51122423728214372</v>
+        <v>0.5097041043588928</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="5"/>
@@ -1623,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="31">
-        <v>14089</v>
+        <v>13691</v>
       </c>
       <c r="G10" s="31">
-        <v>13738</v>
+        <v>13767</v>
       </c>
       <c r="H10" s="31">
         <v>15499</v>
@@ -1654,11 +1669,11 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>1.789079365079365</v>
+        <v>1.7385396825396826</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>0.96440856440856437</v>
+        <v>0.96644436644436649</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="2"/>
@@ -1687,11 +1702,11 @@
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="3"/>
-        <v>1.5882087701499268</v>
+        <v>1.5433434787509863</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="4"/>
-        <v>0.95026630697931802</v>
+        <v>0.95227225565470019</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="5"/>
@@ -1715,10 +1730,10 @@
         <v>310</v>
       </c>
       <c r="F11" s="31">
-        <v>11714</v>
+        <v>11405</v>
       </c>
       <c r="G11" s="31">
-        <v>11783</v>
+        <v>11768</v>
       </c>
       <c r="H11" s="31">
         <v>13395</v>
@@ -1746,11 +1761,11 @@
       </c>
       <c r="P11" s="6">
         <f t="shared" si="0"/>
-        <v>0.88108311395261374</v>
+        <v>0.8578412937194434</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>0.46090357911206725</v>
+        <v>0.46031683942890672</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="2"/>
@@ -1779,11 +1794,11 @@
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="3"/>
-        <v>0.81009681881051177</v>
+        <v>0.7887275242047026</v>
       </c>
       <c r="AA11" s="7">
         <f t="shared" si="4"/>
-        <v>0.46070534876446667</v>
+        <v>0.46011886143259306</v>
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="5"/>
@@ -1807,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="31">
-        <v>9149</v>
+        <v>8923</v>
       </c>
       <c r="G12" s="31">
-        <v>9782</v>
+        <v>9771</v>
       </c>
       <c r="H12" s="31">
         <v>10793</v>
@@ -1838,11 +1853,11 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" si="0"/>
-        <v>0.21273775752220619</v>
+        <v>0.20748267683579036</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>0.17236396955173386</v>
+        <v>0.172170143783479</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="2"/>
@@ -1871,11 +1886,11 @@
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="3"/>
-        <v>0.29705509919153217</v>
+        <v>0.28971719861034451</v>
       </c>
       <c r="AA12" s="7">
         <f t="shared" si="4"/>
-        <v>0.19454277872797424</v>
+        <v>0.19432401256911022</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="5"/>
@@ -1899,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="31">
-        <v>9004</v>
+        <v>8688</v>
       </c>
       <c r="G13" s="31">
-        <v>9236</v>
+        <v>9289</v>
       </c>
       <c r="H13" s="31">
         <v>11182</v>
@@ -1930,11 +1945,11 @@
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
-        <v>0.21133669757070767</v>
+        <v>0.20391972773148692</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>0.17409334238106008</v>
+        <v>0.17509236221066124</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="2"/>
@@ -1963,11 +1978,11 @@
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="3"/>
-        <v>0.29838282078472961</v>
+        <v>0.28791092258748674</v>
       </c>
       <c r="AA13" s="7">
         <f t="shared" si="4"/>
-        <v>0.19390732926035564</v>
+        <v>0.19502004996745817</v>
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="5"/>
@@ -1991,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="31">
-        <v>5973</v>
+        <v>5795</v>
       </c>
       <c r="G14" s="31">
-        <v>9905</v>
+        <v>9930</v>
       </c>
       <c r="H14" s="31">
         <v>10845</v>
@@ -2022,11 +2037,11 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" si="0"/>
-        <v>0.32057750107342209</v>
+        <v>0.31102404465435807</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>0.36832515246169867</v>
+        <v>0.36925479696564034</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="2"/>
@@ -2055,11 +2070,11 @@
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="3"/>
-        <v>0.36790883892824144</v>
+        <v>0.3569448721897136</v>
       </c>
       <c r="AA14" s="7">
         <f t="shared" si="4"/>
-        <v>0.28126419809177644</v>
+        <v>0.28197410268059975</v>
       </c>
       <c r="AB14" s="7">
         <f t="shared" si="5"/>
@@ -2083,10 +2098,10 @@
         <v>868</v>
       </c>
       <c r="F15" s="31">
-        <v>7319</v>
+        <v>7093</v>
       </c>
       <c r="G15" s="31">
-        <v>8237</v>
+        <v>8216</v>
       </c>
       <c r="H15" s="31">
         <v>9356</v>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="P15" s="6">
         <f t="shared" si="0"/>
-        <v>0.27172823463894563</v>
+        <v>0.26333766474846854</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>0.22229718788794733</v>
+        <v>0.22173044745506559</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="2"/>
@@ -2147,11 +2162,11 @@
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="3"/>
-        <v>0.31459273586933162</v>
+        <v>0.30487857296367937</v>
       </c>
       <c r="AA15" s="7">
         <f t="shared" si="4"/>
-        <v>0.25305683563748083</v>
+        <v>0.25241167434715822</v>
       </c>
       <c r="AB15" s="7">
         <f t="shared" si="5"/>
@@ -2175,10 +2190,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="31">
-        <v>22297</v>
+        <v>21223</v>
       </c>
       <c r="G16" s="31">
-        <v>21646</v>
+        <v>21779</v>
       </c>
       <c r="H16" s="31">
         <v>24463</v>
@@ -2206,11 +2221,11 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
-        <v>0.28895598983982168</v>
+        <v>0.27503758229226066</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>0.25091575091575091</v>
+        <v>0.25245745815366066</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="2"/>
@@ -2239,11 +2254,11 @@
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="3"/>
-        <v>0.47673722471669872</v>
+        <v>0.45377378661535173</v>
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="4"/>
-        <v>0.27497110046874407</v>
+        <v>0.27666061152678445</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="5"/>
@@ -2255,24 +2270,24 @@
         <v>50</v>
       </c>
       <c r="B17" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F17" s="31">
-        <v>46102</v>
+        <v>44739</v>
       </c>
       <c r="G17" s="31">
-        <v>48005</v>
-      </c>
-      <c r="H17" s="31">
+        <v>48418</v>
+      </c>
+      <c r="H17" s="36">
         <v>75106</v>
       </c>
       <c r="I17" s="2">
@@ -2298,11 +2313,11 @@
       </c>
       <c r="P17" s="6">
         <f t="shared" si="0"/>
-        <v>0.66604062527088326</v>
+        <v>0.64634921552197411</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0.63584465813663937</v>
+        <v>0.64131500172189992</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="2"/>
@@ -2331,11 +2346,11 @@
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="3"/>
-        <v>1.2747684225079496</v>
+        <v>1.2370800497718788</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="4"/>
-        <v>0.72509629182085944</v>
+        <v>0.73133449135261686</v>
       </c>
       <c r="AB17" s="7">
         <f t="shared" si="5"/>
@@ -2359,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="31">
-        <v>4940</v>
+        <v>4723</v>
       </c>
       <c r="G18" s="31">
-        <v>4756</v>
+        <v>4742</v>
       </c>
       <c r="H18" s="31">
         <v>5298</v>
@@ -2390,11 +2405,11 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" si="0"/>
-        <v>0.36725893985577279</v>
+        <v>0.35112631031150099</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>0.23434343434343435</v>
+        <v>0.23365360926336537</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="3"/>
-        <v>0.48308233913553689</v>
+        <v>0.46186192059456288</v>
       </c>
       <c r="AA18" s="7">
         <f t="shared" si="4"/>
-        <v>0.34322003319621852</v>
+        <v>0.34220971350220103</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="5"/>
@@ -2451,10 +2466,10 @@
         <v>13016</v>
       </c>
       <c r="F19" s="31">
-        <v>8531</v>
+        <v>8258</v>
       </c>
       <c r="G19" s="31">
-        <v>8456</v>
+        <v>8657</v>
       </c>
       <c r="H19" s="31">
         <v>10277</v>
@@ -2482,11 +2497,11 @@
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>0.54759612298607097</v>
+        <v>0.53007253353873807</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>0.56595944046583224</v>
+        <v>0.57941235526403856</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="2"/>
@@ -2515,11 +2530,11 @@
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="3"/>
-        <v>0.6135644418872267</v>
+        <v>0.59392980437284237</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="4"/>
-        <v>0.6937402576093199</v>
+        <v>0.71023053572893591</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="5"/>
@@ -2543,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="31">
-        <v>17201</v>
+        <v>16638</v>
       </c>
       <c r="G20" s="31">
-        <v>17213</v>
+        <v>16706</v>
       </c>
       <c r="H20" s="31">
         <v>20018</v>
@@ -2574,11 +2589,11 @@
       </c>
       <c r="P20" s="6">
         <f t="shared" si="0"/>
-        <v>0.35831684199562547</v>
+        <v>0.34658889698989687</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0.30071628232005593</v>
+        <v>0.29185883997204753</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="2"/>
@@ -2607,11 +2622,11 @@
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="3"/>
-        <v>2.0436022335749078</v>
+        <v>1.9767137935131283</v>
       </c>
       <c r="AA20" s="7">
         <f t="shared" si="4"/>
-        <v>0.36703840330938015</v>
+        <v>0.35622747723734993</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="5"/>
@@ -2635,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="31">
-        <v>14021</v>
+        <v>13569</v>
       </c>
       <c r="G21" s="31">
-        <v>14385</v>
+        <v>14358</v>
       </c>
       <c r="H21" s="31">
         <v>21553</v>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" si="0"/>
-        <v>0.36063170349031609</v>
+        <v>0.34900589006918903</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>0.41356409740390421</v>
+        <v>0.41278785613661845</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="2"/>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="3"/>
-        <v>0.48109387867142467</v>
+        <v>0.46558468295360966</v>
       </c>
       <c r="AA21" s="7">
         <f t="shared" si="4"/>
-        <v>0.37257187257187258</v>
+        <v>0.37187257187257189</v>
       </c>
       <c r="AB21" s="7">
         <f t="shared" si="5"/>
@@ -2727,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="31">
-        <v>13818</v>
+        <v>13395</v>
       </c>
       <c r="G22" s="31">
-        <v>14817</v>
+        <v>14738</v>
       </c>
       <c r="H22" s="31">
         <v>21515</v>
@@ -2758,11 +2773,11 @@
       </c>
       <c r="P22" s="6">
         <f t="shared" si="0"/>
-        <v>0.34830611010284329</v>
+        <v>0.33764367816091956</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>0.37368540516002119</v>
+        <v>0.37169302161357848</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="2"/>
@@ -2791,11 +2806,11 @@
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="3"/>
-        <v>0.47145927871984716</v>
+        <v>0.45702685182025998</v>
       </c>
       <c r="AA22" s="7">
         <f t="shared" si="4"/>
-        <v>0.37842876845277623</v>
+        <v>0.37641109465188743</v>
       </c>
       <c r="AB22" s="7">
         <f t="shared" si="5"/>
@@ -2819,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="31">
-        <v>10899</v>
+        <v>10523</v>
       </c>
       <c r="G23" s="31">
-        <v>12309</v>
+        <v>12292</v>
       </c>
       <c r="H23" s="31">
         <v>17491</v>
@@ -2850,11 +2865,11 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>0.37928034521158127</v>
+        <v>0.3661957126948775</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>0.30961364322366436</v>
+        <v>0.30918603481235535</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="2"/>
@@ -2883,11 +2898,11 @@
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="3"/>
-        <v>0.47356072126873777</v>
+        <v>0.45722354985878777</v>
       </c>
       <c r="AA23" s="7">
         <f t="shared" si="4"/>
-        <v>0.41149333065891086</v>
+        <v>0.41092501587938357</v>
       </c>
       <c r="AB23" s="7">
         <f t="shared" si="5"/>
@@ -2911,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="31">
-        <v>19691</v>
+        <v>18897</v>
       </c>
       <c r="G24" s="31">
-        <v>20547</v>
+        <v>20587</v>
       </c>
       <c r="H24" s="29">
         <v>25738</v>
@@ -2942,11 +2957,11 @@
       </c>
       <c r="P24" s="6">
         <f t="shared" si="0"/>
-        <v>0.45123516201475777</v>
+        <v>0.4330400109995875</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>0.47033374536464773</v>
+        <v>0.47124937050771415</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="2"/>
@@ -2975,11 +2990,11 @@
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="3"/>
-        <v>0.6041481299665572</v>
+        <v>0.57978707084343262</v>
       </c>
       <c r="AA24" s="7">
         <f t="shared" si="4"/>
-        <v>0.53820363045812925</v>
+        <v>0.53925138172197917</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" si="5"/>
@@ -3003,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="31">
-        <v>7922</v>
+        <v>7718</v>
       </c>
       <c r="G25" s="31">
-        <v>8110</v>
+        <v>8151</v>
       </c>
       <c r="H25" s="31">
         <v>11328</v>
@@ -3034,11 +3049,11 @@
       </c>
       <c r="P25" s="6">
         <f t="shared" si="0"/>
-        <v>0.1813063578523367</v>
+        <v>0.17663752460292031</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>0.18543076641668191</v>
+        <v>0.18636820925553321</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="2"/>
@@ -3067,11 +3082,11 @@
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="3"/>
-        <v>0.25000788967084292</v>
+        <v>0.24356991826301005</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="4"/>
-        <v>0.21109896402727887</v>
+        <v>0.21216617210682492</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="5"/>
@@ -3095,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="31">
-        <v>15880</v>
+        <v>15398</v>
       </c>
       <c r="G26" s="31">
-        <v>17764</v>
+        <v>17855</v>
       </c>
       <c r="H26" s="31">
         <v>25556</v>
@@ -3126,11 +3141,11 @@
       </c>
       <c r="P26" s="6">
         <f t="shared" si="0"/>
-        <v>0.48711656441717793</v>
+        <v>0.47233128834355831</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>0.47286182021454998</v>
+        <v>0.47528415896930815</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="2"/>
@@ -3159,11 +3174,11 @@
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="3"/>
-        <v>0.67216931216931219</v>
+        <v>0.65176719576719577</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="4"/>
-        <v>0.52865900839235758</v>
+        <v>0.53136718052496879</v>
       </c>
       <c r="AB26" s="7">
         <f t="shared" si="5"/>
@@ -3187,10 +3202,10 @@
         <v>913439</v>
       </c>
       <c r="F27" s="31">
-        <v>12823</v>
+        <v>12472</v>
       </c>
       <c r="G27" s="31">
-        <v>14028</v>
+        <v>13820</v>
       </c>
       <c r="H27" s="31">
         <v>20918</v>
@@ -3218,11 +3233,11 @@
       </c>
       <c r="P27" s="6">
         <f t="shared" si="0"/>
-        <v>1.0408279220779222</v>
+        <v>1.0123376623376623</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>0.49762327066335582</v>
+        <v>0.49024476764810215</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="2"/>
@@ -3251,11 +3266,11 @@
       </c>
       <c r="Z27" s="6">
         <f t="shared" si="3"/>
-        <v>1.0958892402358773</v>
+        <v>1.065891804119306</v>
       </c>
       <c r="AA27" s="7">
         <f t="shared" si="4"/>
-        <v>0.67055449330783934</v>
+        <v>0.66061185468451245</v>
       </c>
       <c r="AB27" s="7">
         <f t="shared" si="5"/>
@@ -3279,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="31">
-        <v>10233</v>
+        <v>9999</v>
       </c>
       <c r="G28" s="31">
-        <v>10833</v>
+        <v>10934</v>
       </c>
       <c r="H28" s="31">
         <v>12236</v>
@@ -3310,11 +3325,11 @@
       </c>
       <c r="P28" s="6">
         <f t="shared" si="0"/>
-        <v>1.649153908138598</v>
+        <v>1.6114423851732473</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>0.5308472582937227</v>
+        <v>0.535796540402803</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="2"/>
@@ -3343,11 +3358,11 @@
       </c>
       <c r="Z28" s="6">
         <f t="shared" si="3"/>
-        <v>1.6734260016353231</v>
+        <v>1.635159443990188</v>
       </c>
       <c r="AA28" s="7">
         <f t="shared" si="4"/>
-        <v>0.50062387356162485</v>
+        <v>0.50529137205970698</v>
       </c>
       <c r="AB28" s="7">
         <f t="shared" si="5"/>
@@ -3371,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="31">
-        <v>8791</v>
+        <v>8572</v>
       </c>
       <c r="G29" s="31">
-        <v>9778</v>
+        <v>9797</v>
       </c>
       <c r="H29" s="31">
         <v>11075</v>
@@ -3402,11 +3417,11 @@
       </c>
       <c r="P29" s="6">
         <f t="shared" si="0"/>
-        <v>1.4128897460623593</v>
+        <v>1.3776920604307297</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>0.48931591853075113</v>
+        <v>0.49026672671771004</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="2"/>
@@ -3435,11 +3450,11 @@
       </c>
       <c r="Z29" s="6">
         <f t="shared" si="3"/>
-        <v>1.436672658931198</v>
+        <v>1.4008824971400555</v>
       </c>
       <c r="AA29" s="7">
         <f t="shared" si="4"/>
-        <v>0.44795675279457575</v>
+        <v>0.44882719442917351</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" si="5"/>
@@ -3463,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="31">
-        <v>21931</v>
+        <v>21363</v>
       </c>
       <c r="G30" s="31">
-        <v>24149</v>
+        <v>24500</v>
       </c>
       <c r="H30" s="29">
         <v>27794</v>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="P30" s="6">
         <f t="shared" si="0"/>
-        <v>1.6452363090772693</v>
+        <v>1.6026256564141035</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>0.6265632297234186</v>
+        <v>0.6356701779876498</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="2"/>
@@ -3527,11 +3542,11 @@
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="3"/>
-        <v>1.7390373483466814</v>
+        <v>1.6939973039410039</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="4"/>
-        <v>0.62124408314467994</v>
+        <v>0.63027371887219596</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="5"/>
@@ -3555,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="31">
-        <v>7798</v>
+        <v>7655</v>
       </c>
       <c r="G31" s="31">
-        <v>7962</v>
+        <v>8143</v>
       </c>
       <c r="H31" s="31">
         <v>9296</v>
@@ -3586,11 +3601,11 @@
       </c>
       <c r="P31" s="6">
         <f t="shared" si="0"/>
-        <v>0.50531363400725759</v>
+        <v>0.49604717470191811</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>0.37338210467079347</v>
+        <v>0.3818701932095292</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="2"/>
@@ -3619,11 +3634,11 @@
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="3"/>
-        <v>0.51289134438305706</v>
+        <v>0.503485924756643</v>
       </c>
       <c r="AA31" s="7">
         <f t="shared" si="4"/>
-        <v>0.4266881028938907</v>
+        <v>0.43638799571275455</v>
       </c>
       <c r="AB31" s="7">
         <f t="shared" si="5"/>
@@ -3647,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="31">
-        <v>5359</v>
+        <v>5191</v>
       </c>
       <c r="G32" s="31">
-        <v>6079</v>
+        <v>6208</v>
       </c>
       <c r="H32" s="31">
         <v>6770</v>
@@ -3678,11 +3693,11 @@
       </c>
       <c r="P32" s="6">
         <f t="shared" si="0"/>
-        <v>0.30211974292479421</v>
+        <v>0.29264855113316046</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>0.21368062146296882</v>
+        <v>0.2182150514956589</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="2"/>
@@ -3711,11 +3726,11 @@
       </c>
       <c r="Z32" s="6">
         <f t="shared" si="3"/>
-        <v>0.29516413306895795</v>
+        <v>0.28591099361092753</v>
       </c>
       <c r="AA32" s="7">
         <f t="shared" si="4"/>
-        <v>0.24458839623400661</v>
+        <v>0.24977870765269172</v>
       </c>
       <c r="AB32" s="7">
         <f t="shared" si="5"/>
@@ -3739,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="31">
-        <v>19021</v>
+        <v>18411</v>
       </c>
       <c r="G33" s="31">
-        <v>21802</v>
+        <v>21568</v>
       </c>
       <c r="H33" s="29">
         <v>25070</v>
@@ -3770,11 +3785,11 @@
       </c>
       <c r="P33" s="6">
         <f t="shared" si="0"/>
-        <v>1.0482199933869722</v>
+        <v>1.0146037694257688</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>0.85220654340773172</v>
+        <v>0.84305984442794046</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="2"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="Z33" s="6">
         <f t="shared" si="3"/>
-        <v>1.1344307270233196</v>
+        <v>1.0980497405618179</v>
       </c>
       <c r="AA33" s="7">
         <f t="shared" si="4"/>
-        <v>0.99398194583751254</v>
+        <v>0.98331357709492118</v>
       </c>
       <c r="AB33" s="7">
         <f t="shared" si="5"/>
@@ -3831,10 +3846,10 @@
         <v>153</v>
       </c>
       <c r="F34" s="31">
-        <v>11821</v>
+        <v>11543</v>
       </c>
       <c r="G34" s="31">
-        <v>8711</v>
+        <v>8690</v>
       </c>
       <c r="H34" s="31">
         <v>10845</v>
@@ -3862,11 +3877,11 @@
       </c>
       <c r="P34" s="6">
         <f t="shared" si="0"/>
-        <v>0.38712952349762569</v>
+        <v>0.37802521696413949</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>0.22819794095302962</v>
+        <v>0.22764781389987687</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="2"/>
@@ -3895,11 +3910,11 @@
       </c>
       <c r="Z34" s="6">
         <f t="shared" si="3"/>
-        <v>0.53527440681036043</v>
+        <v>0.52268610758920486</v>
       </c>
       <c r="AA34" s="7">
         <f t="shared" si="4"/>
-        <v>0.25844830143895564</v>
+        <v>0.25782524847945409</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" si="5"/>
@@ -3923,10 +3938,10 @@
         <v>185</v>
       </c>
       <c r="F35" s="31">
-        <v>12811</v>
+        <v>12479</v>
       </c>
       <c r="G35" s="31">
-        <v>8893</v>
+        <v>8852</v>
       </c>
       <c r="H35" s="31">
         <v>10951</v>
@@ -3954,11 +3969,11 @@
       </c>
       <c r="P35" s="6">
         <f t="shared" si="0"/>
-        <v>0.99387121799844846</v>
+        <v>0.96811481768813035</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>0.37031022277743075</v>
+        <v>0.36860295648552988</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="2"/>
@@ -3987,11 +4002,11 @@
       </c>
       <c r="Z35" s="6">
         <f t="shared" si="3"/>
-        <v>1.0590228982392329</v>
+        <v>1.0315780772092253</v>
       </c>
       <c r="AA35" s="7">
         <f t="shared" si="4"/>
-        <v>0.42383948146029932</v>
+        <v>0.42188542560289771</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="5"/>
@@ -4015,10 +4030,10 @@
         <v>16</v>
       </c>
       <c r="F36" s="31">
-        <v>2596</v>
+        <v>2529</v>
       </c>
       <c r="G36" s="31">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="H36" s="31">
         <v>2558</v>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="P36" s="6">
         <f t="shared" si="0"/>
-        <v>0.3708041708327382</v>
+        <v>0.36123410941294098</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="1"/>
-        <v>0.19768083931529543</v>
+        <v>0.19786489968709736</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" si="2"/>
@@ -4079,11 +4094,11 @@
       </c>
       <c r="Z36" s="6">
         <f t="shared" si="3"/>
-        <v>0.40530835284933647</v>
+        <v>0.39484777517564401</v>
       </c>
       <c r="AA36" s="7">
         <f t="shared" si="4"/>
-        <v>0.24840985312825256</v>
+        <v>0.24864114721868857</v>
       </c>
       <c r="AB36" s="7">
         <f t="shared" si="5"/>
@@ -4107,10 +4122,10 @@
         <v>56</v>
       </c>
       <c r="F37" s="32">
-        <v>2792</v>
+        <v>2727</v>
       </c>
       <c r="G37" s="32">
-        <v>2766</v>
+        <v>2785</v>
       </c>
       <c r="H37" s="32">
         <v>3399</v>
@@ -4138,11 +4153,11 @@
       </c>
       <c r="P37" s="10">
         <f t="shared" si="0"/>
-        <v>0.42022877784467189</v>
+        <v>0.41044551475015051</v>
       </c>
       <c r="Q37" s="10">
         <f t="shared" si="1"/>
-        <v>0.23073073073073072</v>
+        <v>0.23231564898231566</v>
       </c>
       <c r="R37" s="10">
         <f t="shared" si="2"/>
@@ -4171,11 +4186,11 @@
       </c>
       <c r="Z37" s="10">
         <f t="shared" si="3"/>
-        <v>0.99572039942938662</v>
+        <v>0.97253922967189732</v>
       </c>
       <c r="AA37" s="11">
         <f t="shared" si="4"/>
-        <v>0.67877300613496927</v>
+        <v>0.68343558282208594</v>
       </c>
       <c r="AB37" s="11">
         <f t="shared" si="5"/>
@@ -4204,11 +4219,11 @@
       </c>
       <c r="F38" s="30">
         <f>AVERAGE(F3:F6)</f>
-        <v>57298.25</v>
+        <v>55515.75</v>
       </c>
       <c r="G38" s="30">
         <f t="shared" ref="G38:H38" si="7">AVERAGE(G3:G6)</f>
-        <v>71138.25</v>
+        <v>70856.75</v>
       </c>
       <c r="H38" s="30">
         <f t="shared" si="7"/>
@@ -4244,11 +4259,11 @@
       </c>
       <c r="P38" s="12">
         <f>AVERAGE(P3:P6)</f>
-        <v>0.69125936175095659</v>
+        <v>0.66979050341209145</v>
       </c>
       <c r="Q38" s="12">
         <f>AVERAGE(Q3:Q6)</f>
-        <v>0.80069819974345768</v>
+        <v>0.79749241269707905</v>
       </c>
       <c r="R38" s="12">
         <f>AVERAGE(R3:R6)</f>
@@ -4284,11 +4299,11 @@
       </c>
       <c r="Z38" s="12">
         <f>AVERAGE(Z3:Z6)</f>
-        <v>1.3034217767413772</v>
+        <v>1.262479503082379</v>
       </c>
       <c r="AA38" s="13">
         <f>AVERAGE(AA3:AA6)</f>
-        <v>0.89103703077792207</v>
+        <v>0.88747125140395022</v>
       </c>
       <c r="AB38" s="13">
         <f>AVERAGE(AB3:AB6)</f>
@@ -4301,27 +4316,27 @@
       </c>
       <c r="B39" s="21">
         <f>COUNTIF(B7:B37,"=0")/COUNTA(B7:B37)</f>
-        <v>0.70967741935483875</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="C39" s="21">
         <f>COUNTIF(C7:C37,"=0")/COUNTA(C7:C37)</f>
-        <v>0.70967741935483875</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="D39" s="21">
         <f>COUNTIF(D7:D37,"=0")/COUNTA(D7:D37)</f>
-        <v>0.70967741935483875</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="E39" s="21">
         <f>COUNTIF(E7:E37,"=0")/COUNTA(E7:E37)</f>
-        <v>0.70967741935483875</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="F39" s="31">
         <f>AVERAGE(F7:F37)</f>
-        <v>15020.645161290322</v>
+        <v>14557.709677419354</v>
       </c>
       <c r="G39" s="31">
         <f t="shared" ref="G39:H39" si="12">AVERAGE(G7:G37)</f>
-        <v>16375.451612903225</v>
+        <v>16467.16129032258</v>
       </c>
       <c r="H39" s="31">
         <f t="shared" si="12"/>
@@ -4357,11 +4372,11 @@
       </c>
       <c r="P39" s="14">
         <f>AVERAGE(P7:P37)</f>
-        <v>0.62791270735995464</v>
+        <v>0.61002938667910434</v>
       </c>
       <c r="Q39" s="14">
         <f>AVERAGE(Q7:Q37)</f>
-        <v>0.418755960634136</v>
+        <v>0.42028218641232301</v>
       </c>
       <c r="R39" s="14">
         <f>AVERAGE(R7:R37)</f>
@@ -4397,11 +4412,11 @@
       </c>
       <c r="Z39" s="14">
         <f>AVERAGE(Z7:Z37)</f>
-        <v>0.80703788820570832</v>
+        <v>0.78356464480484345</v>
       </c>
       <c r="AA39" s="14">
         <f>AVERAGE(AA7:AA37)</f>
-        <v>0.47409892040137158</v>
+        <v>0.47581856508550435</v>
       </c>
       <c r="AB39" s="23">
         <f>AVERAGE(AB7:AB37)</f>
@@ -4415,27 +4430,27 @@
       </c>
       <c r="B40" s="22">
         <f>COUNTIF(B3:B37,"=0")/COUNTA(B3:B37)</f>
-        <v>0.74285714285714288</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C40" s="22">
         <f>COUNTIF(C3:C37,"=0")/COUNTA(C3:C37)</f>
-        <v>0.74285714285714288</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="D40" s="22">
         <f>COUNTIF(D3:D37,"=0")/COUNTA(D3:D37)</f>
-        <v>0.74285714285714288</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="E40" s="22">
         <f>COUNTIF(E3:E37,"=0")/COUNTA(E3:E37)</f>
-        <v>0.74285714285714288</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="F40" s="33">
         <f>AVERAGE(F3:F37)</f>
-        <v>19852.371428571427</v>
+        <v>19238.628571428573</v>
       </c>
       <c r="G40" s="33">
         <f t="shared" ref="G40:H40" si="15">AVERAGE(G3:G37)</f>
-        <v>22634.057142857142</v>
+        <v>22683.114285714284</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="15"/>
@@ -4471,11 +4486,11 @@
       </c>
       <c r="P40" s="15">
         <f>AVERAGE(P3:P37)</f>
-        <v>0.63515232500464069</v>
+        <v>0.6168592285914456</v>
       </c>
       <c r="Q40" s="15">
         <f>AVERAGE(Q3:Q37)</f>
-        <v>0.46240650224662999</v>
+        <v>0.46339192655915235</v>
       </c>
       <c r="R40" s="15">
         <f>AVERAGE(R3:R37)</f>
@@ -4511,11 +4526,11 @@
       </c>
       <c r="Z40" s="15">
         <f>AVERAGE(Z3:Z37)</f>
-        <v>0.86376747546692756</v>
+        <v>0.83829777146513329</v>
       </c>
       <c r="AA40" s="16">
         <f>AVERAGE(AA3:AA37)</f>
-        <v>0.52174899015869147</v>
+        <v>0.52286458637904099</v>
       </c>
       <c r="AB40" s="16">
         <f>AVERAGE(AB3:AB37)</f>

--- a/test/results.xlsx
+++ b/test/results.xlsx
@@ -171,20 +171,20 @@
     <t>rsqrt</t>
   </si>
   <si>
-    <t>half MFLOPS</t>
-  </si>
-  <si>
-    <t>float MFLOPS</t>
-  </si>
-  <si>
-    <t>double MFLOPS</t>
+    <t>half kFLOPS</t>
+  </si>
+  <si>
+    <t>float kFLOPS</t>
+  </si>
+  <si>
+    <t>double kFLOPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,25 +207,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -453,12 +441,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -505,10 +492,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -994,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="30">
-        <v>43513</v>
+        <v>44955</v>
       </c>
       <c r="G3" s="30">
-        <v>57380</v>
+        <v>56825</v>
       </c>
       <c r="H3" s="30">
-        <v>69936</v>
+        <v>70078</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1021,19 +1006,19 @@
         <v>110295</v>
       </c>
       <c r="O3" s="30">
-        <v>675479</v>
+        <v>683626</v>
       </c>
       <c r="P3" s="6">
         <f>F3/M3</f>
-        <v>0.4245999219359875</v>
+        <v>0.43867096018735363</v>
       </c>
       <c r="Q3" s="6">
         <f>G3/N3</f>
-        <v>0.52024117140396209</v>
+        <v>0.51520921165964007</v>
       </c>
       <c r="R3" s="6">
         <f>H3/O3</f>
-        <v>0.10353541708920633</v>
+        <v>0.1025092667628206</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -1054,19 +1039,19 @@
         <v>95649</v>
       </c>
       <c r="Y3" s="30">
-        <v>168833</v>
+        <v>176438</v>
       </c>
       <c r="Z3" s="6">
         <f>F3/W3</f>
-        <v>0.77927218023568179</v>
+        <v>0.80509688742433472</v>
       </c>
       <c r="AA3" s="7">
         <f>G3/X3</f>
-        <v>0.59990172401175135</v>
+        <v>0.59409925874813119</v>
       </c>
       <c r="AB3" s="7">
         <f>H3/Y3</f>
-        <v>0.41423181487031563</v>
+        <v>0.39718201294505717</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1086,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="31">
-        <v>35043</v>
+        <v>36138</v>
       </c>
       <c r="G4" s="31">
-        <v>57116</v>
+        <v>57182</v>
       </c>
       <c r="H4" s="31">
-        <v>69492</v>
+        <v>70437</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1113,19 +1098,19 @@
         <v>111055</v>
       </c>
       <c r="O4" s="30">
-        <v>675518</v>
+        <v>682484</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" ref="P4:P37" si="0">F4/M4</f>
-        <v>0.34261495292380795</v>
+        <v>0.35332075361015242</v>
       </c>
       <c r="Q4" s="6">
         <f t="shared" ref="Q4:Q37" si="1">G4/N4</f>
-        <v>0.51430372338030705</v>
+        <v>0.51489802350186842</v>
       </c>
       <c r="R4" s="6">
         <f t="shared" ref="R4:R37" si="2">H4/O4</f>
-        <v>0.1028721662487158</v>
+        <v>0.10320681510482298</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -1146,19 +1131,19 @@
         <v>95378</v>
       </c>
       <c r="Y4" s="30">
-        <v>168681</v>
+        <v>177054</v>
       </c>
       <c r="Z4" s="6">
         <f t="shared" ref="Z4:Z37" si="3">F4/W4</f>
-        <v>0.76469689695805876</v>
+        <v>0.78859162920612758</v>
       </c>
       <c r="AA4" s="7">
         <f t="shared" ref="AA4:AA37" si="4">G4/X4</f>
-        <v>0.59883830652771075</v>
+        <v>0.59953029000398417</v>
       </c>
       <c r="AB4" s="7">
         <f t="shared" ref="AB4:AB37" si="5">H4/Y4</f>
-        <v>0.4119728955839721</v>
+        <v>0.39782778135484087</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1178,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="31">
-        <v>78428</v>
+        <v>80906</v>
       </c>
       <c r="G5" s="31">
-        <v>92022</v>
+        <v>92249</v>
       </c>
       <c r="H5" s="31">
-        <v>129255</v>
+        <v>129191</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1205,19 +1190,19 @@
         <v>82152</v>
       </c>
       <c r="O5" s="30">
-        <v>666954</v>
+        <v>670506</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>0.99185552407932009</v>
+        <v>1.0231940509915014</v>
       </c>
       <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>1.1201431492842535</v>
+        <v>1.1229063199922096</v>
       </c>
       <c r="R5" s="6">
         <f t="shared" si="2"/>
-        <v>0.19379897264279095</v>
+        <v>0.19267687388330604</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1238,19 +1223,19 @@
         <v>77126</v>
       </c>
       <c r="Y5" s="30">
-        <v>122435</v>
+        <v>125643</v>
       </c>
       <c r="Z5" s="6">
         <f t="shared" si="3"/>
-        <v>1.6197104562070177</v>
+        <v>1.6708865987897812</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="4"/>
-        <v>1.1931385006353241</v>
+        <v>1.1960817363794312</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="5"/>
-        <v>1.0557030260954792</v>
+        <v>1.028238739921842</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1270,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="31">
-        <v>65079</v>
+        <v>67278</v>
       </c>
       <c r="G6" s="31">
-        <v>76909</v>
+        <v>76399</v>
       </c>
       <c r="H6" s="31">
-        <v>115168</v>
+        <v>114094</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -1297,19 +1282,19 @@
         <v>74288</v>
       </c>
       <c r="O6" s="30">
-        <v>631902</v>
+        <v>625886</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>0.92009161470925049</v>
+        <v>0.95118123595029058</v>
       </c>
       <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>1.0352816067197932</v>
+        <v>1.0284164333405126</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="2"/>
-        <v>0.1822561093334093</v>
+        <v>0.18229198288506213</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1330,19 +1315,19 @@
         <v>66415</v>
       </c>
       <c r="Y6" s="30">
-        <v>111147</v>
+        <v>113052</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="3"/>
-        <v>1.8862384789287578</v>
+        <v>1.949973914555678</v>
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="4"/>
-        <v>1.1580064744410148</v>
+        <v>1.1503274862606339</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="5"/>
-        <v>1.036177314727343</v>
+        <v>1.0092169974878817</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1362,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="31">
-        <v>52088</v>
+        <v>53659</v>
       </c>
       <c r="G7" s="31">
-        <v>76683</v>
+        <v>76021</v>
       </c>
       <c r="H7" s="31">
-        <v>98482</v>
+        <v>99916</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1389,19 +1374,19 @@
         <v>98344</v>
       </c>
       <c r="O7" s="30">
-        <v>215278</v>
+        <v>211627</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
-        <v>0.5946797579632378</v>
+        <v>0.61261559538760135</v>
       </c>
       <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>0.77974253640283087</v>
+        <v>0.77301106320670299</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="2"/>
-        <v>0.45746430197233345</v>
+        <v>0.4721325728758618</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1422,19 +1407,19 @@
         <v>90813</v>
       </c>
       <c r="Y7" s="30">
-        <v>148472</v>
+        <v>150617</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="3"/>
-        <v>0.87744891599144248</v>
+        <v>0.90391321193335916</v>
       </c>
       <c r="AA7" s="7">
         <f t="shared" si="4"/>
-        <v>0.84440553665224138</v>
+        <v>0.83711583143382551</v>
       </c>
       <c r="AB7" s="7">
         <f t="shared" si="5"/>
-        <v>0.6633035185085403</v>
+        <v>0.66337797194207826</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1454,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="31">
-        <v>42537</v>
+        <v>43894</v>
       </c>
       <c r="G8" s="31">
-        <v>50910</v>
+        <v>49996</v>
       </c>
       <c r="H8" s="31">
-        <v>67064</v>
+        <v>67165</v>
       </c>
       <c r="I8" s="2">
         <v>666</v>
@@ -1481,19 +1466,19 @@
         <v>95793</v>
       </c>
       <c r="O8" s="30">
-        <v>489142</v>
+        <v>475341</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>0.49210425849442962</v>
+        <v>0.50780319068938784</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>0.53145845729855001</v>
+        <v>0.5219170503063898</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="2"/>
-        <v>0.13710538044167134</v>
+        <v>0.14129856250565384</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -1514,19 +1499,19 @@
         <v>75398</v>
       </c>
       <c r="Y8" s="30">
-        <v>166482</v>
+        <v>167167</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="3"/>
-        <v>1.1227037584459461</v>
+        <v>1.158519847972973</v>
       </c>
       <c r="AA8" s="7">
         <f t="shared" si="4"/>
-        <v>0.67521684925329584</v>
+        <v>0.66309451179076373</v>
       </c>
       <c r="AB8" s="7">
         <f t="shared" si="5"/>
-        <v>0.40283033601230162</v>
+        <v>0.40178384489761737</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1546,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="31">
-        <v>13047</v>
+        <v>13389</v>
       </c>
       <c r="G9" s="31">
-        <v>14418</v>
+        <v>14699</v>
       </c>
       <c r="H9" s="31">
-        <v>16790</v>
+        <v>16396</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
@@ -1573,19 +1558,19 @@
         <v>28510</v>
       </c>
       <c r="O9" s="30">
-        <v>51567</v>
+        <v>52703</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>0.43273631840796017</v>
+        <v>0.44407960199004975</v>
       </c>
       <c r="Q9" s="6">
         <f t="shared" si="1"/>
-        <v>0.50571729217818306</v>
+        <v>0.51557348298842509</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="2"/>
-        <v>0.32559582678845</v>
+        <v>0.31110183481016263</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
@@ -1606,19 +1591,19 @@
         <v>28287</v>
       </c>
       <c r="Y9" s="30">
-        <v>41368</v>
+        <v>41755</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="3"/>
-        <v>0.5354812230658732</v>
+        <v>0.54951775087215271</v>
       </c>
       <c r="AA9" s="7">
         <f t="shared" si="4"/>
-        <v>0.5097041043588928</v>
+        <v>0.51963799625269558</v>
       </c>
       <c r="AB9" s="7">
         <f t="shared" si="5"/>
-        <v>0.40586927093405528</v>
+        <v>0.39267153634295293</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1638,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="31">
-        <v>13691</v>
+        <v>12475</v>
       </c>
       <c r="G10" s="31">
-        <v>13767</v>
+        <v>13776</v>
       </c>
       <c r="H10" s="31">
-        <v>15499</v>
+        <v>15267</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1665,19 +1650,19 @@
         <v>14245</v>
       </c>
       <c r="O10" s="30">
-        <v>20045</v>
+        <v>20134</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="0"/>
-        <v>1.7385396825396826</v>
+        <v>1.5841269841269841</v>
       </c>
       <c r="Q10" s="6">
         <f t="shared" si="1"/>
-        <v>0.96644436644436649</v>
+        <v>0.96707616707616706</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="2"/>
-        <v>0.7732102768770267</v>
+        <v>0.75826959372206215</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
@@ -1698,19 +1683,19 @@
         <v>14457</v>
       </c>
       <c r="Y10" s="30">
-        <v>18539</v>
+        <v>18528</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="3"/>
-        <v>1.5433434787509863</v>
+        <v>1.4062676135723142</v>
       </c>
       <c r="AA10" s="7">
         <f t="shared" si="4"/>
-        <v>0.95227225565470019</v>
+        <v>0.95289479145050837</v>
       </c>
       <c r="AB10" s="7">
         <f t="shared" si="5"/>
-        <v>0.83602136037542474</v>
+        <v>0.82399611398963735</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1730,13 +1715,13 @@
         <v>310</v>
       </c>
       <c r="F11" s="31">
-        <v>11405</v>
+        <v>11488</v>
       </c>
       <c r="G11" s="31">
-        <v>11768</v>
+        <v>11445</v>
       </c>
       <c r="H11" s="31">
-        <v>13395</v>
+        <v>13299</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -1757,19 +1742,19 @@
         <v>25565</v>
       </c>
       <c r="O11" s="30">
-        <v>42106</v>
+        <v>42657</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="0"/>
-        <v>0.8578412937194434</v>
+        <v>0.86408424219631441</v>
       </c>
       <c r="Q11" s="6">
         <f t="shared" si="1"/>
-        <v>0.46031683942890672</v>
+        <v>0.44768237825151574</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="2"/>
-        <v>0.31812568280055098</v>
+        <v>0.31176594697236093</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
@@ -1790,19 +1775,19 @@
         <v>25576</v>
       </c>
       <c r="Y11" s="30">
-        <v>36824</v>
+        <v>37089</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="3"/>
-        <v>0.7887275242047026</v>
+        <v>0.79446749654218529</v>
       </c>
       <c r="AA11" s="7">
         <f t="shared" si="4"/>
-        <v>0.46011886143259306</v>
+        <v>0.44748983421958088</v>
       </c>
       <c r="AB11" s="7">
         <f t="shared" si="5"/>
-        <v>0.36375733217466871</v>
+        <v>0.35856992639327023</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1822,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="31">
-        <v>8923</v>
+        <v>9084</v>
       </c>
       <c r="G12" s="31">
-        <v>9771</v>
+        <v>10232</v>
       </c>
       <c r="H12" s="31">
-        <v>10793</v>
+        <v>11184</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1849,19 +1834,19 @@
         <v>56752</v>
       </c>
       <c r="O12" s="30">
-        <v>186449</v>
+        <v>191930</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="0"/>
-        <v>0.20748267683579036</v>
+        <v>0.21122634051062641</v>
       </c>
       <c r="Q12" s="6">
         <f t="shared" si="1"/>
-        <v>0.172170143783479</v>
+        <v>0.18029320552579645</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="2"/>
-        <v>5.788714340114455E-2</v>
+        <v>5.8271244724639189E-2</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -1882,19 +1867,19 @@
         <v>50282</v>
       </c>
       <c r="Y12" s="30">
-        <v>89837</v>
+        <v>89605</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="3"/>
-        <v>0.28971719861034451</v>
+        <v>0.29494464105977469</v>
       </c>
       <c r="AA12" s="7">
         <f t="shared" si="4"/>
-        <v>0.19432401256911022</v>
+        <v>0.2034923034087745</v>
       </c>
       <c r="AB12" s="7">
         <f t="shared" si="5"/>
-        <v>0.12013980876476285</v>
+        <v>0.12481446347860052</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1914,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="31">
-        <v>8688</v>
+        <v>8946</v>
       </c>
       <c r="G13" s="31">
-        <v>9289</v>
+        <v>10035</v>
       </c>
       <c r="H13" s="31">
-        <v>11182</v>
+        <v>11035</v>
       </c>
       <c r="I13" s="2">
         <v>5</v>
@@ -1941,19 +1926,19 @@
         <v>53052</v>
       </c>
       <c r="O13" s="30">
-        <v>175291</v>
+        <v>176231</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="0"/>
-        <v>0.20391972773148692</v>
+        <v>0.20997535500528108</v>
       </c>
       <c r="Q13" s="6">
         <f t="shared" si="1"/>
-        <v>0.17509236221066124</v>
+        <v>0.18915403754806606</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="2"/>
-        <v>6.3791067425024675E-2</v>
+        <v>6.261667924485477E-2</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
@@ -1974,19 +1959,19 @@
         <v>47631</v>
       </c>
       <c r="Y13" s="30">
-        <v>86797</v>
+        <v>87052</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="3"/>
-        <v>0.28791092258748674</v>
+        <v>0.29646076352067868</v>
       </c>
       <c r="AA13" s="7">
         <f t="shared" si="4"/>
-        <v>0.19502004996745817</v>
+        <v>0.21068211878818416</v>
       </c>
       <c r="AB13" s="7">
         <f t="shared" si="5"/>
-        <v>0.12882933741949606</v>
+        <v>0.12676331388135828</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2006,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="31">
-        <v>5795</v>
+        <v>6304</v>
       </c>
       <c r="G14" s="31">
-        <v>9930</v>
+        <v>9359</v>
       </c>
       <c r="H14" s="31">
-        <v>10845</v>
+        <v>10742</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2033,19 +2018,19 @@
         <v>26892</v>
       </c>
       <c r="O14" s="30">
-        <v>34903</v>
+        <v>34928</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="0"/>
-        <v>0.31102404465435807</v>
+        <v>0.33834263632460282</v>
       </c>
       <c r="Q14" s="6">
         <f t="shared" si="1"/>
-        <v>0.36925479696564034</v>
+        <v>0.34802171649561209</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="2"/>
-        <v>0.31071827636592841</v>
+        <v>0.30754695373339441</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -2066,19 +2051,19 @@
         <v>35216</v>
       </c>
       <c r="Y14" s="30">
-        <v>57616</v>
+        <v>57677</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="3"/>
-        <v>0.3569448721897136</v>
+        <v>0.38829688943640284</v>
       </c>
       <c r="AA14" s="7">
         <f t="shared" si="4"/>
-        <v>0.28197410268059975</v>
+        <v>0.26575988187187644</v>
       </c>
       <c r="AB14" s="7">
         <f t="shared" si="5"/>
-        <v>0.18822896417661761</v>
+        <v>0.18624408343013679</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2098,13 +2083,13 @@
         <v>868</v>
       </c>
       <c r="F15" s="31">
-        <v>7093</v>
+        <v>7325</v>
       </c>
       <c r="G15" s="31">
-        <v>8216</v>
+        <v>8267</v>
       </c>
       <c r="H15" s="31">
-        <v>9356</v>
+        <v>9328</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -2125,19 +2110,19 @@
         <v>37054</v>
       </c>
       <c r="O15" s="30">
-        <v>82806</v>
+        <v>80877</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="0"/>
-        <v>0.26333766474846854</v>
+        <v>0.27195099313161314</v>
       </c>
       <c r="Q15" s="6">
         <f t="shared" si="1"/>
-        <v>0.22173044745506559</v>
+        <v>0.22310681707777838</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="2"/>
-        <v>0.1129869816196894</v>
+        <v>0.11533563312190116</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -2158,19 +2143,19 @@
         <v>32550</v>
       </c>
       <c r="Y15" s="30">
-        <v>54341</v>
+        <v>54051</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="3"/>
-        <v>0.30487857296367937</v>
+        <v>0.3148506339995702</v>
       </c>
       <c r="AA15" s="7">
         <f t="shared" si="4"/>
-        <v>0.25241167434715822</v>
+        <v>0.2539784946236559</v>
       </c>
       <c r="AB15" s="7">
         <f t="shared" si="5"/>
-        <v>0.17217202480631566</v>
+        <v>0.17257775064291134</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2190,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="31">
-        <v>21223</v>
+        <v>21587</v>
       </c>
       <c r="G16" s="31">
-        <v>21779</v>
+        <v>21281</v>
       </c>
       <c r="H16" s="31">
-        <v>24463</v>
+        <v>24211</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2217,19 +2202,19 @@
         <v>86268</v>
       </c>
       <c r="O16" s="30">
-        <v>239487</v>
+        <v>243415</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="0"/>
-        <v>0.27503758229226066</v>
+        <v>0.27975480794152713</v>
       </c>
       <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>0.25245745815366066</v>
+        <v>0.2466847498493068</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="2"/>
-        <v>0.10214750696279964</v>
+        <v>9.9463878561304772E-2</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -2250,19 +2235,19 @@
         <v>78721</v>
       </c>
       <c r="Y16" s="30">
-        <v>128405</v>
+        <v>128436</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="3"/>
-        <v>0.45377378661535173</v>
+        <v>0.46155655334616208</v>
       </c>
       <c r="AA16" s="7">
         <f t="shared" si="4"/>
-        <v>0.27666061152678445</v>
+        <v>0.27033447237712938</v>
       </c>
       <c r="AB16" s="7">
         <f t="shared" si="5"/>
-        <v>0.19051438806900042</v>
+        <v>0.18850633778691334</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -2282,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="31">
-        <v>44739</v>
+        <v>48872</v>
       </c>
       <c r="G17" s="31">
-        <v>48418</v>
-      </c>
-      <c r="H17" s="36">
-        <v>75106</v>
+        <v>52614</v>
+      </c>
+      <c r="H17" s="29">
+        <v>76503</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2309,19 +2294,19 @@
         <v>75498</v>
       </c>
       <c r="O17" s="30">
-        <v>146565</v>
+        <v>146085</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="0"/>
-        <v>0.64634921552197411</v>
+        <v>0.70605911757057416</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>0.64131500172189992</v>
+        <v>0.69689263291742831</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" si="2"/>
-        <v>0.51244157882168317</v>
+        <v>0.52368826368210286</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -2342,19 +2327,19 @@
         <v>66205</v>
       </c>
       <c r="Y17" s="30">
-        <v>110443</v>
+        <v>110373</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="3"/>
-        <v>1.2370800497718788</v>
+        <v>1.3513618139084751</v>
       </c>
       <c r="AA17" s="7">
         <f t="shared" si="4"/>
-        <v>0.73133449135261686</v>
+        <v>0.79471339022732423</v>
       </c>
       <c r="AB17" s="7">
         <f t="shared" si="5"/>
-        <v>0.68004309915522032</v>
+        <v>0.69313147237096029</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -2374,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="31">
-        <v>4723</v>
+        <v>4939</v>
       </c>
       <c r="G18" s="31">
-        <v>4742</v>
+        <v>4762</v>
       </c>
       <c r="H18" s="31">
-        <v>5298</v>
+        <v>5366</v>
       </c>
       <c r="I18" s="2">
         <v>20</v>
@@ -2401,19 +2386,19 @@
         <v>20295</v>
       </c>
       <c r="O18" s="30">
-        <v>29023</v>
+        <v>29080</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="0"/>
-        <v>0.35112631031150099</v>
+        <v>0.36718459594082226</v>
       </c>
       <c r="Q18" s="6">
         <f t="shared" si="1"/>
-        <v>0.23365360926336537</v>
+        <v>0.2346390736634639</v>
       </c>
       <c r="R18" s="6">
         <f t="shared" si="2"/>
-        <v>0.18254487820004825</v>
+        <v>0.18452544704264098</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -2434,19 +2419,19 @@
         <v>13857</v>
       </c>
       <c r="Y18" s="30">
-        <v>20473</v>
+        <v>20508</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="3"/>
-        <v>0.46186192059456288</v>
+        <v>0.48298454918834344</v>
       </c>
       <c r="AA18" s="7">
         <f t="shared" si="4"/>
-        <v>0.34220971350220103</v>
+        <v>0.34365302735079745</v>
       </c>
       <c r="AB18" s="7">
         <f t="shared" si="5"/>
-        <v>0.25877985639622919</v>
+        <v>0.26165398868734152</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -2466,13 +2451,13 @@
         <v>13016</v>
       </c>
       <c r="F19" s="31">
-        <v>8258</v>
+        <v>13482</v>
       </c>
       <c r="G19" s="31">
-        <v>8657</v>
+        <v>14023</v>
       </c>
       <c r="H19" s="31">
-        <v>10277</v>
+        <v>17053</v>
       </c>
       <c r="I19" s="2">
         <v>64079</v>
@@ -2493,19 +2478,19 @@
         <v>14941</v>
       </c>
       <c r="O19" s="30">
-        <v>20708</v>
+        <v>21163</v>
       </c>
       <c r="P19" s="6">
         <f t="shared" si="0"/>
-        <v>0.53007253353873807</v>
+        <v>0.86539572501444251</v>
       </c>
       <c r="Q19" s="6">
         <f t="shared" si="1"/>
-        <v>0.57941235526403856</v>
+        <v>0.93855832942908779</v>
       </c>
       <c r="R19" s="6">
         <f t="shared" si="2"/>
-        <v>0.49628163028781147</v>
+        <v>0.80579312951849924</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -2526,19 +2511,19 @@
         <v>12189</v>
       </c>
       <c r="Y19" s="30">
-        <v>16667</v>
+        <v>17671</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="3"/>
-        <v>0.59392980437284237</v>
+        <v>0.96964902186421176</v>
       </c>
       <c r="AA19" s="7">
         <f t="shared" si="4"/>
-        <v>0.71023053572893591</v>
+        <v>1.1504635326934121</v>
       </c>
       <c r="AB19" s="7">
         <f t="shared" si="5"/>
-        <v>0.61660766784664311</v>
+        <v>0.96502744609812685</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -2558,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="31">
-        <v>16638</v>
+        <v>17200</v>
       </c>
       <c r="G20" s="31">
-        <v>16706</v>
+        <v>17143</v>
       </c>
       <c r="H20" s="31">
-        <v>20018</v>
+        <v>20613</v>
       </c>
       <c r="I20" s="2">
         <v>50512</v>
@@ -2585,19 +2570,19 @@
         <v>57240</v>
       </c>
       <c r="O20" s="30">
-        <v>167594</v>
+        <v>168789</v>
       </c>
       <c r="P20" s="6">
         <f t="shared" si="0"/>
-        <v>0.34658889698989687</v>
+        <v>0.35829601083220497</v>
       </c>
       <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>0.29185883997204753</v>
+        <v>0.29949336128581411</v>
       </c>
       <c r="R20" s="6">
         <f t="shared" si="2"/>
-        <v>0.11944341682876475</v>
+        <v>0.12212288715496863</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -2618,19 +2603,19 @@
         <v>46897</v>
       </c>
       <c r="Y20" s="30">
-        <v>80184</v>
+        <v>83724</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="3"/>
-        <v>1.9767137935131283</v>
+        <v>2.0434834263989545</v>
       </c>
       <c r="AA20" s="7">
         <f t="shared" si="4"/>
-        <v>0.35622747723734993</v>
+        <v>0.36554577051837006</v>
       </c>
       <c r="AB20" s="7">
         <f t="shared" si="5"/>
-        <v>0.24965080315274868</v>
+        <v>0.24620180593378244</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -2650,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="31">
-        <v>13569</v>
+        <v>14000</v>
       </c>
       <c r="G21" s="31">
-        <v>14358</v>
+        <v>14345</v>
       </c>
       <c r="H21" s="31">
-        <v>21553</v>
+        <v>21545</v>
       </c>
       <c r="I21" s="2">
         <v>4</v>
@@ -2677,19 +2662,19 @@
         <v>34783</v>
       </c>
       <c r="O21" s="30">
-        <v>71034</v>
+        <v>71456</v>
       </c>
       <c r="P21" s="6">
         <f t="shared" si="0"/>
-        <v>0.34900589006918903</v>
+        <v>0.36009156614110444</v>
       </c>
       <c r="Q21" s="6">
         <f t="shared" si="1"/>
-        <v>0.41278785613661845</v>
+        <v>0.41241411034125869</v>
       </c>
       <c r="R21" s="6">
         <f t="shared" si="2"/>
-        <v>0.30341808148210714</v>
+        <v>0.30151421854008059</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -2710,19 +2695,19 @@
         <v>38610</v>
       </c>
       <c r="Y21" s="30">
-        <v>54036</v>
+        <v>57013</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="3"/>
-        <v>0.46558468295360966</v>
+        <v>0.48037331869338457</v>
       </c>
       <c r="AA21" s="7">
         <f t="shared" si="4"/>
-        <v>0.37187257187257189</v>
+        <v>0.37153587153587153</v>
       </c>
       <c r="AB21" s="7">
         <f t="shared" si="5"/>
-        <v>0.39886372048264118</v>
+        <v>0.37789626927192044</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -2742,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="31">
-        <v>13395</v>
+        <v>13805</v>
       </c>
       <c r="G22" s="31">
-        <v>14738</v>
+        <v>14883</v>
       </c>
       <c r="H22" s="31">
-        <v>21515</v>
+        <v>20638</v>
       </c>
       <c r="I22" s="2">
         <v>2</v>
@@ -2769,19 +2754,19 @@
         <v>39651</v>
       </c>
       <c r="O22" s="30">
-        <v>72352</v>
+        <v>72286</v>
       </c>
       <c r="P22" s="6">
         <f t="shared" si="0"/>
-        <v>0.33764367816091956</v>
+        <v>0.34797842306916715</v>
       </c>
       <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>0.37169302161357848</v>
+        <v>0.37534992812287205</v>
       </c>
       <c r="R22" s="6">
         <f t="shared" si="2"/>
-        <v>0.29736565678903143</v>
+        <v>0.28550480037628312</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -2802,19 +2787,19 @@
         <v>39154</v>
       </c>
       <c r="Y22" s="30">
-        <v>56497</v>
+        <v>58534</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="3"/>
-        <v>0.45702685182025998</v>
+        <v>0.47101572895697569</v>
       </c>
       <c r="AA22" s="7">
         <f t="shared" si="4"/>
-        <v>0.37641109465188743</v>
+        <v>0.38011441998263268</v>
       </c>
       <c r="AB22" s="7">
         <f t="shared" si="5"/>
-        <v>0.38081668053170964</v>
+        <v>0.35258140567875079</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -2834,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="31">
-        <v>10523</v>
+        <v>10716</v>
       </c>
       <c r="G23" s="31">
-        <v>12292</v>
+        <v>12280</v>
       </c>
       <c r="H23" s="31">
-        <v>17491</v>
+        <v>17365</v>
       </c>
       <c r="I23" s="2">
         <v>6</v>
@@ -2861,19 +2846,19 @@
         <v>39756</v>
       </c>
       <c r="O23" s="30">
-        <v>81048</v>
+        <v>80586</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>0.3661957126948775</v>
+        <v>0.37291202672605789</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>0.30918603481235535</v>
+        <v>0.30888419358084312</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="2"/>
-        <v>0.21581038396999308</v>
+        <v>0.21548407912044276</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2894,19 +2879,19 @@
         <v>29913</v>
       </c>
       <c r="Y23" s="30">
-        <v>50392</v>
+        <v>52277</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="3"/>
-        <v>0.45722354985878777</v>
+        <v>0.46560938518357592</v>
       </c>
       <c r="AA23" s="7">
         <f t="shared" si="4"/>
-        <v>0.41092501587938357</v>
+        <v>0.41052385250559958</v>
       </c>
       <c r="AB23" s="7">
         <f t="shared" si="5"/>
-        <v>0.34709874583267186</v>
+        <v>0.33217284848021117</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -2926,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="31">
-        <v>18897</v>
+        <v>19547</v>
       </c>
       <c r="G24" s="31">
-        <v>20587</v>
+        <v>20529</v>
       </c>
       <c r="H24" s="29">
-        <v>25738</v>
+        <v>25779</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2953,19 +2938,19 @@
         <v>43686</v>
       </c>
       <c r="O24" s="30">
-        <v>95237</v>
+        <v>96754</v>
       </c>
       <c r="P24" s="6">
         <f t="shared" si="0"/>
-        <v>0.4330400109995875</v>
+        <v>0.44793528576011732</v>
       </c>
       <c r="Q24" s="6">
         <f t="shared" si="1"/>
-        <v>0.47124937050771415</v>
+        <v>0.46992171405026784</v>
       </c>
       <c r="R24" s="6">
         <f t="shared" si="2"/>
-        <v>0.27025210789924087</v>
+        <v>0.26643859685387683</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -2986,19 +2971,19 @@
         <v>38177</v>
       </c>
       <c r="Y24" s="30">
-        <v>53238</v>
+        <v>55547</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="3"/>
-        <v>0.57978707084343262</v>
+        <v>0.59973000337495785</v>
       </c>
       <c r="AA24" s="7">
         <f t="shared" si="4"/>
-        <v>0.53925138172197917</v>
+        <v>0.53773214238939671</v>
       </c>
       <c r="AB24" s="7">
         <f t="shared" si="5"/>
-        <v>0.48345166985987453</v>
+        <v>0.46409347039444077</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -3018,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="31">
-        <v>7718</v>
+        <v>7954</v>
       </c>
       <c r="G25" s="31">
-        <v>8151</v>
+        <v>8099</v>
       </c>
       <c r="H25" s="31">
-        <v>11328</v>
+        <v>11289</v>
       </c>
       <c r="I25" s="2">
         <v>3</v>
@@ -3045,19 +3030,19 @@
         <v>43736</v>
       </c>
       <c r="O25" s="30">
-        <v>88010</v>
+        <v>89254</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="0"/>
-        <v>0.17663752460292031</v>
+        <v>0.18203872385224515</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>0.18636820925553321</v>
+        <v>0.18517925736235596</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="2"/>
-        <v>0.1287126462901943</v>
+        <v>0.12648172630918503</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -3078,19 +3063,19 @@
         <v>38418</v>
       </c>
       <c r="Y25" s="30">
-        <v>55175</v>
+        <v>56801</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="3"/>
-        <v>0.24356991826301005</v>
+        <v>0.25101776753873828</v>
       </c>
       <c r="AA25" s="7">
         <f t="shared" si="4"/>
-        <v>0.21216617210682492</v>
+        <v>0.21081263990837629</v>
       </c>
       <c r="AB25" s="7">
         <f t="shared" si="5"/>
-        <v>0.20531037607612143</v>
+        <v>0.19874650094188481</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -3110,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="31">
-        <v>15398</v>
+        <v>15902</v>
       </c>
       <c r="G26" s="31">
-        <v>17855</v>
+        <v>17771</v>
       </c>
       <c r="H26" s="31">
-        <v>25556</v>
+        <v>25471</v>
       </c>
       <c r="I26" s="2">
         <v>6</v>
@@ -3137,19 +3122,19 @@
         <v>37567</v>
       </c>
       <c r="O26" s="30">
-        <v>69491</v>
+        <v>69568</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="0"/>
-        <v>0.47233128834355831</v>
+        <v>0.48779141104294477</v>
       </c>
       <c r="Q26" s="6">
         <f t="shared" si="1"/>
-        <v>0.47528415896930815</v>
+        <v>0.47304815396491601</v>
       </c>
       <c r="R26" s="6">
         <f t="shared" si="2"/>
-        <v>0.36775985379401649</v>
+        <v>0.36613097976080955</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -3170,19 +3155,19 @@
         <v>33602</v>
       </c>
       <c r="Y26" s="30">
-        <v>47059</v>
+        <v>49062</v>
       </c>
       <c r="Z26" s="6">
         <f t="shared" si="3"/>
-        <v>0.65176719576719577</v>
+        <v>0.67310052910052909</v>
       </c>
       <c r="AA26" s="7">
         <f t="shared" si="4"/>
-        <v>0.53136718052496879</v>
+        <v>0.5288673293256354</v>
       </c>
       <c r="AB26" s="7">
         <f t="shared" si="5"/>
-        <v>0.54306296351388683</v>
+        <v>0.51915943092413686</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -3202,13 +3187,13 @@
         <v>913439</v>
       </c>
       <c r="F27" s="31">
-        <v>12472</v>
+        <v>12818</v>
       </c>
       <c r="G27" s="31">
-        <v>13820</v>
+        <v>14029</v>
       </c>
       <c r="H27" s="31">
-        <v>20918</v>
+        <v>20837</v>
       </c>
       <c r="I27" s="2">
         <v>716930</v>
@@ -3229,19 +3214,19 @@
         <v>28190</v>
       </c>
       <c r="O27" s="30">
-        <v>47229</v>
+        <v>47123</v>
       </c>
       <c r="P27" s="6">
         <f t="shared" si="0"/>
-        <v>1.0123376623376623</v>
+        <v>1.0404220779220779</v>
       </c>
       <c r="Q27" s="6">
         <f t="shared" si="1"/>
-        <v>0.49024476764810215</v>
+        <v>0.49765874423554451</v>
       </c>
       <c r="R27" s="6">
         <f t="shared" si="2"/>
-        <v>0.44290584174977238</v>
+        <v>0.44218322263013815</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -3262,19 +3247,19 @@
         <v>20920</v>
       </c>
       <c r="Y27" s="30">
-        <v>33145</v>
+        <v>34550</v>
       </c>
       <c r="Z27" s="6">
         <f t="shared" si="3"/>
-        <v>1.065891804119306</v>
+        <v>1.0954619263310827</v>
       </c>
       <c r="AA27" s="7">
         <f t="shared" si="4"/>
-        <v>0.66061185468451245</v>
+        <v>0.67060229445506692</v>
       </c>
       <c r="AB27" s="7">
         <f t="shared" si="5"/>
-        <v>0.63110574747322368</v>
+        <v>0.60309696092619391</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -3294,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="31">
-        <v>9999</v>
+        <v>10235</v>
       </c>
       <c r="G28" s="31">
-        <v>10934</v>
+        <v>10816</v>
       </c>
       <c r="H28" s="31">
-        <v>12236</v>
+        <v>12436</v>
       </c>
       <c r="I28" s="2">
         <v>2</v>
@@ -3321,19 +3306,19 @@
         <v>20407</v>
       </c>
       <c r="O28" s="30">
-        <v>34992</v>
+        <v>35396</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" si="0"/>
-        <v>1.6114423851732473</v>
+        <v>1.6494762288477034</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" si="1"/>
-        <v>0.535796540402803</v>
+        <v>0.53001421081001621</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="2"/>
-        <v>0.34967992684042065</v>
+        <v>0.35133913436546504</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -3354,19 +3339,19 @@
         <v>21639</v>
       </c>
       <c r="Y28" s="30">
-        <v>28036</v>
+        <v>30289</v>
       </c>
       <c r="Z28" s="6">
         <f t="shared" si="3"/>
-        <v>1.635159443990188</v>
+        <v>1.6737530662305806</v>
       </c>
       <c r="AA28" s="7">
         <f t="shared" si="4"/>
-        <v>0.50529137205970698</v>
+        <v>0.4998382550025417</v>
       </c>
       <c r="AB28" s="7">
         <f t="shared" si="5"/>
-        <v>0.43643886431730633</v>
+        <v>0.41057809765921621</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -3386,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="31">
-        <v>8572</v>
+        <v>8791</v>
       </c>
       <c r="G29" s="31">
-        <v>9797</v>
+        <v>9730</v>
       </c>
       <c r="H29" s="31">
-        <v>11075</v>
+        <v>11251</v>
       </c>
       <c r="I29" s="2">
         <v>2</v>
@@ -3413,19 +3398,19 @@
         <v>19983</v>
       </c>
       <c r="O29" s="30">
-        <v>34354</v>
+        <v>35133</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="0"/>
-        <v>1.3776920604307297</v>
+        <v>1.4128897460623593</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="1"/>
-        <v>0.49026672671771004</v>
+        <v>0.48691387679527598</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="2"/>
-        <v>0.32237876229842233</v>
+        <v>0.32024022998320667</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -3446,19 +3431,19 @@
         <v>21828</v>
       </c>
       <c r="Y29" s="30">
-        <v>29632</v>
+        <v>31901</v>
       </c>
       <c r="Z29" s="6">
         <f t="shared" si="3"/>
-        <v>1.4008824971400555</v>
+        <v>1.436672658931198</v>
       </c>
       <c r="AA29" s="7">
         <f t="shared" si="4"/>
-        <v>0.44882719442917351</v>
+        <v>0.44575774234927618</v>
       </c>
       <c r="AB29" s="7">
         <f t="shared" si="5"/>
-        <v>0.37375134989200864</v>
+        <v>0.35268486881288985</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3478,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="31">
-        <v>21363</v>
+        <v>21929</v>
       </c>
       <c r="G30" s="31">
-        <v>24500</v>
+        <v>24304</v>
       </c>
       <c r="H30" s="29">
-        <v>27794</v>
+        <v>27994</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -3505,19 +3490,19 @@
         <v>38542</v>
       </c>
       <c r="O30" s="30">
-        <v>75465</v>
+        <v>75786</v>
       </c>
       <c r="P30" s="6">
         <f t="shared" si="0"/>
-        <v>1.6026256564141035</v>
+        <v>1.645086271567892</v>
       </c>
       <c r="Q30" s="6">
         <f t="shared" si="1"/>
-        <v>0.6356701779876498</v>
+        <v>0.63058481656374865</v>
       </c>
       <c r="R30" s="6">
         <f t="shared" si="2"/>
-        <v>0.36830318690783809</v>
+        <v>0.36938220779563508</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -3538,19 +3523,19 @@
         <v>38872</v>
       </c>
       <c r="Y30" s="30">
-        <v>48874</v>
+        <v>51907</v>
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="3"/>
-        <v>1.6939973039410039</v>
+        <v>1.7388787566410278</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="4"/>
-        <v>0.63027371887219596</v>
+        <v>0.62523152912121838</v>
       </c>
       <c r="AB30" s="7">
         <f t="shared" si="5"/>
-        <v>0.5686868273519663</v>
+        <v>0.53931069027298828</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -3570,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="31">
-        <v>7655</v>
+        <v>7909</v>
       </c>
       <c r="G31" s="31">
-        <v>8143</v>
+        <v>8172</v>
       </c>
       <c r="H31" s="31">
-        <v>9296</v>
+        <v>9280</v>
       </c>
       <c r="I31" s="2">
         <v>4</v>
@@ -3597,19 +3582,19 @@
         <v>21324</v>
       </c>
       <c r="O31" s="30">
-        <v>33377</v>
+        <v>33454</v>
       </c>
       <c r="P31" s="6">
         <f t="shared" si="0"/>
-        <v>0.49604717470191811</v>
+        <v>0.51250648004147226</v>
       </c>
       <c r="Q31" s="6">
         <f t="shared" si="1"/>
-        <v>0.3818701932095292</v>
+        <v>0.38323016319639841</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="2"/>
-        <v>0.2785151451598406</v>
+        <v>0.27739582710587674</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -3630,19 +3615,19 @@
         <v>18660</v>
       </c>
       <c r="Y31" s="30">
-        <v>28398</v>
+        <v>28586</v>
       </c>
       <c r="Z31" s="6">
         <f t="shared" si="3"/>
-        <v>0.503485924756643</v>
+        <v>0.52019205472244145</v>
       </c>
       <c r="AA31" s="7">
         <f t="shared" si="4"/>
-        <v>0.43638799571275455</v>
+        <v>0.4379421221864952</v>
       </c>
       <c r="AB31" s="7">
         <f t="shared" si="5"/>
-        <v>0.32734699626734276</v>
+        <v>0.32463443643741691</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -3662,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="31">
-        <v>5191</v>
+        <v>5344</v>
       </c>
       <c r="G32" s="31">
-        <v>6208</v>
+        <v>6175</v>
       </c>
       <c r="H32" s="31">
-        <v>6770</v>
+        <v>6838</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -3689,19 +3674,19 @@
         <v>28449</v>
       </c>
       <c r="O32" s="30">
-        <v>60018</v>
+        <v>57370</v>
       </c>
       <c r="P32" s="6">
         <f t="shared" si="0"/>
-        <v>0.29264855113316046</v>
+        <v>0.30127410080054123</v>
       </c>
       <c r="Q32" s="6">
         <f t="shared" si="1"/>
-        <v>0.2182150514956589</v>
+        <v>0.21705508102218005</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="2"/>
-        <v>0.11279949348528774</v>
+        <v>0.11919121492069025</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -3722,19 +3707,19 @@
         <v>24854</v>
       </c>
       <c r="Y32" s="30">
-        <v>42708</v>
+        <v>43058</v>
       </c>
       <c r="Z32" s="6">
         <f t="shared" si="3"/>
-        <v>0.28591099361092753</v>
+        <v>0.29433795990306233</v>
       </c>
       <c r="AA32" s="7">
         <f t="shared" si="4"/>
-        <v>0.24977870765269172</v>
+        <v>0.24845095356884203</v>
       </c>
       <c r="AB32" s="7">
         <f t="shared" si="5"/>
-        <v>0.15851831038681277</v>
+        <v>0.15880904826048586</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3754,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="31">
-        <v>18411</v>
+        <v>19006</v>
       </c>
       <c r="G33" s="31">
-        <v>21568</v>
+        <v>21700</v>
       </c>
       <c r="H33" s="29">
-        <v>25070</v>
+        <v>24892</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -3781,19 +3766,19 @@
         <v>25583</v>
       </c>
       <c r="O33" s="30">
-        <v>52293</v>
+        <v>52243</v>
       </c>
       <c r="P33" s="6">
         <f t="shared" si="0"/>
-        <v>1.0146037694257688</v>
+        <v>1.04739336492891</v>
       </c>
       <c r="Q33" s="6">
         <f t="shared" si="1"/>
-        <v>0.84305984442794046</v>
+        <v>0.84821952077551499</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="2"/>
-        <v>0.47941407071692194</v>
+        <v>0.47646574660720098</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -3814,19 +3799,19 @@
         <v>21934</v>
       </c>
       <c r="Y33" s="30">
-        <v>37714</v>
+        <v>37747</v>
       </c>
       <c r="Z33" s="6">
         <f t="shared" si="3"/>
-        <v>1.0980497405618179</v>
+        <v>1.133536112602135</v>
       </c>
       <c r="AA33" s="7">
         <f t="shared" si="4"/>
-        <v>0.98331357709492118</v>
+        <v>0.98933163125740864</v>
       </c>
       <c r="AB33" s="7">
         <f t="shared" si="5"/>
-        <v>0.66473988439306353</v>
+        <v>0.65944313455373937</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3846,13 +3831,13 @@
         <v>153</v>
       </c>
       <c r="F34" s="31">
-        <v>11543</v>
+        <v>11819</v>
       </c>
       <c r="G34" s="31">
-        <v>8690</v>
+        <v>8760</v>
       </c>
       <c r="H34" s="31">
-        <v>10845</v>
+        <v>10841</v>
       </c>
       <c r="I34" s="2">
         <v>2</v>
@@ -3873,19 +3858,19 @@
         <v>38173</v>
       </c>
       <c r="O34" s="31">
-        <v>89047</v>
+        <v>89641</v>
       </c>
       <c r="P34" s="6">
         <f t="shared" si="0"/>
-        <v>0.37802521696413949</v>
+        <v>0.38706402488947111</v>
       </c>
       <c r="Q34" s="6">
         <f t="shared" si="1"/>
-        <v>0.22764781389987687</v>
+        <v>0.22948157074371939</v>
       </c>
       <c r="R34" s="6">
         <f t="shared" si="2"/>
-        <v>0.12178961671926061</v>
+        <v>0.12093796365502393</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
@@ -3906,19 +3891,19 @@
         <v>33705</v>
       </c>
       <c r="Y34" s="31">
-        <v>53355</v>
+        <v>53490</v>
       </c>
       <c r="Z34" s="6">
         <f t="shared" si="3"/>
-        <v>0.52268610758920486</v>
+        <v>0.53518384350661108</v>
       </c>
       <c r="AA34" s="7">
         <f t="shared" si="4"/>
-        <v>0.25782524847945409</v>
+        <v>0.2599020916777926</v>
       </c>
       <c r="AB34" s="7">
         <f t="shared" si="5"/>
-        <v>0.20326117514759628</v>
+        <v>0.2026733968966162</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -3938,13 +3923,13 @@
         <v>185</v>
       </c>
       <c r="F35" s="31">
-        <v>12479</v>
+        <v>12795</v>
       </c>
       <c r="G35" s="31">
-        <v>8852</v>
+        <v>8859</v>
       </c>
       <c r="H35" s="31">
-        <v>10951</v>
+        <v>10984</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -3965,19 +3950,19 @@
         <v>24015</v>
       </c>
       <c r="O35" s="31">
-        <v>43887</v>
+        <v>44216</v>
       </c>
       <c r="P35" s="6">
         <f t="shared" si="0"/>
-        <v>0.96811481768813035</v>
+        <v>0.99262994569433671</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="1"/>
-        <v>0.36860295648552988</v>
+        <v>0.368894440974391</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="2"/>
-        <v>0.24952719484129696</v>
+        <v>0.24841686267414512</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -3998,19 +3983,19 @@
         <v>20982</v>
       </c>
       <c r="Y35" s="31">
-        <v>32867</v>
+        <v>33323</v>
       </c>
       <c r="Z35" s="6">
         <f t="shared" si="3"/>
-        <v>1.0315780772092253</v>
+        <v>1.0577002562618831</v>
       </c>
       <c r="AA35" s="7">
         <f t="shared" si="4"/>
-        <v>0.42188542560289771</v>
+        <v>0.42221904489562484</v>
       </c>
       <c r="AB35" s="7">
         <f t="shared" si="5"/>
-        <v>0.33319134694374297</v>
+        <v>0.32962218287669176</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4030,13 +4015,13 @@
         <v>16</v>
       </c>
       <c r="F36" s="31">
-        <v>2529</v>
+        <v>2600</v>
       </c>
       <c r="G36" s="31">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="H36" s="31">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="I36" s="2">
         <v>6</v>
@@ -4057,19 +4042,19 @@
         <v>10866</v>
       </c>
       <c r="O36" s="31">
-        <v>16551</v>
+        <v>16498</v>
       </c>
       <c r="P36" s="6">
         <f t="shared" si="0"/>
-        <v>0.36123410941294098</v>
+        <v>0.37137551778317385</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" si="1"/>
-        <v>0.19786489968709736</v>
+        <v>0.19814099024480031</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" si="2"/>
-        <v>0.154552595009365</v>
+        <v>0.15517032367559705</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -4090,19 +4075,19 @@
         <v>8647</v>
       </c>
       <c r="Y36" s="31">
-        <v>12395</v>
+        <v>12164</v>
       </c>
       <c r="Z36" s="6">
         <f t="shared" si="3"/>
-        <v>0.39484777517564401</v>
+        <v>0.4059328649492584</v>
       </c>
       <c r="AA36" s="7">
         <f t="shared" si="4"/>
-        <v>0.24864114721868857</v>
+        <v>0.24898808835434255</v>
       </c>
       <c r="AB36" s="7">
         <f t="shared" si="5"/>
-        <v>0.20637353771682129</v>
+        <v>0.21045708648470898</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4122,13 +4107,13 @@
         <v>56</v>
       </c>
       <c r="F37" s="32">
-        <v>2727</v>
+        <v>2768</v>
       </c>
       <c r="G37" s="32">
-        <v>2785</v>
+        <v>2778</v>
       </c>
       <c r="H37" s="32">
-        <v>3399</v>
+        <v>3380</v>
       </c>
       <c r="I37" s="9">
         <v>2</v>
@@ -4149,19 +4134,19 @@
         <v>11988</v>
       </c>
       <c r="O37" s="32">
-        <v>18284</v>
+        <v>18301</v>
       </c>
       <c r="P37" s="10">
         <f t="shared" si="0"/>
-        <v>0.41044551475015051</v>
+        <v>0.41661649608669477</v>
       </c>
       <c r="Q37" s="10">
         <f t="shared" si="1"/>
-        <v>0.23231564898231566</v>
+        <v>0.23173173173173173</v>
       </c>
       <c r="R37" s="10">
         <f t="shared" si="2"/>
-        <v>0.18590024064756072</v>
+        <v>0.18468936123709087</v>
       </c>
       <c r="S37" s="9">
         <v>0</v>
@@ -4182,19 +4167,19 @@
         <v>4075</v>
       </c>
       <c r="Y37" s="32">
-        <v>5883</v>
+        <v>5877</v>
       </c>
       <c r="Z37" s="10">
         <f t="shared" si="3"/>
-        <v>0.97253922967189732</v>
+        <v>0.98716119828815974</v>
       </c>
       <c r="AA37" s="11">
         <f t="shared" si="4"/>
-        <v>0.68343558282208594</v>
+        <v>0.68171779141104294</v>
       </c>
       <c r="AB37" s="11">
         <f t="shared" si="5"/>
-        <v>0.57776644569097402</v>
+        <v>0.57512336225965632</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4219,15 +4204,15 @@
       </c>
       <c r="F38" s="30">
         <f>AVERAGE(F3:F6)</f>
-        <v>55515.75</v>
+        <v>57319.25</v>
       </c>
       <c r="G38" s="30">
         <f t="shared" ref="G38:H38" si="7">AVERAGE(G3:G6)</f>
-        <v>70856.75</v>
+        <v>70663.75</v>
       </c>
       <c r="H38" s="30">
         <f t="shared" si="7"/>
-        <v>95962.75</v>
+        <v>95950</v>
       </c>
       <c r="I38" s="20">
         <f>COUNTIF(I3:I6,"=0")/COUNTA(I3:I6)</f>
@@ -4255,19 +4240,19 @@
       </c>
       <c r="O38" s="30">
         <f t="shared" si="9"/>
-        <v>662463.25</v>
+        <v>665625.5</v>
       </c>
       <c r="P38" s="12">
         <f>AVERAGE(P3:P6)</f>
-        <v>0.66979050341209145</v>
+        <v>0.69159175018482455</v>
       </c>
       <c r="Q38" s="12">
         <f>AVERAGE(Q3:Q6)</f>
-        <v>0.79749241269707905</v>
+        <v>0.79535749712355774</v>
       </c>
       <c r="R38" s="12">
         <f>AVERAGE(R3:R6)</f>
-        <v>0.1456156663285306</v>
+        <v>0.14517123465900292</v>
       </c>
       <c r="S38" s="20">
         <f>COUNTIF(S3:S6,"=0")/COUNTA(S3:S6)</f>
@@ -4295,19 +4280,19 @@
       </c>
       <c r="Y38" s="30">
         <f t="shared" si="11"/>
-        <v>142774</v>
+        <v>148046.75</v>
       </c>
       <c r="Z38" s="12">
         <f>AVERAGE(Z3:Z6)</f>
-        <v>1.262479503082379</v>
+        <v>1.3036372574939803</v>
       </c>
       <c r="AA38" s="13">
         <f>AVERAGE(AA3:AA6)</f>
-        <v>0.88747125140395022</v>
+        <v>0.88500969284804509</v>
       </c>
       <c r="AB38" s="13">
         <f>AVERAGE(AB3:AB6)</f>
-        <v>0.72952126281927754</v>
+        <v>0.70811638292740553</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4332,15 +4317,15 @@
       </c>
       <c r="F39" s="31">
         <f>AVERAGE(F7:F37)</f>
-        <v>14557.709677419354</v>
+        <v>15180.064516129032</v>
       </c>
       <c r="G39" s="31">
         <f t="shared" ref="G39:H39" si="12">AVERAGE(G7:G37)</f>
-        <v>16467.16129032258</v>
+        <v>16743.096774193549</v>
       </c>
       <c r="H39" s="31">
         <f t="shared" si="12"/>
-        <v>21053.580645161292</v>
+        <v>21337.354838709678</v>
       </c>
       <c r="I39" s="21">
         <f>COUNTIF(I7:I37,"=0")/COUNTA(I7:I37)</f>
@@ -4368,19 +4353,19 @@
       </c>
       <c r="O39" s="31">
         <f t="shared" si="13"/>
-        <v>93020.419354838712</v>
+        <v>92904.032258064515</v>
       </c>
       <c r="P39" s="14">
         <f>AVERAGE(P7:P37)</f>
-        <v>0.61002938667910434</v>
+        <v>0.63214118993155821</v>
       </c>
       <c r="Q39" s="14">
         <f>AVERAGE(Q7:Q37)</f>
-        <v>0.42028218641232301</v>
+        <v>0.4331879538753996</v>
       </c>
       <c r="R39" s="14">
         <f>AVERAGE(R7:R37)</f>
-        <v>0.27802673398043543</v>
+        <v>0.28712577817035972</v>
       </c>
       <c r="S39" s="21">
         <f>COUNTIF(S7:S37,"=0")/COUNTA(S7:S37)</f>
@@ -4408,19 +4393,19 @@
       </c>
       <c r="Y39" s="31">
         <f t="shared" si="14"/>
-        <v>55672.645161290326</v>
+        <v>56657.387096774197</v>
       </c>
       <c r="Z39" s="14">
         <f>AVERAGE(Z7:Z37)</f>
-        <v>0.78356464480484345</v>
+        <v>0.81406231112358585</v>
       </c>
       <c r="AA39" s="14">
         <f>AVERAGE(AA7:AA37)</f>
-        <v>0.47581856508550435</v>
+        <v>0.49188463732045368</v>
       </c>
       <c r="AB39" s="23">
         <f>AVERAGE(AB7:AB37)</f>
-        <v>0.39085588418289635</v>
+        <v>0.39407752409702057</v>
       </c>
       <c r="AC39" s="24"/>
     </row>
@@ -4446,15 +4431,15 @@
       </c>
       <c r="F40" s="33">
         <f>AVERAGE(F3:F37)</f>
-        <v>19238.628571428573</v>
+        <v>19995.971428571429</v>
       </c>
       <c r="G40" s="33">
         <f t="shared" ref="G40:H40" si="15">AVERAGE(G3:G37)</f>
-        <v>22683.114285714284</v>
+        <v>22905.457142857143</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="15"/>
-        <v>29614.628571428573</v>
+        <v>29864.514285714286</v>
       </c>
       <c r="I40" s="22">
         <f>COUNTIF(I3:I37,"=0")/COUNTA(I3:I37)</f>
@@ -4482,19 +4467,19 @@
       </c>
       <c r="O40" s="33">
         <f t="shared" si="16"/>
-        <v>158099.6</v>
+        <v>158357.91428571427</v>
       </c>
       <c r="P40" s="15">
         <f>AVERAGE(P3:P37)</f>
-        <v>0.6168592285914456</v>
+        <v>0.63893553967478856</v>
       </c>
       <c r="Q40" s="15">
         <f>AVERAGE(Q3:Q37)</f>
-        <v>0.46339192655915235</v>
+        <v>0.47457875881804618</v>
       </c>
       <c r="R40" s="15">
         <f>AVERAGE(R3:R37)</f>
-        <v>0.26289404053450338</v>
+        <v>0.27090240176906177</v>
       </c>
       <c r="S40" s="22">
         <f>COUNTIF(S3:S37,"=0")/COUNTA(S3:S37)</f>
@@ -4522,19 +4507,19 @@
       </c>
       <c r="Y40" s="33">
         <f t="shared" si="17"/>
-        <v>65627.085714285713</v>
+        <v>67101.885714285716</v>
       </c>
       <c r="Z40" s="15">
         <f>AVERAGE(Z3:Z37)</f>
-        <v>0.83829777146513329</v>
+        <v>0.8700137335659166</v>
       </c>
       <c r="AA40" s="16">
         <f>AVERAGE(AA3:AA37)</f>
-        <v>0.52286458637904099</v>
+        <v>0.53681321509503532</v>
       </c>
       <c r="AB40" s="16">
         <f>AVERAGE(AB3:AB37)</f>
-        <v>0.42956049888419706</v>
+        <v>0.42996767939192165</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
